--- a/JupyterNotebooks/AvgHW/RGossF-HW40.xlsx
+++ b/JupyterNotebooks/AvgHW/RGossF-HW40.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>HKL</t>
   </si>
@@ -58,6 +58,18 @@
     <t>OffsetATD</t>
   </si>
   <si>
+    <t>Holden2.5</t>
+  </si>
+  <si>
+    <t>Holden5</t>
+  </si>
+  <si>
+    <t>Holden10</t>
+  </si>
+  <si>
+    <t>Holden15</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -70,28 +82,28 @@
     <t>HexGrid-90degTilt15degRes</t>
   </si>
   <si>
+    <t>[2, 0, 0]</t>
+  </si>
+  <si>
+    <t>[2, 2, 0]</t>
+  </si>
+  <si>
+    <t>[2, 1, 1]</t>
+  </si>
+  <si>
+    <t>[4, 0, 0]</t>
+  </si>
+  <si>
+    <t>[3, 2, 1]</t>
+  </si>
+  <si>
     <t>[1, 1, 0]</t>
   </si>
   <si>
-    <t>[2, 0, 0]</t>
-  </si>
-  <si>
-    <t>[2, 1, 1]</t>
-  </si>
-  <si>
-    <t>[2, 2, 0]</t>
+    <t>[3, 1, 0]</t>
   </si>
   <si>
     <t>[2, 2, 2]</t>
-  </si>
-  <si>
-    <t>[3, 1, 0]</t>
-  </si>
-  <si>
-    <t>[3, 2, 1]</t>
-  </si>
-  <si>
-    <t>[4, 0, 0]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -479,13 +491,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AD19"/>
+  <dimension ref="A1:T23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -543,38 +555,8 @@
       <c r="T1" s="1">
         <v>18</v>
       </c>
-      <c r="U1" s="1">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:30">
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -582,91 +564,61 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
-      </c>
-      <c r="U2" t="s">
-        <v>26</v>
-      </c>
-      <c r="V2" t="s">
-        <v>27</v>
-      </c>
-      <c r="W2" t="s">
-        <v>28</v>
-      </c>
-      <c r="X2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:30">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -674,28 +626,28 @@
         <v>1</v>
       </c>
       <c r="C3">
+        <v>0.9992473173885513</v>
+      </c>
+      <c r="D3">
         <v>1.000178458078625</v>
-      </c>
-      <c r="D3">
-        <v>0.9992473173885513</v>
       </c>
       <c r="E3">
         <v>1.000193567741096</v>
       </c>
       <c r="F3">
+        <v>0.9992473173885513</v>
+      </c>
+      <c r="G3">
+        <v>1.000189161908956</v>
+      </c>
+      <c r="H3">
         <v>1.000178458078625</v>
       </c>
-      <c r="G3">
+      <c r="I3">
+        <v>0.9995825277887278</v>
+      </c>
+      <c r="J3">
         <v>1.000519057362752</v>
-      </c>
-      <c r="H3">
-        <v>0.9995825277887278</v>
-      </c>
-      <c r="I3">
-        <v>1.000189161908955</v>
-      </c>
-      <c r="J3">
-        <v>0.9992473173885513</v>
       </c>
       <c r="K3">
         <v>1.000178458078625</v>
@@ -713,7 +665,7 @@
         <v>0.9996744709727917</v>
       </c>
       <c r="P3">
-        <v>0.9998731144027578</v>
+        <v>0.9998731144027576</v>
       </c>
       <c r="Q3">
         <v>0.9998731144027576</v>
@@ -728,7 +680,7 @@
         <v>0.9999850150447848</v>
       </c>
     </row>
-    <row r="4" spans="1:30">
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -736,28 +688,28 @@
         <v>2</v>
       </c>
       <c r="C4">
+        <v>0.9985466681248606</v>
+      </c>
+      <c r="D4">
         <v>1.000344976798933</v>
-      </c>
-      <c r="D4">
-        <v>0.9985466681248606</v>
       </c>
       <c r="E4">
         <v>1.000373531000567</v>
       </c>
       <c r="F4">
+        <v>0.9985466681248606</v>
+      </c>
+      <c r="G4">
+        <v>1.000365205458988</v>
+      </c>
+      <c r="H4">
         <v>1.000344976798933</v>
       </c>
-      <c r="G4">
+      <c r="I4">
+        <v>0.999194060057356</v>
+      </c>
+      <c r="J4">
         <v>1.001001521959724</v>
-      </c>
-      <c r="H4">
-        <v>0.999194060057356</v>
-      </c>
-      <c r="I4">
-        <v>1.000365205458988</v>
-      </c>
-      <c r="J4">
-        <v>0.9985466681248606</v>
       </c>
       <c r="K4">
         <v>1.000344976798933</v>
@@ -787,10 +739,10 @@
         <v>0.9999025381808231</v>
       </c>
       <c r="T4">
-        <v>0.9999709939000713</v>
-      </c>
-    </row>
-    <row r="5" spans="1:30">
+        <v>0.9999709939000714</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -798,28 +750,28 @@
         <v>3</v>
       </c>
       <c r="C5">
+        <v>0.9972142205433888</v>
+      </c>
+      <c r="D5">
         <v>1.000662160026033</v>
-      </c>
-      <c r="D5">
-        <v>0.9972142205433888</v>
       </c>
       <c r="E5">
         <v>1.000715492022412</v>
       </c>
       <c r="F5">
+        <v>0.9972142205433888</v>
+      </c>
+      <c r="G5">
+        <v>1.000699945323557</v>
+      </c>
+      <c r="H5">
         <v>1.000662160026033</v>
       </c>
-      <c r="G5">
+      <c r="I5">
+        <v>0.9984554799505534</v>
+      </c>
+      <c r="J5">
         <v>1.001918141740564</v>
-      </c>
-      <c r="H5">
-        <v>0.9984554799505534</v>
-      </c>
-      <c r="I5">
-        <v>1.000699945323557</v>
-      </c>
-      <c r="J5">
-        <v>0.9972142205433888</v>
       </c>
       <c r="K5">
         <v>1.000662160026033</v>
@@ -852,7 +804,7 @@
         <v>0.9999442399344182</v>
       </c>
     </row>
-    <row r="6" spans="1:30">
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -860,28 +812,28 @@
         <v>4</v>
       </c>
       <c r="C6">
+        <v>0.9959136981544287</v>
+      </c>
+      <c r="D6">
         <v>1.000971903025957</v>
-      </c>
-      <c r="D6">
-        <v>0.9959136981544287</v>
       </c>
       <c r="E6">
         <v>1.001049176072684</v>
       </c>
       <c r="F6">
+        <v>0.9959136981544287</v>
+      </c>
+      <c r="G6">
+        <v>1.001026640362086</v>
+      </c>
+      <c r="H6">
         <v>1.000971903025957</v>
       </c>
-      <c r="G6">
+      <c r="I6">
+        <v>0.9977346586452092</v>
+      </c>
+      <c r="J6">
         <v>1.002812504176171</v>
-      </c>
-      <c r="H6">
-        <v>0.9977346586452092</v>
-      </c>
-      <c r="I6">
-        <v>1.001026640362086</v>
-      </c>
-      <c r="J6">
-        <v>0.9959136981544287</v>
       </c>
       <c r="K6">
         <v>1.000971903025957</v>
@@ -890,31 +842,31 @@
         <v>1.001049176072684</v>
       </c>
       <c r="M6">
-        <v>0.9984814371135564</v>
+        <v>0.9984814371135562</v>
       </c>
       <c r="N6">
-        <v>0.9984814371135564</v>
+        <v>0.9984814371135562</v>
       </c>
       <c r="O6">
         <v>0.9982325109574406</v>
       </c>
       <c r="P6">
-        <v>0.9993115924176897</v>
+        <v>0.9993115924176896</v>
       </c>
       <c r="Q6">
-        <v>0.99931159241769</v>
+        <v>0.9993115924176896</v>
       </c>
       <c r="R6">
-        <v>0.9997266700697566</v>
+        <v>0.9997266700697564</v>
       </c>
       <c r="S6">
-        <v>0.9997266700697566</v>
+        <v>0.9997266700697564</v>
       </c>
       <c r="T6">
-        <v>0.9999180967394228</v>
-      </c>
-    </row>
-    <row r="7" spans="1:30">
+        <v>0.9999180967394227</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -922,28 +874,28 @@
         <v>5</v>
       </c>
       <c r="C7">
+        <v>0.999939773931412</v>
+      </c>
+      <c r="D7">
         <v>1.000015994464543</v>
-      </c>
-      <c r="D7">
-        <v>0.9999397739314125</v>
       </c>
       <c r="E7">
         <v>1.000014536145944</v>
       </c>
       <c r="F7">
+        <v>0.999939773931412</v>
+      </c>
+      <c r="G7">
+        <v>1.000014960823939</v>
+      </c>
+      <c r="H7">
         <v>1.000015994464543</v>
       </c>
-      <c r="G7">
+      <c r="I7">
+        <v>0.9999672130065077</v>
+      </c>
+      <c r="J7">
         <v>1.000038484610054</v>
-      </c>
-      <c r="H7">
-        <v>0.9999672130065077</v>
-      </c>
-      <c r="I7">
-        <v>1.000014960823939</v>
-      </c>
-      <c r="J7">
-        <v>0.9999397739314125</v>
       </c>
       <c r="K7">
         <v>1.000015994464543</v>
@@ -952,31 +904,31 @@
         <v>1.000014536145944</v>
       </c>
       <c r="M7">
-        <v>0.9999771550386785</v>
+        <v>0.9999771550386782</v>
       </c>
       <c r="N7">
-        <v>0.9999771550386785</v>
+        <v>0.9999771550386782</v>
       </c>
       <c r="O7">
-        <v>0.9999738410279549</v>
+        <v>0.9999738410279547</v>
       </c>
       <c r="P7">
-        <v>0.9999901015139666</v>
+        <v>0.9999901015139665</v>
       </c>
       <c r="Q7">
-        <v>0.9999901015139668</v>
+        <v>0.9999901015139665</v>
       </c>
       <c r="R7">
-        <v>0.9999965747516109</v>
+        <v>0.9999965747516106</v>
       </c>
       <c r="S7">
-        <v>0.9999965747516109</v>
+        <v>0.9999965747516106</v>
       </c>
       <c r="T7">
-        <v>0.9999984938304002</v>
-      </c>
-    </row>
-    <row r="8" spans="1:30">
+        <v>0.9999984938304</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -984,43 +936,43 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.000036634539436</v>
+        <v>0.9998634054498764</v>
       </c>
       <c r="D8">
-        <v>0.9998634054498766</v>
+        <v>1.000036634539437</v>
       </c>
       <c r="E8">
         <v>1.000032768734596</v>
       </c>
       <c r="F8">
-        <v>1.000036634539436</v>
+        <v>0.9998634054498764</v>
       </c>
       <c r="G8">
+        <v>1.000033895110459</v>
+      </c>
+      <c r="H8">
+        <v>1.000036634539437</v>
+      </c>
+      <c r="I8">
+        <v>0.9999257675455975</v>
+      </c>
+      <c r="J8">
         <v>1.000086645172726</v>
       </c>
-      <c r="H8">
-        <v>0.9999257675455975</v>
-      </c>
-      <c r="I8">
-        <v>1.000033895110459</v>
-      </c>
-      <c r="J8">
-        <v>0.9998634054498766</v>
-      </c>
       <c r="K8">
-        <v>1.000036634539436</v>
+        <v>1.000036634539437</v>
       </c>
       <c r="L8">
         <v>1.000032768734596</v>
       </c>
       <c r="M8">
-        <v>0.9999480870922366</v>
+        <v>0.9999480870922364</v>
       </c>
       <c r="N8">
-        <v>0.9999480870922366</v>
+        <v>0.9999480870922364</v>
       </c>
       <c r="O8">
-        <v>0.9999406472433569</v>
+        <v>0.9999406472433567</v>
       </c>
       <c r="P8">
         <v>0.9999776029079698</v>
@@ -1038,7 +990,7 @@
         <v>0.9999965194254488</v>
       </c>
     </row>
-    <row r="9" spans="1:30">
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1046,28 +998,28 @@
         <v>7</v>
       </c>
       <c r="C9">
+        <v>0.9997667743634115</v>
+      </c>
+      <c r="D9">
         <v>1.000061941456797</v>
-      </c>
-      <c r="D9">
-        <v>0.9997667743634115</v>
       </c>
       <c r="E9">
         <v>1.000056287569256</v>
       </c>
       <c r="F9">
+        <v>0.9997667743634115</v>
+      </c>
+      <c r="G9">
+        <v>1.00005793558179</v>
+      </c>
+      <c r="H9">
         <v>1.000061941456797</v>
       </c>
-      <c r="G9">
+      <c r="I9">
+        <v>0.999873034153109</v>
+      </c>
+      <c r="J9">
         <v>1.000149022529317</v>
-      </c>
-      <c r="H9">
-        <v>0.999873034153109</v>
-      </c>
-      <c r="I9">
-        <v>1.00005793558179</v>
-      </c>
-      <c r="J9">
-        <v>0.9997667743634115</v>
       </c>
       <c r="K9">
         <v>1.000061941456797</v>
@@ -1076,19 +1028,19 @@
         <v>1.000056287569256</v>
       </c>
       <c r="M9">
-        <v>0.9999115309663338</v>
+        <v>0.9999115309663339</v>
       </c>
       <c r="N9">
-        <v>0.9999115309663338</v>
+        <v>0.9999115309663339</v>
       </c>
       <c r="O9">
         <v>0.9998986986952589</v>
       </c>
       <c r="P9">
-        <v>0.9999616677964882</v>
+        <v>0.9999616677964883</v>
       </c>
       <c r="Q9">
-        <v>0.9999616677964882</v>
+        <v>0.9999616677964883</v>
       </c>
       <c r="R9">
         <v>0.9999867362115655</v>
@@ -1097,10 +1049,10 @@
         <v>0.9999867362115655</v>
       </c>
       <c r="T9">
-        <v>0.9999941659422801</v>
-      </c>
-    </row>
-    <row r="10" spans="1:30">
+        <v>0.9999941659422803</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1108,28 +1060,28 @@
         <v>8</v>
       </c>
       <c r="C10">
+        <v>0.9995318328851315</v>
+      </c>
+      <c r="D10">
         <v>1.000124576365077</v>
-      </c>
-      <c r="D10">
-        <v>0.9995318328851315</v>
       </c>
       <c r="E10">
         <v>1.000112856426304</v>
       </c>
       <c r="F10">
+        <v>0.9995318328851315</v>
+      </c>
+      <c r="G10">
+        <v>1.000116273336242</v>
+      </c>
+      <c r="H10">
         <v>1.000124576365077</v>
       </c>
-      <c r="G10">
+      <c r="I10">
+        <v>0.999745221328773</v>
+      </c>
+      <c r="J10">
         <v>1.000298715777081</v>
-      </c>
-      <c r="H10">
-        <v>0.999745221328773</v>
-      </c>
-      <c r="I10">
-        <v>1.000116273336242</v>
-      </c>
-      <c r="J10">
-        <v>0.9995318328851315</v>
       </c>
       <c r="K10">
         <v>1.000124576365077</v>
@@ -1138,31 +1090,31 @@
         <v>1.000112856426304</v>
       </c>
       <c r="M10">
-        <v>0.9998223446557176</v>
+        <v>0.9998223446557175</v>
       </c>
       <c r="N10">
-        <v>0.9998223446557176</v>
+        <v>0.9998223446557175</v>
       </c>
       <c r="O10">
-        <v>0.9997966368800695</v>
+        <v>0.9997966368800694</v>
       </c>
       <c r="P10">
-        <v>0.9999230885588375</v>
+        <v>0.9999230885588374</v>
       </c>
       <c r="Q10">
-        <v>0.9999230885588375</v>
+        <v>0.9999230885588374</v>
       </c>
       <c r="R10">
-        <v>0.9999734605103974</v>
+        <v>0.9999734605103973</v>
       </c>
       <c r="S10">
-        <v>0.9999734605103974</v>
+        <v>0.9999734605103973</v>
       </c>
       <c r="T10">
         <v>0.9999882460197681</v>
       </c>
     </row>
-    <row r="11" spans="1:30">
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1170,28 +1122,28 @@
         <v>9</v>
       </c>
       <c r="C11">
+        <v>0.9991558653291415</v>
+      </c>
+      <c r="D11">
         <v>1.000224286831216</v>
-      </c>
-      <c r="D11">
-        <v>0.9991558653291415</v>
       </c>
       <c r="E11">
         <v>1.000203671547438</v>
       </c>
       <c r="F11">
+        <v>0.9991558653291415</v>
+      </c>
+      <c r="G11">
+        <v>1.000209681157705</v>
+      </c>
+      <c r="H11">
         <v>1.000224286831216</v>
       </c>
-      <c r="G11">
+      <c r="I11">
+        <v>0.9995404986670556</v>
+      </c>
+      <c r="J11">
         <v>1.000539197310612</v>
-      </c>
-      <c r="H11">
-        <v>0.9995404986670556</v>
-      </c>
-      <c r="I11">
-        <v>1.000209681157705</v>
-      </c>
-      <c r="J11">
-        <v>0.9991558653291415</v>
       </c>
       <c r="K11">
         <v>1.000224286831216</v>
@@ -1224,7 +1176,7 @@
         <v>0.9999788668071946</v>
       </c>
     </row>
-    <row r="12" spans="1:30">
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1232,28 +1184,28 @@
         <v>10</v>
       </c>
       <c r="C12">
+        <v>0.9987123041058847</v>
+      </c>
+      <c r="D12">
         <v>1.000296024782096</v>
-      </c>
-      <c r="D12">
-        <v>0.9987123041058847</v>
       </c>
       <c r="E12">
         <v>1.000336325498456</v>
       </c>
       <c r="F12">
+        <v>0.9987123041058847</v>
+      </c>
+      <c r="G12">
+        <v>1.000324559131632</v>
+      </c>
+      <c r="H12">
         <v>1.000296024782096</v>
       </c>
-      <c r="G12">
+      <c r="I12">
+        <v>0.9992824357394359</v>
+      </c>
+      <c r="J12">
         <v>1.000904523457336</v>
-      </c>
-      <c r="H12">
-        <v>0.9992824357394359</v>
-      </c>
-      <c r="I12">
-        <v>1.000324559131632</v>
-      </c>
-      <c r="J12">
-        <v>0.9987123041058847</v>
       </c>
       <c r="K12">
         <v>1.000296024782096</v>
@@ -1286,7 +1238,7 @@
         <v>0.9999760287858068</v>
       </c>
     </row>
-    <row r="13" spans="1:30">
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1294,28 +1246,28 @@
         <v>11</v>
       </c>
       <c r="C13">
+        <v>0.9996364740418497</v>
+      </c>
+      <c r="D13">
         <v>1.000103377191377</v>
-      </c>
-      <c r="D13">
-        <v>0.9996364740418497</v>
       </c>
       <c r="E13">
         <v>1.000083939203447</v>
       </c>
       <c r="F13">
+        <v>0.9996364740418497</v>
+      </c>
+      <c r="G13">
+        <v>1.000089609287539</v>
+      </c>
+      <c r="H13">
         <v>1.000103377191377</v>
       </c>
-      <c r="G13">
+      <c r="I13">
+        <v>0.9998045610426181</v>
+      </c>
+      <c r="J13">
         <v>1.000220137397193</v>
-      </c>
-      <c r="H13">
-        <v>0.9998045610426181</v>
-      </c>
-      <c r="I13">
-        <v>1.000089609287539</v>
-      </c>
-      <c r="J13">
-        <v>0.9996364740418497</v>
       </c>
       <c r="K13">
         <v>1.000103377191377</v>
@@ -1324,10 +1276,10 @@
         <v>1.000083939203447</v>
       </c>
       <c r="M13">
-        <v>0.9998602066226482</v>
+        <v>0.9998602066226483</v>
       </c>
       <c r="N13">
-        <v>0.9998602066226482</v>
+        <v>0.9998602066226483</v>
       </c>
       <c r="O13">
         <v>0.9998416580959715</v>
@@ -1348,7 +1300,7 @@
         <v>0.9999896830273372</v>
       </c>
     </row>
-    <row r="14" spans="1:30">
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1356,28 +1308,28 @@
         <v>12</v>
       </c>
       <c r="C14">
+        <v>0.903179289747316</v>
+      </c>
+      <c r="D14">
         <v>1.023710879888909</v>
-      </c>
-      <c r="D14">
-        <v>0.903179289747316</v>
       </c>
       <c r="E14">
         <v>1.024479788244299</v>
       </c>
       <c r="F14">
+        <v>0.903179289747316</v>
+      </c>
+      <c r="G14">
+        <v>1.024255608649295</v>
+      </c>
+      <c r="H14">
         <v>1.023710879888909</v>
       </c>
-      <c r="G14">
+      <c r="I14">
+        <v>0.9465706614042574</v>
+      </c>
+      <c r="J14">
         <v>1.065425904135564</v>
-      </c>
-      <c r="H14">
-        <v>0.9465706614042574</v>
-      </c>
-      <c r="I14">
-        <v>1.024255608649296</v>
-      </c>
-      <c r="J14">
-        <v>0.903179289747316</v>
       </c>
       <c r="K14">
         <v>1.023710879888909</v>
@@ -1410,7 +1362,7 @@
         <v>0.9979370220116069</v>
       </c>
     </row>
-    <row r="15" spans="1:30">
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1418,28 +1370,28 @@
         <v>13</v>
       </c>
       <c r="C15">
+        <v>0.9737550851655731</v>
+      </c>
+      <c r="D15">
         <v>1.006768384060493</v>
-      </c>
-      <c r="D15">
-        <v>0.9737550851655731</v>
       </c>
       <c r="E15">
         <v>1.006446150929852</v>
       </c>
       <c r="F15">
+        <v>0.9737550851655731</v>
+      </c>
+      <c r="G15">
+        <v>1.00654008781614</v>
+      </c>
+      <c r="H15">
         <v>1.006768384060493</v>
       </c>
-      <c r="G15">
+      <c r="I15">
+        <v>0.9856398703219604</v>
+      </c>
+      <c r="J15">
         <v>1.01712833877372</v>
-      </c>
-      <c r="H15">
-        <v>0.9856398703219604</v>
-      </c>
-      <c r="I15">
-        <v>1.00654008781614</v>
-      </c>
-      <c r="J15">
-        <v>0.9737550851655731</v>
       </c>
       <c r="K15">
         <v>1.006768384060493</v>
@@ -1469,10 +1421,10 @@
         <v>0.9984345010541029</v>
       </c>
       <c r="T15">
-        <v>0.9993796528446232</v>
-      </c>
-    </row>
-    <row r="16" spans="1:30">
+        <v>0.9993796528446234</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1480,58 +1432,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.9999997751191716</v>
+        <v>0.9853011124479392</v>
       </c>
       <c r="D16">
-        <v>0.9999974839626672</v>
+        <v>1.003506906045673</v>
       </c>
       <c r="E16">
-        <v>1.000001104317315</v>
+        <v>1.003767956526515</v>
       </c>
       <c r="F16">
-        <v>0.9999997751191716</v>
+        <v>0.9853011124479392</v>
       </c>
       <c r="G16">
-        <v>1.000003196607137</v>
+        <v>1.00369184352413</v>
       </c>
       <c r="H16">
-        <v>0.9999983085053618</v>
+        <v>1.003506906045673</v>
       </c>
       <c r="I16">
-        <v>1.000000716230596</v>
+        <v>0.9918551987134927</v>
       </c>
       <c r="J16">
-        <v>0.9999974839626672</v>
+        <v>1.010097606417038</v>
       </c>
       <c r="K16">
-        <v>0.9999997751191716</v>
+        <v>1.003506906045673</v>
       </c>
       <c r="L16">
-        <v>1.000001104317315</v>
+        <v>1.003767956526515</v>
       </c>
       <c r="M16">
-        <v>0.9999992941399911</v>
+        <v>0.9945345344872268</v>
       </c>
       <c r="N16">
-        <v>0.9999992941399911</v>
+        <v>0.9945345344872268</v>
       </c>
       <c r="O16">
-        <v>0.9999989655951147</v>
+        <v>0.9936414225626488</v>
       </c>
       <c r="P16">
-        <v>0.9999994544663847</v>
+        <v>0.9975253250067088</v>
       </c>
       <c r="Q16">
-        <v>0.9999994544663845</v>
+        <v>0.9975253250067088</v>
       </c>
       <c r="R16">
-        <v>0.9999995346295814</v>
+        <v>0.9990207202664498</v>
       </c>
       <c r="S16">
-        <v>0.9999995346295814</v>
+        <v>0.9990207202664498</v>
       </c>
       <c r="T16">
-        <v>1.000000097457042</v>
+        <v>0.9997034372791312</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1542,58 +1494,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.000019946708355</v>
+        <v>0.9879260716571323</v>
       </c>
       <c r="D17">
-        <v>0.9999315057285559</v>
+        <v>1.002933144430696</v>
       </c>
       <c r="E17">
-        <v>1.000015556391327</v>
+        <v>1.003065894778974</v>
       </c>
       <c r="F17">
-        <v>1.000019946708355</v>
+        <v>0.9879260716571323</v>
       </c>
       <c r="G17">
-        <v>1.000040645159586</v>
+        <v>1.003027188188428</v>
       </c>
       <c r="H17">
-        <v>0.9999633441660268</v>
+        <v>1.002933144430696</v>
       </c>
       <c r="I17">
-        <v>1.000016835909944</v>
+        <v>0.9933286180472</v>
       </c>
       <c r="J17">
-        <v>0.9999315057285559</v>
+        <v>1.008201003583769</v>
       </c>
       <c r="K17">
-        <v>1.000019946708355</v>
+        <v>1.002933144430696</v>
       </c>
       <c r="L17">
-        <v>1.000015556391327</v>
+        <v>1.003065894778974</v>
       </c>
       <c r="M17">
-        <v>0.9999735310599414</v>
+        <v>0.9954959832180532</v>
       </c>
       <c r="N17">
-        <v>0.9999735310599414</v>
+        <v>0.9954959832180532</v>
       </c>
       <c r="O17">
-        <v>0.9999701354286366</v>
+        <v>0.9947735281611022</v>
       </c>
       <c r="P17">
-        <v>0.999989002942746</v>
+        <v>0.9979750369556006</v>
       </c>
       <c r="Q17">
-        <v>0.999989002942746</v>
+        <v>0.9979750369556006</v>
       </c>
       <c r="R17">
-        <v>0.9999967388841483</v>
+        <v>0.9992145638243743</v>
       </c>
       <c r="S17">
-        <v>0.9999967388841483</v>
+        <v>0.9992145638243743</v>
       </c>
       <c r="T17">
-        <v>0.9999979723439658</v>
+        <v>0.9997469867810332</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1604,58 +1556,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.000050046688022</v>
+        <v>0.9931892629510943</v>
       </c>
       <c r="D18">
-        <v>0.9997712678434886</v>
+        <v>1.001781178270973</v>
       </c>
       <c r="E18">
-        <v>1.000061145681835</v>
+        <v>1.001659077521535</v>
       </c>
       <c r="F18">
-        <v>1.000050046688022</v>
+        <v>0.9931892629510943</v>
       </c>
       <c r="G18">
-        <v>1.000165171736319</v>
+        <v>1.001694675851221</v>
       </c>
       <c r="H18">
-        <v>0.9998716302557473</v>
+        <v>1.001781178270973</v>
       </c>
       <c r="I18">
-        <v>1.000057911721521</v>
+        <v>0.9962823530426792</v>
       </c>
       <c r="J18">
-        <v>0.9997712678434886</v>
+        <v>1.004400947849574</v>
       </c>
       <c r="K18">
-        <v>1.000050046688022</v>
+        <v>1.001781178270973</v>
       </c>
       <c r="L18">
-        <v>1.000061145681835</v>
+        <v>1.001659077521535</v>
       </c>
       <c r="M18">
-        <v>0.9999162067626619</v>
+        <v>0.9974241702363147</v>
       </c>
       <c r="N18">
-        <v>0.9999162067626619</v>
+        <v>0.9974241702363147</v>
       </c>
       <c r="O18">
-        <v>0.9999013479270237</v>
+        <v>0.9970435645051028</v>
       </c>
       <c r="P18">
-        <v>0.9999608200711153</v>
+        <v>0.9988765062478674</v>
       </c>
       <c r="Q18">
-        <v>0.9999608200711153</v>
+        <v>0.9988765062478674</v>
       </c>
       <c r="R18">
-        <v>0.9999831267253421</v>
+        <v>0.9996026742536437</v>
       </c>
       <c r="S18">
-        <v>0.9999831267253421</v>
+        <v>0.9996026742536437</v>
       </c>
       <c r="T18">
-        <v>0.9999961956544889</v>
+        <v>0.9998345825811795</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1666,58 +1618,306 @@
         <v>17</v>
       </c>
       <c r="C19">
+        <v>0.9929755818839308</v>
+      </c>
+      <c r="D19">
+        <v>1.00186382937687</v>
+      </c>
+      <c r="E19">
+        <v>1.001696255848616</v>
+      </c>
+      <c r="F19">
+        <v>0.9929755818839308</v>
+      </c>
+      <c r="G19">
+        <v>1.001745108142206</v>
+      </c>
+      <c r="H19">
+        <v>1.00186382937687</v>
+      </c>
+      <c r="I19">
+        <v>0.9961753536924941</v>
+      </c>
+      <c r="J19">
+        <v>1.004491429124751</v>
+      </c>
+      <c r="K19">
+        <v>1.00186382937687</v>
+      </c>
+      <c r="L19">
+        <v>1.001696255848616</v>
+      </c>
+      <c r="M19">
+        <v>0.9973359188662732</v>
+      </c>
+      <c r="N19">
+        <v>0.9973359188662732</v>
+      </c>
+      <c r="O19">
+        <v>0.9969490638083468</v>
+      </c>
+      <c r="P19">
+        <v>0.9988452223698056</v>
+      </c>
+      <c r="Q19">
+        <v>0.9988452223698056</v>
+      </c>
+      <c r="R19">
+        <v>0.9995998741215718</v>
+      </c>
+      <c r="S19">
+        <v>0.9995998741215718</v>
+      </c>
+      <c r="T19">
+        <v>0.999824593011478</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>0.9999974839626672</v>
+      </c>
+      <c r="D20">
+        <v>0.9999997751191719</v>
+      </c>
+      <c r="E20">
+        <v>1.000001104317315</v>
+      </c>
+      <c r="F20">
+        <v>0.9999974839626672</v>
+      </c>
+      <c r="G20">
+        <v>1.000000716230596</v>
+      </c>
+      <c r="H20">
+        <v>0.9999997751191719</v>
+      </c>
+      <c r="I20">
+        <v>0.9999983085053616</v>
+      </c>
+      <c r="J20">
+        <v>1.000003196607137</v>
+      </c>
+      <c r="K20">
+        <v>0.9999997751191719</v>
+      </c>
+      <c r="L20">
+        <v>1.000001104317315</v>
+      </c>
+      <c r="M20">
+        <v>0.9999992941399909</v>
+      </c>
+      <c r="N20">
+        <v>0.9999992941399909</v>
+      </c>
+      <c r="O20">
+        <v>0.9999989655951144</v>
+      </c>
+      <c r="P20">
+        <v>0.9999994544663845</v>
+      </c>
+      <c r="Q20">
+        <v>0.9999994544663847</v>
+      </c>
+      <c r="R20">
+        <v>0.9999995346295815</v>
+      </c>
+      <c r="S20">
+        <v>0.9999995346295815</v>
+      </c>
+      <c r="T20">
+        <v>1.000000097457042</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>0.9999315057285559</v>
+      </c>
+      <c r="D21">
+        <v>1.000019946708355</v>
+      </c>
+      <c r="E21">
+        <v>1.000015556391327</v>
+      </c>
+      <c r="F21">
+        <v>0.9999315057285559</v>
+      </c>
+      <c r="G21">
+        <v>1.000016835909944</v>
+      </c>
+      <c r="H21">
+        <v>1.000019946708355</v>
+      </c>
+      <c r="I21">
+        <v>0.9999633441660268</v>
+      </c>
+      <c r="J21">
+        <v>1.000040645159586</v>
+      </c>
+      <c r="K21">
+        <v>1.000019946708355</v>
+      </c>
+      <c r="L21">
+        <v>1.000015556391327</v>
+      </c>
+      <c r="M21">
+        <v>0.9999735310599414</v>
+      </c>
+      <c r="N21">
+        <v>0.9999735310599414</v>
+      </c>
+      <c r="O21">
+        <v>0.9999701354286366</v>
+      </c>
+      <c r="P21">
+        <v>0.999989002942746</v>
+      </c>
+      <c r="Q21">
+        <v>0.999989002942746</v>
+      </c>
+      <c r="R21">
+        <v>0.9999967388841483</v>
+      </c>
+      <c r="S21">
+        <v>0.9999967388841483</v>
+      </c>
+      <c r="T21">
+        <v>0.9999979723439658</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>0.9997712678434886</v>
+      </c>
+      <c r="D22">
+        <v>1.000050046688022</v>
+      </c>
+      <c r="E22">
+        <v>1.000061145681835</v>
+      </c>
+      <c r="F22">
+        <v>0.9997712678434886</v>
+      </c>
+      <c r="G22">
+        <v>1.000057911721522</v>
+      </c>
+      <c r="H22">
+        <v>1.000050046688022</v>
+      </c>
+      <c r="I22">
+        <v>0.9998716302557473</v>
+      </c>
+      <c r="J22">
+        <v>1.000165171736319</v>
+      </c>
+      <c r="K22">
+        <v>1.000050046688022</v>
+      </c>
+      <c r="L22">
+        <v>1.000061145681835</v>
+      </c>
+      <c r="M22">
+        <v>0.9999162067626619</v>
+      </c>
+      <c r="N22">
+        <v>0.9999162067626619</v>
+      </c>
+      <c r="O22">
+        <v>0.9999013479270237</v>
+      </c>
+      <c r="P22">
+        <v>0.9999608200711153</v>
+      </c>
+      <c r="Q22">
+        <v>0.9999608200711153</v>
+      </c>
+      <c r="R22">
+        <v>0.9999831267253421</v>
+      </c>
+      <c r="S22">
+        <v>0.9999831267253421</v>
+      </c>
+      <c r="T22">
+        <v>0.9999961956544889</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>0.9994724573075052</v>
+      </c>
+      <c r="D23">
         <v>1.00010375110801</v>
       </c>
-      <c r="D19">
+      <c r="E23">
+        <v>1.000147514984475</v>
+      </c>
+      <c r="F23">
         <v>0.9994724573075052</v>
       </c>
-      <c r="E19">
+      <c r="G23">
+        <v>1.000134756637829</v>
+      </c>
+      <c r="H23">
+        <v>1.00010375110801</v>
+      </c>
+      <c r="I23">
+        <v>0.999699726222578</v>
+      </c>
+      <c r="J23">
+        <v>1.000401712092244</v>
+      </c>
+      <c r="K23">
+        <v>1.00010375110801</v>
+      </c>
+      <c r="L23">
         <v>1.000147514984475</v>
       </c>
-      <c r="F19">
-        <v>1.00010375110801</v>
-      </c>
-      <c r="G19">
-        <v>1.000401712092244</v>
-      </c>
-      <c r="H19">
-        <v>0.9996997262225782</v>
-      </c>
-      <c r="I19">
-        <v>1.000134756637829</v>
-      </c>
-      <c r="J19">
-        <v>0.9994724573075052</v>
-      </c>
-      <c r="K19">
-        <v>1.00010375110801</v>
-      </c>
-      <c r="L19">
-        <v>1.000147514984475</v>
-      </c>
-      <c r="M19">
+      <c r="M23">
         <v>0.9998099861459899</v>
       </c>
-      <c r="N19">
+      <c r="N23">
         <v>0.9998099861459899</v>
       </c>
-      <c r="O19">
+      <c r="O23">
         <v>0.999773232838186</v>
       </c>
-      <c r="P19">
+      <c r="P23">
         <v>0.9999079077999964</v>
       </c>
-      <c r="Q19">
+      <c r="Q23">
         <v>0.9999079077999964</v>
       </c>
-      <c r="R19">
+      <c r="R23">
         <v>0.9999568686269997</v>
       </c>
-      <c r="S19">
+      <c r="S23">
         <v>0.9999568686269997</v>
       </c>
-      <c r="T19">
-        <v>0.9999933197254401</v>
+      <c r="T23">
+        <v>0.9999933197254399</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/RGossF-HW40.xlsx
+++ b/JupyterNotebooks/AvgHW/RGossF-HW40.xlsx
@@ -14,11 +14,47 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>HKL</t>
   </si>
   <si>
+    <t>EA_5</t>
+  </si>
+  <si>
+    <t>EA_2.5</t>
+  </si>
+  <si>
+    <t>EA_10</t>
+  </si>
+  <si>
+    <t>EA_15</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_2.5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_10</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_15</t>
+  </si>
+  <si>
+    <t>CLR_5</t>
+  </si>
+  <si>
+    <t>CLR_2.5</t>
+  </si>
+  <si>
+    <t>CLR_10</t>
+  </si>
+  <si>
+    <t>CLR_15</t>
+  </si>
+  <si>
     <t>BT8Hex_2.5</t>
   </si>
   <si>
@@ -70,6 +106,18 @@
     <t>Holden15</t>
   </si>
   <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>Rotation-90detTilt</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -80,6 +128,15 @@
   </si>
   <si>
     <t>HexGrid-90degTilt15degRes</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-90</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-60 Weighted</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-30</t>
   </si>
   <si>
     <t>[2, 0, 0]</t>
@@ -491,7 +548,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T23"/>
+  <dimension ref="A1:T42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -564,58 +621,58 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="G2" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="H2" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="I2" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="J2" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="K2" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="L2" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="M2" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="N2" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="P2" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="Q2" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="R2" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="S2" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="T2" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -626,58 +683,58 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.9992473173885513</v>
+        <v>0.992969347233429</v>
       </c>
       <c r="D3">
-        <v>1.000178458078625</v>
+        <v>1.001847905273776</v>
       </c>
       <c r="E3">
-        <v>1.000193567741096</v>
+        <v>1.001707530518732</v>
       </c>
       <c r="F3">
-        <v>0.9992473173885513</v>
+        <v>0.992969347233429</v>
       </c>
       <c r="G3">
-        <v>1.000189161908956</v>
+        <v>1.00174845371758</v>
       </c>
       <c r="H3">
-        <v>1.000178458078625</v>
+        <v>1.001847905273776</v>
       </c>
       <c r="I3">
-        <v>0.9995825277887278</v>
+        <v>0.9961656277665722</v>
       </c>
       <c r="J3">
-        <v>1.000519057362752</v>
+        <v>1.004526674697407</v>
       </c>
       <c r="K3">
-        <v>1.000178458078625</v>
+        <v>1.001847905273776</v>
       </c>
       <c r="L3">
-        <v>1.000193567741096</v>
+        <v>1.001707530518732</v>
       </c>
       <c r="M3">
-        <v>0.9997204425648238</v>
+        <v>0.9973384388760804</v>
       </c>
       <c r="N3">
-        <v>0.9997204425648238</v>
+        <v>0.9973384388760804</v>
       </c>
       <c r="O3">
-        <v>0.9996744709727917</v>
+        <v>0.9969475018395778</v>
       </c>
       <c r="P3">
-        <v>0.9998731144027576</v>
+        <v>0.9988415943419788</v>
       </c>
       <c r="Q3">
-        <v>0.9998731144027576</v>
+        <v>0.9988415943419788</v>
       </c>
       <c r="R3">
-        <v>0.9999494503217246</v>
+        <v>0.999593172074928</v>
       </c>
       <c r="S3">
-        <v>0.9999494503217246</v>
+        <v>0.999593172074928</v>
       </c>
       <c r="T3">
-        <v>0.9999850150447848</v>
+        <v>0.9998275898679158</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -688,58 +745,58 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.9985466681248606</v>
+        <v>0.9931768176742541</v>
       </c>
       <c r="D4">
-        <v>1.000344976798933</v>
+        <v>1.001789871442416</v>
       </c>
       <c r="E4">
-        <v>1.000373531000567</v>
+        <v>1.001659088371224</v>
       </c>
       <c r="F4">
-        <v>0.9985466681248606</v>
+        <v>0.9931768176742541</v>
       </c>
       <c r="G4">
-        <v>1.000365205458988</v>
+        <v>1.001697215609397</v>
       </c>
       <c r="H4">
-        <v>1.000344976798933</v>
+        <v>1.001789871442416</v>
       </c>
       <c r="I4">
-        <v>0.999194060057356</v>
+        <v>0.9962775165486465</v>
       </c>
       <c r="J4">
-        <v>1.001001521959724</v>
+        <v>1.00439932276556</v>
       </c>
       <c r="K4">
-        <v>1.000344976798933</v>
+        <v>1.001789871442416</v>
       </c>
       <c r="L4">
-        <v>1.000373531000567</v>
+        <v>1.001659088371224</v>
       </c>
       <c r="M4">
-        <v>0.9994600995627136</v>
+        <v>0.9974179530227391</v>
       </c>
       <c r="N4">
-        <v>0.9994600995627136</v>
+        <v>0.9974179530227391</v>
       </c>
       <c r="O4">
-        <v>0.9993714197275945</v>
+        <v>0.9970378075313748</v>
       </c>
       <c r="P4">
-        <v>0.9997550586414533</v>
+        <v>0.9988752591626313</v>
       </c>
       <c r="Q4">
-        <v>0.9997550586414533</v>
+        <v>0.9988752591626313</v>
       </c>
       <c r="R4">
-        <v>0.9999025381808231</v>
+        <v>0.9996039122325775</v>
       </c>
       <c r="S4">
-        <v>0.9999025381808231</v>
+        <v>0.9996039122325775</v>
       </c>
       <c r="T4">
-        <v>0.9999709939000714</v>
+        <v>0.9998333054019163</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -750,58 +807,58 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.9972142205433888</v>
+        <v>0.9925127618328826</v>
       </c>
       <c r="D5">
-        <v>1.000662160026033</v>
+        <v>1.001974631105121</v>
       </c>
       <c r="E5">
-        <v>1.000715492022412</v>
+        <v>1.001814686307277</v>
       </c>
       <c r="F5">
-        <v>0.9972142205433888</v>
+        <v>0.9925127618328826</v>
       </c>
       <c r="G5">
-        <v>1.000699945323557</v>
+        <v>1.001861317628033</v>
       </c>
       <c r="H5">
-        <v>1.000662160026033</v>
+        <v>1.001974631105121</v>
       </c>
       <c r="I5">
-        <v>0.9984554799505534</v>
+        <v>0.9959190378975749</v>
       </c>
       <c r="J5">
-        <v>1.001918141740564</v>
+        <v>1.004808701401617</v>
       </c>
       <c r="K5">
-        <v>1.000662160026033</v>
+        <v>1.001974631105121</v>
       </c>
       <c r="L5">
-        <v>1.000715492022412</v>
+        <v>1.001814686307277</v>
       </c>
       <c r="M5">
-        <v>0.9989648562829005</v>
+        <v>0.9971637240700799</v>
       </c>
       <c r="N5">
-        <v>0.9989648562829005</v>
+        <v>0.9971637240700799</v>
       </c>
       <c r="O5">
-        <v>0.9987950641721182</v>
+        <v>0.9967488286792449</v>
       </c>
       <c r="P5">
-        <v>0.9995306241972782</v>
+        <v>0.9987673597484271</v>
       </c>
       <c r="Q5">
-        <v>0.999530624197278</v>
+        <v>0.9987673597484271</v>
       </c>
       <c r="R5">
-        <v>0.9998135081544668</v>
+        <v>0.9995691775876008</v>
       </c>
       <c r="S5">
-        <v>0.9998135081544668</v>
+        <v>0.9995691775876008</v>
       </c>
       <c r="T5">
-        <v>0.9999442399344182</v>
+        <v>0.9998151893620842</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -812,58 +869,58 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.9959136981544287</v>
+        <v>0.9920120310227279</v>
       </c>
       <c r="D6">
-        <v>1.000971903025957</v>
+        <v>1.002112597045455</v>
       </c>
       <c r="E6">
-        <v>1.001049176072684</v>
+        <v>1.001932772272727</v>
       </c>
       <c r="F6">
-        <v>0.9959136981544287</v>
+        <v>0.9920120310227279</v>
       </c>
       <c r="G6">
-        <v>1.001026640362086</v>
+        <v>1.001985188409092</v>
       </c>
       <c r="H6">
-        <v>1.000971903025957</v>
+        <v>1.002112597045455</v>
       </c>
       <c r="I6">
-        <v>0.9977346586452092</v>
+        <v>0.9956482357954548</v>
       </c>
       <c r="J6">
-        <v>1.002812504176171</v>
+        <v>1.005119795227273</v>
       </c>
       <c r="K6">
-        <v>1.000971903025957</v>
+        <v>1.002112597045455</v>
       </c>
       <c r="L6">
-        <v>1.001049176072684</v>
+        <v>1.001932772272727</v>
       </c>
       <c r="M6">
-        <v>0.9984814371135562</v>
+        <v>0.9969724016477277</v>
       </c>
       <c r="N6">
-        <v>0.9984814371135562</v>
+        <v>0.9969724016477277</v>
       </c>
       <c r="O6">
-        <v>0.9982325109574406</v>
+        <v>0.9965310130303034</v>
       </c>
       <c r="P6">
-        <v>0.9993115924176896</v>
+        <v>0.9986858001136367</v>
       </c>
       <c r="Q6">
-        <v>0.9993115924176896</v>
+        <v>0.9986858001136367</v>
       </c>
       <c r="R6">
-        <v>0.9997266700697564</v>
+        <v>0.9995424993465911</v>
       </c>
       <c r="S6">
-        <v>0.9997266700697564</v>
+        <v>0.9995424993465911</v>
       </c>
       <c r="T6">
-        <v>0.9999180967394227</v>
+        <v>0.9998017699621217</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -874,58 +931,58 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.999939773931412</v>
+        <v>1.076027724510379</v>
       </c>
       <c r="D7">
-        <v>1.000015994464543</v>
+        <v>0.9811137275977387</v>
       </c>
       <c r="E7">
-        <v>1.000014536145944</v>
+        <v>0.9809260440087333</v>
       </c>
       <c r="F7">
-        <v>0.999939773931412</v>
+        <v>1.076027724510379</v>
       </c>
       <c r="G7">
-        <v>1.000014960823939</v>
+        <v>0.980980766257454</v>
       </c>
       <c r="H7">
-        <v>1.000015994464543</v>
+        <v>0.9811137275977387</v>
       </c>
       <c r="I7">
-        <v>0.9999672130065077</v>
+        <v>1.041858682662641</v>
       </c>
       <c r="J7">
-        <v>1.000038484610054</v>
+        <v>0.9491003622604802</v>
       </c>
       <c r="K7">
-        <v>1.000015994464543</v>
+        <v>0.9811137275977387</v>
       </c>
       <c r="L7">
-        <v>1.000014536145944</v>
+        <v>0.9809260440087333</v>
       </c>
       <c r="M7">
-        <v>0.9999771550386782</v>
+        <v>1.028476884259556</v>
       </c>
       <c r="N7">
-        <v>0.9999771550386782</v>
+        <v>1.028476884259556</v>
       </c>
       <c r="O7">
-        <v>0.9999738410279547</v>
+        <v>1.032937483727251</v>
       </c>
       <c r="P7">
-        <v>0.9999901015139665</v>
+        <v>1.012689165372284</v>
       </c>
       <c r="Q7">
-        <v>0.9999901015139665</v>
+        <v>1.012689165372284</v>
       </c>
       <c r="R7">
-        <v>0.9999965747516106</v>
+        <v>1.004795305928648</v>
       </c>
       <c r="S7">
-        <v>0.9999965747516106</v>
+        <v>1.004795305928648</v>
       </c>
       <c r="T7">
-        <v>0.9999984938304</v>
+        <v>1.001667884549571</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -936,58 +993,58 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.9998634054498764</v>
+        <v>1.075336831766261</v>
       </c>
       <c r="D8">
-        <v>1.000036634539437</v>
+        <v>0.9812902494817299</v>
       </c>
       <c r="E8">
-        <v>1.000032768734596</v>
+        <v>0.981096656893965</v>
       </c>
       <c r="F8">
-        <v>0.9998634054498764</v>
+        <v>1.075336831766261</v>
       </c>
       <c r="G8">
-        <v>1.000033895110459</v>
+        <v>0.9811531017487453</v>
       </c>
       <c r="H8">
-        <v>1.000036634539437</v>
+        <v>0.9812902494817299</v>
       </c>
       <c r="I8">
-        <v>0.9999257675455975</v>
+        <v>1.041480059195947</v>
       </c>
       <c r="J8">
-        <v>1.000086645172726</v>
+        <v>0.9495542042648314</v>
       </c>
       <c r="K8">
-        <v>1.000036634539437</v>
+        <v>0.9812902494817299</v>
       </c>
       <c r="L8">
-        <v>1.000032768734596</v>
+        <v>0.981096656893965</v>
       </c>
       <c r="M8">
-        <v>0.9999480870922364</v>
+        <v>1.028216744330113</v>
       </c>
       <c r="N8">
-        <v>0.9999480870922364</v>
+        <v>1.028216744330113</v>
       </c>
       <c r="O8">
-        <v>0.9999406472433567</v>
+        <v>1.032637849285391</v>
       </c>
       <c r="P8">
-        <v>0.9999776029079698</v>
+        <v>1.012574579380652</v>
       </c>
       <c r="Q8">
-        <v>0.9999776029079698</v>
+        <v>1.012574579380652</v>
       </c>
       <c r="R8">
-        <v>0.9999923608158365</v>
+        <v>1.004753496905922</v>
       </c>
       <c r="S8">
-        <v>0.9999923608158365</v>
+        <v>1.004753496905922</v>
       </c>
       <c r="T8">
-        <v>0.9999965194254488</v>
+        <v>1.00165185055858</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -998,58 +1055,58 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.9997667743634115</v>
+        <v>1.074822631147073</v>
       </c>
       <c r="D9">
-        <v>1.000061941456797</v>
+        <v>0.9814216267845487</v>
       </c>
       <c r="E9">
-        <v>1.000056287569256</v>
+        <v>0.9812236364400809</v>
       </c>
       <c r="F9">
-        <v>0.9997667743634115</v>
+        <v>1.074822631147073</v>
       </c>
       <c r="G9">
-        <v>1.00005793558179</v>
+        <v>0.9812813632920584</v>
       </c>
       <c r="H9">
-        <v>1.000061941456797</v>
+        <v>0.9814216267845487</v>
       </c>
       <c r="I9">
-        <v>0.999873034153109</v>
+        <v>1.041198266675704</v>
       </c>
       <c r="J9">
-        <v>1.000149022529317</v>
+        <v>0.9498919786426395</v>
       </c>
       <c r="K9">
-        <v>1.000061941456797</v>
+        <v>0.9814216267845487</v>
       </c>
       <c r="L9">
-        <v>1.000056287569256</v>
+        <v>0.9812236364400809</v>
       </c>
       <c r="M9">
-        <v>0.9999115309663339</v>
+        <v>1.028023133793577</v>
       </c>
       <c r="N9">
-        <v>0.9999115309663339</v>
+        <v>1.028023133793577</v>
       </c>
       <c r="O9">
-        <v>0.9998986986952589</v>
+        <v>1.032414844754286</v>
       </c>
       <c r="P9">
-        <v>0.9999616677964883</v>
+        <v>1.012489298123901</v>
       </c>
       <c r="Q9">
-        <v>0.9999616677964883</v>
+        <v>1.012489298123901</v>
       </c>
       <c r="R9">
-        <v>0.9999867362115655</v>
+        <v>1.004722380289063</v>
       </c>
       <c r="S9">
-        <v>0.9999867362115655</v>
+        <v>1.004722380289063</v>
       </c>
       <c r="T9">
-        <v>0.9999941659422803</v>
+        <v>1.001639917163684</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1060,58 +1117,58 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.9995318328851315</v>
+        <v>1.072916675088316</v>
       </c>
       <c r="D10">
-        <v>1.000124576365077</v>
+        <v>0.9819085949258711</v>
       </c>
       <c r="E10">
-        <v>1.000112856426304</v>
+        <v>0.9816943037558727</v>
       </c>
       <c r="F10">
-        <v>0.9995318328851315</v>
+        <v>1.072916675088316</v>
       </c>
       <c r="G10">
-        <v>1.000116273336242</v>
+        <v>0.9817567824157921</v>
       </c>
       <c r="H10">
-        <v>1.000124576365077</v>
+        <v>0.9819085949258711</v>
       </c>
       <c r="I10">
-        <v>0.999745221328773</v>
+        <v>1.040153763529232</v>
       </c>
       <c r="J10">
-        <v>1.000298715777081</v>
+        <v>0.9511439864070578</v>
       </c>
       <c r="K10">
-        <v>1.000124576365077</v>
+        <v>0.9819085949258711</v>
       </c>
       <c r="L10">
-        <v>1.000112856426304</v>
+        <v>0.9816943037558727</v>
       </c>
       <c r="M10">
-        <v>0.9998223446557175</v>
+        <v>1.027305489422094</v>
       </c>
       <c r="N10">
-        <v>0.9998223446557175</v>
+        <v>1.027305489422094</v>
       </c>
       <c r="O10">
-        <v>0.9997966368800694</v>
+        <v>1.031588247457807</v>
       </c>
       <c r="P10">
-        <v>0.9999230885588374</v>
+        <v>1.012173191256686</v>
       </c>
       <c r="Q10">
-        <v>0.9999230885588374</v>
+        <v>1.012173191256687</v>
       </c>
       <c r="R10">
-        <v>0.9999734605103973</v>
+        <v>1.004607042173983</v>
       </c>
       <c r="S10">
-        <v>0.9999734605103973</v>
+        <v>1.004607042173983</v>
       </c>
       <c r="T10">
-        <v>0.9999882460197681</v>
+        <v>1.00159568435369</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1122,58 +1179,58 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.9991558653291415</v>
+        <v>0.9994992730491395</v>
       </c>
       <c r="D11">
-        <v>1.000224286831216</v>
+        <v>1.00011613681466</v>
       </c>
       <c r="E11">
-        <v>1.000203671547438</v>
+        <v>1.000130207142011</v>
       </c>
       <c r="F11">
-        <v>0.9991558653291415</v>
+        <v>0.9994992730491395</v>
       </c>
       <c r="G11">
-        <v>1.000209681157705</v>
+        <v>1.000126105247291</v>
       </c>
       <c r="H11">
-        <v>1.000224286831216</v>
+        <v>1.00011613681466</v>
       </c>
       <c r="I11">
-        <v>0.9995404986670556</v>
+        <v>0.9997213436553589</v>
       </c>
       <c r="J11">
-        <v>1.000539197310612</v>
+        <v>1.000349900401669</v>
       </c>
       <c r="K11">
-        <v>1.000224286831216</v>
+        <v>1.00011613681466</v>
       </c>
       <c r="L11">
-        <v>1.000203671547438</v>
+        <v>1.000130207142011</v>
       </c>
       <c r="M11">
-        <v>0.9996797684382899</v>
+        <v>0.9998147400955755</v>
       </c>
       <c r="N11">
-        <v>0.9996797684382899</v>
+        <v>0.9998147400955755</v>
       </c>
       <c r="O11">
-        <v>0.9996333451812118</v>
+        <v>0.9997836079488366</v>
       </c>
       <c r="P11">
-        <v>0.9998612745692652</v>
+        <v>0.9999152056686039</v>
       </c>
       <c r="Q11">
-        <v>0.9998612745692652</v>
+        <v>0.9999152056686039</v>
       </c>
       <c r="R11">
-        <v>0.9999520276347529</v>
+        <v>0.999965438455118</v>
       </c>
       <c r="S11">
-        <v>0.9999520276347529</v>
+        <v>0.999965438455118</v>
       </c>
       <c r="T11">
-        <v>0.9999788668071946</v>
+        <v>0.9999904943850217</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1184,58 +1241,58 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.9987123041058847</v>
+        <v>0.9999703560104179</v>
       </c>
       <c r="D12">
-        <v>1.000296024782096</v>
+        <v>1.000002986211276</v>
       </c>
       <c r="E12">
-        <v>1.000336325498456</v>
+        <v>1.000009870194484</v>
       </c>
       <c r="F12">
-        <v>0.9987123041058847</v>
+        <v>0.9999703560104179</v>
       </c>
       <c r="G12">
-        <v>1.000324559131632</v>
+        <v>1.000007862632079</v>
       </c>
       <c r="H12">
-        <v>1.000296024782096</v>
+        <v>1.000002986211276</v>
       </c>
       <c r="I12">
-        <v>0.9992824357394359</v>
+        <v>0.9999821025804776</v>
       </c>
       <c r="J12">
-        <v>1.000904523457336</v>
+        <v>1.000027630496939</v>
       </c>
       <c r="K12">
-        <v>1.000296024782096</v>
+        <v>1.000002986211276</v>
       </c>
       <c r="L12">
-        <v>1.000336325498456</v>
+        <v>1.000009870194484</v>
       </c>
       <c r="M12">
-        <v>0.9995243148021703</v>
+        <v>0.9999901131024509</v>
       </c>
       <c r="N12">
-        <v>0.9995243148021703</v>
+        <v>0.9999901131024509</v>
       </c>
       <c r="O12">
-        <v>0.9994436884479255</v>
+        <v>0.9999874429284598</v>
       </c>
       <c r="P12">
-        <v>0.9997815514621454</v>
+        <v>0.9999944041387258</v>
       </c>
       <c r="Q12">
-        <v>0.9997815514621454</v>
+        <v>0.999994404138726</v>
       </c>
       <c r="R12">
-        <v>0.9999101697921331</v>
+        <v>0.9999965496568635</v>
       </c>
       <c r="S12">
-        <v>0.9999101697921331</v>
+        <v>0.9999965496568635</v>
       </c>
       <c r="T12">
-        <v>0.9999760287858068</v>
+        <v>1.000000134687612</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1246,58 +1303,58 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9996364740418497</v>
+        <v>0.9996085332464615</v>
       </c>
       <c r="D13">
-        <v>1.000103377191377</v>
+        <v>1.000081387392726</v>
       </c>
       <c r="E13">
-        <v>1.000083939203447</v>
+        <v>1.00010702198478</v>
       </c>
       <c r="F13">
-        <v>0.9996364740418497</v>
+        <v>0.9996085332464615</v>
       </c>
       <c r="G13">
-        <v>1.000089609287539</v>
+        <v>1.0000995539807</v>
       </c>
       <c r="H13">
-        <v>1.000103377191377</v>
+        <v>1.000081387392726</v>
       </c>
       <c r="I13">
-        <v>0.9998045610426181</v>
+        <v>0.9997787628110121</v>
       </c>
       <c r="J13">
-        <v>1.000220137397193</v>
+        <v>1.000290274019272</v>
       </c>
       <c r="K13">
-        <v>1.000103377191377</v>
+        <v>1.000081387392726</v>
       </c>
       <c r="L13">
-        <v>1.000083939203447</v>
+        <v>1.00010702198478</v>
       </c>
       <c r="M13">
-        <v>0.9998602066226483</v>
+        <v>0.9998577776156206</v>
       </c>
       <c r="N13">
-        <v>0.9998602066226483</v>
+        <v>0.9998577776156206</v>
       </c>
       <c r="O13">
-        <v>0.9998416580959715</v>
+        <v>0.9998314393474178</v>
       </c>
       <c r="P13">
-        <v>0.9999412634788912</v>
+        <v>0.9999323142079891</v>
       </c>
       <c r="Q13">
-        <v>0.9999412634788912</v>
+        <v>0.9999323142079891</v>
       </c>
       <c r="R13">
-        <v>0.9999817919070126</v>
+        <v>0.9999695825041734</v>
       </c>
       <c r="S13">
-        <v>0.9999817919070126</v>
+        <v>0.9999695825041734</v>
       </c>
       <c r="T13">
-        <v>0.9999896830273372</v>
+        <v>0.9999942555724918</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1308,58 +1365,58 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.903179289747316</v>
+        <v>0.9979141129975266</v>
       </c>
       <c r="D14">
-        <v>1.023710879888909</v>
+        <v>1.000495755769758</v>
       </c>
       <c r="E14">
-        <v>1.024479788244299</v>
+        <v>1.000535764037829</v>
       </c>
       <c r="F14">
-        <v>0.903179289747316</v>
+        <v>0.9979141129975266</v>
       </c>
       <c r="G14">
-        <v>1.024255608649295</v>
+        <v>1.000524093046078</v>
       </c>
       <c r="H14">
-        <v>1.023710879888909</v>
+        <v>1.000495755769758</v>
       </c>
       <c r="I14">
-        <v>0.9465706614042574</v>
+        <v>0.9988435078065535</v>
       </c>
       <c r="J14">
-        <v>1.065425904135564</v>
+        <v>1.001436312990642</v>
       </c>
       <c r="K14">
-        <v>1.023710879888909</v>
+        <v>1.000495755769758</v>
       </c>
       <c r="L14">
-        <v>1.024479788244299</v>
+        <v>1.000535764037829</v>
       </c>
       <c r="M14">
-        <v>0.9638295389958076</v>
+        <v>0.999224938517678</v>
       </c>
       <c r="N14">
-        <v>0.9638295389958076</v>
+        <v>0.999224938517678</v>
       </c>
       <c r="O14">
-        <v>0.9580765797986243</v>
+        <v>0.9990977949473031</v>
       </c>
       <c r="P14">
-        <v>0.9837899859601746</v>
+        <v>0.9996485442683714</v>
       </c>
       <c r="Q14">
-        <v>0.9837899859601746</v>
+        <v>0.9996485442683714</v>
       </c>
       <c r="R14">
-        <v>0.9937702094423582</v>
+        <v>0.999860347143718</v>
       </c>
       <c r="S14">
-        <v>0.9937702094423582</v>
+        <v>0.999860347143718</v>
       </c>
       <c r="T14">
-        <v>0.9979370220116069</v>
+        <v>0.9999582577747314</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1370,58 +1427,58 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.9737550851655731</v>
+        <v>0.9992473173885513</v>
       </c>
       <c r="D15">
-        <v>1.006768384060493</v>
+        <v>1.000178458078625</v>
       </c>
       <c r="E15">
-        <v>1.006446150929852</v>
+        <v>1.000193567741096</v>
       </c>
       <c r="F15">
-        <v>0.9737550851655731</v>
+        <v>0.9992473173885513</v>
       </c>
       <c r="G15">
-        <v>1.00654008781614</v>
+        <v>1.000189161908956</v>
       </c>
       <c r="H15">
-        <v>1.006768384060493</v>
+        <v>1.000178458078625</v>
       </c>
       <c r="I15">
-        <v>0.9856398703219604</v>
+        <v>0.9995825277887278</v>
       </c>
       <c r="J15">
-        <v>1.01712833877372</v>
+        <v>1.000519057362752</v>
       </c>
       <c r="K15">
-        <v>1.006768384060493</v>
+        <v>1.000178458078625</v>
       </c>
       <c r="L15">
-        <v>1.006446150929852</v>
+        <v>1.000193567741096</v>
       </c>
       <c r="M15">
-        <v>0.9901006180477125</v>
+        <v>0.9997204425648238</v>
       </c>
       <c r="N15">
-        <v>0.9901006180477125</v>
+        <v>0.9997204425648238</v>
       </c>
       <c r="O15">
-        <v>0.9886137021391285</v>
+        <v>0.9996744709727917</v>
       </c>
       <c r="P15">
-        <v>0.9956565400519727</v>
+        <v>0.9998731144027576</v>
       </c>
       <c r="Q15">
-        <v>0.9956565400519728</v>
+        <v>0.9998731144027576</v>
       </c>
       <c r="R15">
-        <v>0.9984345010541029</v>
+        <v>0.9999494503217246</v>
       </c>
       <c r="S15">
-        <v>0.9984345010541029</v>
+        <v>0.9999494503217246</v>
       </c>
       <c r="T15">
-        <v>0.9993796528446234</v>
+        <v>0.9999850150447848</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1432,58 +1489,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.9853011124479392</v>
+        <v>0.9985466681248606</v>
       </c>
       <c r="D16">
-        <v>1.003506906045673</v>
+        <v>1.000344976798933</v>
       </c>
       <c r="E16">
-        <v>1.003767956526515</v>
+        <v>1.000373531000567</v>
       </c>
       <c r="F16">
-        <v>0.9853011124479392</v>
+        <v>0.9985466681248606</v>
       </c>
       <c r="G16">
-        <v>1.00369184352413</v>
+        <v>1.000365205458988</v>
       </c>
       <c r="H16">
-        <v>1.003506906045673</v>
+        <v>1.000344976798933</v>
       </c>
       <c r="I16">
-        <v>0.9918551987134927</v>
+        <v>0.999194060057356</v>
       </c>
       <c r="J16">
-        <v>1.010097606417038</v>
+        <v>1.001001521959724</v>
       </c>
       <c r="K16">
-        <v>1.003506906045673</v>
+        <v>1.000344976798933</v>
       </c>
       <c r="L16">
-        <v>1.003767956526515</v>
+        <v>1.000373531000567</v>
       </c>
       <c r="M16">
-        <v>0.9945345344872268</v>
+        <v>0.9994600995627136</v>
       </c>
       <c r="N16">
-        <v>0.9945345344872268</v>
+        <v>0.9994600995627136</v>
       </c>
       <c r="O16">
-        <v>0.9936414225626488</v>
+        <v>0.9993714197275945</v>
       </c>
       <c r="P16">
-        <v>0.9975253250067088</v>
+        <v>0.9997550586414533</v>
       </c>
       <c r="Q16">
-        <v>0.9975253250067088</v>
+        <v>0.9997550586414533</v>
       </c>
       <c r="R16">
-        <v>0.9990207202664498</v>
+        <v>0.9999025381808231</v>
       </c>
       <c r="S16">
-        <v>0.9990207202664498</v>
+        <v>0.9999025381808231</v>
       </c>
       <c r="T16">
-        <v>0.9997034372791312</v>
+        <v>0.9999709939000714</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1494,58 +1551,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.9879260716571323</v>
+        <v>0.9972142205433888</v>
       </c>
       <c r="D17">
-        <v>1.002933144430696</v>
+        <v>1.000662160026033</v>
       </c>
       <c r="E17">
-        <v>1.003065894778974</v>
+        <v>1.000715492022412</v>
       </c>
       <c r="F17">
-        <v>0.9879260716571323</v>
+        <v>0.9972142205433888</v>
       </c>
       <c r="G17">
-        <v>1.003027188188428</v>
+        <v>1.000699945323557</v>
       </c>
       <c r="H17">
-        <v>1.002933144430696</v>
+        <v>1.000662160026033</v>
       </c>
       <c r="I17">
-        <v>0.9933286180472</v>
+        <v>0.9984554799505534</v>
       </c>
       <c r="J17">
-        <v>1.008201003583769</v>
+        <v>1.001918141740564</v>
       </c>
       <c r="K17">
-        <v>1.002933144430696</v>
+        <v>1.000662160026033</v>
       </c>
       <c r="L17">
-        <v>1.003065894778974</v>
+        <v>1.000715492022412</v>
       </c>
       <c r="M17">
-        <v>0.9954959832180532</v>
+        <v>0.9989648562829005</v>
       </c>
       <c r="N17">
-        <v>0.9954959832180532</v>
+        <v>0.9989648562829005</v>
       </c>
       <c r="O17">
-        <v>0.9947735281611022</v>
+        <v>0.9987950641721182</v>
       </c>
       <c r="P17">
-        <v>0.9979750369556006</v>
+        <v>0.9995306241972782</v>
       </c>
       <c r="Q17">
-        <v>0.9979750369556006</v>
+        <v>0.999530624197278</v>
       </c>
       <c r="R17">
-        <v>0.9992145638243743</v>
+        <v>0.9998135081544668</v>
       </c>
       <c r="S17">
-        <v>0.9992145638243743</v>
+        <v>0.9998135081544668</v>
       </c>
       <c r="T17">
-        <v>0.9997469867810332</v>
+        <v>0.9999442399344182</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1556,58 +1613,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.9931892629510943</v>
+        <v>0.9959136981544287</v>
       </c>
       <c r="D18">
-        <v>1.001781178270973</v>
+        <v>1.000971903025957</v>
       </c>
       <c r="E18">
-        <v>1.001659077521535</v>
+        <v>1.001049176072684</v>
       </c>
       <c r="F18">
-        <v>0.9931892629510943</v>
+        <v>0.9959136981544287</v>
       </c>
       <c r="G18">
-        <v>1.001694675851221</v>
+        <v>1.001026640362086</v>
       </c>
       <c r="H18">
-        <v>1.001781178270973</v>
+        <v>1.000971903025957</v>
       </c>
       <c r="I18">
-        <v>0.9962823530426792</v>
+        <v>0.9977346586452092</v>
       </c>
       <c r="J18">
-        <v>1.004400947849574</v>
+        <v>1.002812504176171</v>
       </c>
       <c r="K18">
-        <v>1.001781178270973</v>
+        <v>1.000971903025957</v>
       </c>
       <c r="L18">
-        <v>1.001659077521535</v>
+        <v>1.001049176072684</v>
       </c>
       <c r="M18">
-        <v>0.9974241702363147</v>
+        <v>0.9984814371135562</v>
       </c>
       <c r="N18">
-        <v>0.9974241702363147</v>
+        <v>0.9984814371135562</v>
       </c>
       <c r="O18">
-        <v>0.9970435645051028</v>
+        <v>0.9982325109574406</v>
       </c>
       <c r="P18">
-        <v>0.9988765062478674</v>
+        <v>0.9993115924176896</v>
       </c>
       <c r="Q18">
-        <v>0.9988765062478674</v>
+        <v>0.9993115924176896</v>
       </c>
       <c r="R18">
-        <v>0.9996026742536437</v>
+        <v>0.9997266700697564</v>
       </c>
       <c r="S18">
-        <v>0.9996026742536437</v>
+        <v>0.9997266700697564</v>
       </c>
       <c r="T18">
-        <v>0.9998345825811795</v>
+        <v>0.9999180967394227</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1618,58 +1675,58 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.9929755818839308</v>
+        <v>0.999939773931412</v>
       </c>
       <c r="D19">
-        <v>1.00186382937687</v>
+        <v>1.000015994464543</v>
       </c>
       <c r="E19">
-        <v>1.001696255848616</v>
+        <v>1.000014536145944</v>
       </c>
       <c r="F19">
-        <v>0.9929755818839308</v>
+        <v>0.999939773931412</v>
       </c>
       <c r="G19">
-        <v>1.001745108142206</v>
+        <v>1.000014960823939</v>
       </c>
       <c r="H19">
-        <v>1.00186382937687</v>
+        <v>1.000015994464543</v>
       </c>
       <c r="I19">
-        <v>0.9961753536924941</v>
+        <v>0.9999672130065077</v>
       </c>
       <c r="J19">
-        <v>1.004491429124751</v>
+        <v>1.000038484610054</v>
       </c>
       <c r="K19">
-        <v>1.00186382937687</v>
+        <v>1.000015994464543</v>
       </c>
       <c r="L19">
-        <v>1.001696255848616</v>
+        <v>1.000014536145944</v>
       </c>
       <c r="M19">
-        <v>0.9973359188662732</v>
+        <v>0.9999771550386782</v>
       </c>
       <c r="N19">
-        <v>0.9973359188662732</v>
+        <v>0.9999771550386782</v>
       </c>
       <c r="O19">
-        <v>0.9969490638083468</v>
+        <v>0.9999738410279547</v>
       </c>
       <c r="P19">
-        <v>0.9988452223698056</v>
+        <v>0.9999901015139665</v>
       </c>
       <c r="Q19">
-        <v>0.9988452223698056</v>
+        <v>0.9999901015139665</v>
       </c>
       <c r="R19">
-        <v>0.9995998741215718</v>
+        <v>0.9999965747516106</v>
       </c>
       <c r="S19">
-        <v>0.9995998741215718</v>
+        <v>0.9999965747516106</v>
       </c>
       <c r="T19">
-        <v>0.999824593011478</v>
+        <v>0.9999984938304</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1680,58 +1737,58 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>0.9999974839626672</v>
+        <v>0.9998634054498764</v>
       </c>
       <c r="D20">
-        <v>0.9999997751191719</v>
+        <v>1.000036634539437</v>
       </c>
       <c r="E20">
-        <v>1.000001104317315</v>
+        <v>1.000032768734596</v>
       </c>
       <c r="F20">
-        <v>0.9999974839626672</v>
+        <v>0.9998634054498764</v>
       </c>
       <c r="G20">
-        <v>1.000000716230596</v>
+        <v>1.000033895110459</v>
       </c>
       <c r="H20">
-        <v>0.9999997751191719</v>
+        <v>1.000036634539437</v>
       </c>
       <c r="I20">
-        <v>0.9999983085053616</v>
+        <v>0.9999257675455975</v>
       </c>
       <c r="J20">
-        <v>1.000003196607137</v>
+        <v>1.000086645172726</v>
       </c>
       <c r="K20">
-        <v>0.9999997751191719</v>
+        <v>1.000036634539437</v>
       </c>
       <c r="L20">
-        <v>1.000001104317315</v>
+        <v>1.000032768734596</v>
       </c>
       <c r="M20">
-        <v>0.9999992941399909</v>
+        <v>0.9999480870922364</v>
       </c>
       <c r="N20">
-        <v>0.9999992941399909</v>
+        <v>0.9999480870922364</v>
       </c>
       <c r="O20">
-        <v>0.9999989655951144</v>
+        <v>0.9999406472433567</v>
       </c>
       <c r="P20">
-        <v>0.9999994544663845</v>
+        <v>0.9999776029079698</v>
       </c>
       <c r="Q20">
-        <v>0.9999994544663847</v>
+        <v>0.9999776029079698</v>
       </c>
       <c r="R20">
-        <v>0.9999995346295815</v>
+        <v>0.9999923608158365</v>
       </c>
       <c r="S20">
-        <v>0.9999995346295815</v>
+        <v>0.9999923608158365</v>
       </c>
       <c r="T20">
-        <v>1.000000097457042</v>
+        <v>0.9999965194254488</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1742,58 +1799,58 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.9999315057285559</v>
+        <v>0.9997667743634115</v>
       </c>
       <c r="D21">
-        <v>1.000019946708355</v>
+        <v>1.000061941456797</v>
       </c>
       <c r="E21">
-        <v>1.000015556391327</v>
+        <v>1.000056287569256</v>
       </c>
       <c r="F21">
-        <v>0.9999315057285559</v>
+        <v>0.9997667743634115</v>
       </c>
       <c r="G21">
-        <v>1.000016835909944</v>
+        <v>1.00005793558179</v>
       </c>
       <c r="H21">
-        <v>1.000019946708355</v>
+        <v>1.000061941456797</v>
       </c>
       <c r="I21">
-        <v>0.9999633441660268</v>
+        <v>0.999873034153109</v>
       </c>
       <c r="J21">
-        <v>1.000040645159586</v>
+        <v>1.000149022529317</v>
       </c>
       <c r="K21">
-        <v>1.000019946708355</v>
+        <v>1.000061941456797</v>
       </c>
       <c r="L21">
-        <v>1.000015556391327</v>
+        <v>1.000056287569256</v>
       </c>
       <c r="M21">
-        <v>0.9999735310599414</v>
+        <v>0.9999115309663339</v>
       </c>
       <c r="N21">
-        <v>0.9999735310599414</v>
+        <v>0.9999115309663339</v>
       </c>
       <c r="O21">
-        <v>0.9999701354286366</v>
+        <v>0.9998986986952589</v>
       </c>
       <c r="P21">
-        <v>0.999989002942746</v>
+        <v>0.9999616677964883</v>
       </c>
       <c r="Q21">
-        <v>0.999989002942746</v>
+        <v>0.9999616677964883</v>
       </c>
       <c r="R21">
-        <v>0.9999967388841483</v>
+        <v>0.9999867362115655</v>
       </c>
       <c r="S21">
-        <v>0.9999967388841483</v>
+        <v>0.9999867362115655</v>
       </c>
       <c r="T21">
-        <v>0.9999979723439658</v>
+        <v>0.9999941659422803</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1804,58 +1861,58 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>0.9997712678434886</v>
+        <v>0.9995318328851315</v>
       </c>
       <c r="D22">
-        <v>1.000050046688022</v>
+        <v>1.000124576365077</v>
       </c>
       <c r="E22">
-        <v>1.000061145681835</v>
+        <v>1.000112856426304</v>
       </c>
       <c r="F22">
-        <v>0.9997712678434886</v>
+        <v>0.9995318328851315</v>
       </c>
       <c r="G22">
-        <v>1.000057911721522</v>
+        <v>1.000116273336242</v>
       </c>
       <c r="H22">
-        <v>1.000050046688022</v>
+        <v>1.000124576365077</v>
       </c>
       <c r="I22">
-        <v>0.9998716302557473</v>
+        <v>0.999745221328773</v>
       </c>
       <c r="J22">
-        <v>1.000165171736319</v>
+        <v>1.000298715777081</v>
       </c>
       <c r="K22">
-        <v>1.000050046688022</v>
+        <v>1.000124576365077</v>
       </c>
       <c r="L22">
-        <v>1.000061145681835</v>
+        <v>1.000112856426304</v>
       </c>
       <c r="M22">
-        <v>0.9999162067626619</v>
+        <v>0.9998223446557175</v>
       </c>
       <c r="N22">
-        <v>0.9999162067626619</v>
+        <v>0.9998223446557175</v>
       </c>
       <c r="O22">
-        <v>0.9999013479270237</v>
+        <v>0.9997966368800694</v>
       </c>
       <c r="P22">
-        <v>0.9999608200711153</v>
+        <v>0.9999230885588374</v>
       </c>
       <c r="Q22">
-        <v>0.9999608200711153</v>
+        <v>0.9999230885588374</v>
       </c>
       <c r="R22">
-        <v>0.9999831267253421</v>
+        <v>0.9999734605103973</v>
       </c>
       <c r="S22">
-        <v>0.9999831267253421</v>
+        <v>0.9999734605103973</v>
       </c>
       <c r="T22">
-        <v>0.9999961956544889</v>
+        <v>0.9999882460197681</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1866,58 +1923,1236 @@
         <v>21</v>
       </c>
       <c r="C23">
+        <v>0.9991558653291415</v>
+      </c>
+      <c r="D23">
+        <v>1.000224286831216</v>
+      </c>
+      <c r="E23">
+        <v>1.000203671547438</v>
+      </c>
+      <c r="F23">
+        <v>0.9991558653291415</v>
+      </c>
+      <c r="G23">
+        <v>1.000209681157705</v>
+      </c>
+      <c r="H23">
+        <v>1.000224286831216</v>
+      </c>
+      <c r="I23">
+        <v>0.9995404986670556</v>
+      </c>
+      <c r="J23">
+        <v>1.000539197310612</v>
+      </c>
+      <c r="K23">
+        <v>1.000224286831216</v>
+      </c>
+      <c r="L23">
+        <v>1.000203671547438</v>
+      </c>
+      <c r="M23">
+        <v>0.9996797684382899</v>
+      </c>
+      <c r="N23">
+        <v>0.9996797684382899</v>
+      </c>
+      <c r="O23">
+        <v>0.9996333451812118</v>
+      </c>
+      <c r="P23">
+        <v>0.9998612745692652</v>
+      </c>
+      <c r="Q23">
+        <v>0.9998612745692652</v>
+      </c>
+      <c r="R23">
+        <v>0.9999520276347529</v>
+      </c>
+      <c r="S23">
+        <v>0.9999520276347529</v>
+      </c>
+      <c r="T23">
+        <v>0.9999788668071946</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>0.9987123041058847</v>
+      </c>
+      <c r="D24">
+        <v>1.000296024782096</v>
+      </c>
+      <c r="E24">
+        <v>1.000336325498456</v>
+      </c>
+      <c r="F24">
+        <v>0.9987123041058847</v>
+      </c>
+      <c r="G24">
+        <v>1.000324559131632</v>
+      </c>
+      <c r="H24">
+        <v>1.000296024782096</v>
+      </c>
+      <c r="I24">
+        <v>0.9992824357394359</v>
+      </c>
+      <c r="J24">
+        <v>1.000904523457336</v>
+      </c>
+      <c r="K24">
+        <v>1.000296024782096</v>
+      </c>
+      <c r="L24">
+        <v>1.000336325498456</v>
+      </c>
+      <c r="M24">
+        <v>0.9995243148021703</v>
+      </c>
+      <c r="N24">
+        <v>0.9995243148021703</v>
+      </c>
+      <c r="O24">
+        <v>0.9994436884479255</v>
+      </c>
+      <c r="P24">
+        <v>0.9997815514621454</v>
+      </c>
+      <c r="Q24">
+        <v>0.9997815514621454</v>
+      </c>
+      <c r="R24">
+        <v>0.9999101697921331</v>
+      </c>
+      <c r="S24">
+        <v>0.9999101697921331</v>
+      </c>
+      <c r="T24">
+        <v>0.9999760287858068</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>0.9996364740418497</v>
+      </c>
+      <c r="D25">
+        <v>1.000103377191377</v>
+      </c>
+      <c r="E25">
+        <v>1.000083939203447</v>
+      </c>
+      <c r="F25">
+        <v>0.9996364740418497</v>
+      </c>
+      <c r="G25">
+        <v>1.000089609287539</v>
+      </c>
+      <c r="H25">
+        <v>1.000103377191377</v>
+      </c>
+      <c r="I25">
+        <v>0.9998045610426181</v>
+      </c>
+      <c r="J25">
+        <v>1.000220137397193</v>
+      </c>
+      <c r="K25">
+        <v>1.000103377191377</v>
+      </c>
+      <c r="L25">
+        <v>1.000083939203447</v>
+      </c>
+      <c r="M25">
+        <v>0.9998602066226483</v>
+      </c>
+      <c r="N25">
+        <v>0.9998602066226483</v>
+      </c>
+      <c r="O25">
+        <v>0.9998416580959715</v>
+      </c>
+      <c r="P25">
+        <v>0.9999412634788912</v>
+      </c>
+      <c r="Q25">
+        <v>0.9999412634788912</v>
+      </c>
+      <c r="R25">
+        <v>0.9999817919070126</v>
+      </c>
+      <c r="S25">
+        <v>0.9999817919070126</v>
+      </c>
+      <c r="T25">
+        <v>0.9999896830273372</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>0.903179289747316</v>
+      </c>
+      <c r="D26">
+        <v>1.023710879888909</v>
+      </c>
+      <c r="E26">
+        <v>1.024479788244299</v>
+      </c>
+      <c r="F26">
+        <v>0.903179289747316</v>
+      </c>
+      <c r="G26">
+        <v>1.024255608649295</v>
+      </c>
+      <c r="H26">
+        <v>1.023710879888909</v>
+      </c>
+      <c r="I26">
+        <v>0.9465706614042574</v>
+      </c>
+      <c r="J26">
+        <v>1.065425904135564</v>
+      </c>
+      <c r="K26">
+        <v>1.023710879888909</v>
+      </c>
+      <c r="L26">
+        <v>1.024479788244299</v>
+      </c>
+      <c r="M26">
+        <v>0.9638295389958076</v>
+      </c>
+      <c r="N26">
+        <v>0.9638295389958076</v>
+      </c>
+      <c r="O26">
+        <v>0.9580765797986243</v>
+      </c>
+      <c r="P26">
+        <v>0.9837899859601746</v>
+      </c>
+      <c r="Q26">
+        <v>0.9837899859601746</v>
+      </c>
+      <c r="R26">
+        <v>0.9937702094423582</v>
+      </c>
+      <c r="S26">
+        <v>0.9937702094423582</v>
+      </c>
+      <c r="T26">
+        <v>0.9979370220116069</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>0.9737550851655731</v>
+      </c>
+      <c r="D27">
+        <v>1.006768384060493</v>
+      </c>
+      <c r="E27">
+        <v>1.006446150929852</v>
+      </c>
+      <c r="F27">
+        <v>0.9737550851655731</v>
+      </c>
+      <c r="G27">
+        <v>1.00654008781614</v>
+      </c>
+      <c r="H27">
+        <v>1.006768384060493</v>
+      </c>
+      <c r="I27">
+        <v>0.9856398703219604</v>
+      </c>
+      <c r="J27">
+        <v>1.01712833877372</v>
+      </c>
+      <c r="K27">
+        <v>1.006768384060493</v>
+      </c>
+      <c r="L27">
+        <v>1.006446150929852</v>
+      </c>
+      <c r="M27">
+        <v>0.9901006180477125</v>
+      </c>
+      <c r="N27">
+        <v>0.9901006180477125</v>
+      </c>
+      <c r="O27">
+        <v>0.9886137021391285</v>
+      </c>
+      <c r="P27">
+        <v>0.9956565400519727</v>
+      </c>
+      <c r="Q27">
+        <v>0.9956565400519728</v>
+      </c>
+      <c r="R27">
+        <v>0.9984345010541029</v>
+      </c>
+      <c r="S27">
+        <v>0.9984345010541029</v>
+      </c>
+      <c r="T27">
+        <v>0.9993796528446234</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>0.9853011124479392</v>
+      </c>
+      <c r="D28">
+        <v>1.003506906045673</v>
+      </c>
+      <c r="E28">
+        <v>1.003767956526515</v>
+      </c>
+      <c r="F28">
+        <v>0.9853011124479392</v>
+      </c>
+      <c r="G28">
+        <v>1.00369184352413</v>
+      </c>
+      <c r="H28">
+        <v>1.003506906045673</v>
+      </c>
+      <c r="I28">
+        <v>0.9918551987134927</v>
+      </c>
+      <c r="J28">
+        <v>1.010097606417038</v>
+      </c>
+      <c r="K28">
+        <v>1.003506906045673</v>
+      </c>
+      <c r="L28">
+        <v>1.003767956526515</v>
+      </c>
+      <c r="M28">
+        <v>0.9945345344872268</v>
+      </c>
+      <c r="N28">
+        <v>0.9945345344872268</v>
+      </c>
+      <c r="O28">
+        <v>0.9936414225626488</v>
+      </c>
+      <c r="P28">
+        <v>0.9975253250067088</v>
+      </c>
+      <c r="Q28">
+        <v>0.9975253250067088</v>
+      </c>
+      <c r="R28">
+        <v>0.9990207202664498</v>
+      </c>
+      <c r="S28">
+        <v>0.9990207202664498</v>
+      </c>
+      <c r="T28">
+        <v>0.9997034372791312</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>0.9879260716571323</v>
+      </c>
+      <c r="D29">
+        <v>1.002933144430696</v>
+      </c>
+      <c r="E29">
+        <v>1.003065894778974</v>
+      </c>
+      <c r="F29">
+        <v>0.9879260716571323</v>
+      </c>
+      <c r="G29">
+        <v>1.003027188188428</v>
+      </c>
+      <c r="H29">
+        <v>1.002933144430696</v>
+      </c>
+      <c r="I29">
+        <v>0.9933286180472</v>
+      </c>
+      <c r="J29">
+        <v>1.008201003583769</v>
+      </c>
+      <c r="K29">
+        <v>1.002933144430696</v>
+      </c>
+      <c r="L29">
+        <v>1.003065894778974</v>
+      </c>
+      <c r="M29">
+        <v>0.9954959832180532</v>
+      </c>
+      <c r="N29">
+        <v>0.9954959832180532</v>
+      </c>
+      <c r="O29">
+        <v>0.9947735281611022</v>
+      </c>
+      <c r="P29">
+        <v>0.9979750369556006</v>
+      </c>
+      <c r="Q29">
+        <v>0.9979750369556006</v>
+      </c>
+      <c r="R29">
+        <v>0.9992145638243743</v>
+      </c>
+      <c r="S29">
+        <v>0.9992145638243743</v>
+      </c>
+      <c r="T29">
+        <v>0.9997469867810332</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>0.9931892629510943</v>
+      </c>
+      <c r="D30">
+        <v>1.001781178270973</v>
+      </c>
+      <c r="E30">
+        <v>1.001659077521535</v>
+      </c>
+      <c r="F30">
+        <v>0.9931892629510943</v>
+      </c>
+      <c r="G30">
+        <v>1.001694675851221</v>
+      </c>
+      <c r="H30">
+        <v>1.001781178270973</v>
+      </c>
+      <c r="I30">
+        <v>0.9962823530426792</v>
+      </c>
+      <c r="J30">
+        <v>1.004400947849574</v>
+      </c>
+      <c r="K30">
+        <v>1.001781178270973</v>
+      </c>
+      <c r="L30">
+        <v>1.001659077521535</v>
+      </c>
+      <c r="M30">
+        <v>0.9974241702363147</v>
+      </c>
+      <c r="N30">
+        <v>0.9974241702363147</v>
+      </c>
+      <c r="O30">
+        <v>0.9970435645051028</v>
+      </c>
+      <c r="P30">
+        <v>0.9988765062478674</v>
+      </c>
+      <c r="Q30">
+        <v>0.9988765062478674</v>
+      </c>
+      <c r="R30">
+        <v>0.9996026742536437</v>
+      </c>
+      <c r="S30">
+        <v>0.9996026742536437</v>
+      </c>
+      <c r="T30">
+        <v>0.9998345825811795</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
+        <v>0.9929755818839308</v>
+      </c>
+      <c r="D31">
+        <v>1.00186382937687</v>
+      </c>
+      <c r="E31">
+        <v>1.001696255848616</v>
+      </c>
+      <c r="F31">
+        <v>0.9929755818839308</v>
+      </c>
+      <c r="G31">
+        <v>1.001745108142206</v>
+      </c>
+      <c r="H31">
+        <v>1.00186382937687</v>
+      </c>
+      <c r="I31">
+        <v>0.9961753536924941</v>
+      </c>
+      <c r="J31">
+        <v>1.004491429124751</v>
+      </c>
+      <c r="K31">
+        <v>1.00186382937687</v>
+      </c>
+      <c r="L31">
+        <v>1.001696255848616</v>
+      </c>
+      <c r="M31">
+        <v>0.9973359188662732</v>
+      </c>
+      <c r="N31">
+        <v>0.9973359188662732</v>
+      </c>
+      <c r="O31">
+        <v>0.9969490638083468</v>
+      </c>
+      <c r="P31">
+        <v>0.9988452223698056</v>
+      </c>
+      <c r="Q31">
+        <v>0.9988452223698056</v>
+      </c>
+      <c r="R31">
+        <v>0.9995998741215718</v>
+      </c>
+      <c r="S31">
+        <v>0.9995998741215718</v>
+      </c>
+      <c r="T31">
+        <v>0.999824593011478</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32">
+        <v>0.9822361227397259</v>
+      </c>
+      <c r="D32">
+        <v>1.004205658630136</v>
+      </c>
+      <c r="E32">
+        <v>1.004571701917808</v>
+      </c>
+      <c r="F32">
+        <v>0.9822361227397259</v>
+      </c>
+      <c r="G32">
+        <v>1.004464977260274</v>
+      </c>
+      <c r="H32">
+        <v>1.004205658630136</v>
+      </c>
+      <c r="I32">
+        <v>0.9901451567123291</v>
+      </c>
+      <c r="J32">
+        <v>1.012260926027397</v>
+      </c>
+      <c r="K32">
+        <v>1.004205658630136</v>
+      </c>
+      <c r="L32">
+        <v>1.004571701917808</v>
+      </c>
+      <c r="M32">
+        <v>0.993403912328767</v>
+      </c>
+      <c r="N32">
+        <v>0.993403912328767</v>
+      </c>
+      <c r="O32">
+        <v>0.992317660456621</v>
+      </c>
+      <c r="P32">
+        <v>0.9970044944292235</v>
+      </c>
+      <c r="Q32">
+        <v>0.9970044944292235</v>
+      </c>
+      <c r="R32">
+        <v>0.9988047854794517</v>
+      </c>
+      <c r="S32">
+        <v>0.9988047854794517</v>
+      </c>
+      <c r="T32">
+        <v>0.9996474238812785</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33">
+        <v>0.987245854736842</v>
+      </c>
+      <c r="D33">
+        <v>1.002960087894737</v>
+      </c>
+      <c r="E33">
+        <v>1.003315456315789</v>
+      </c>
+      <c r="F33">
+        <v>0.987245854736842</v>
+      </c>
+      <c r="G33">
+        <v>1.003211843684211</v>
+      </c>
+      <c r="H33">
+        <v>1.002960087894737</v>
+      </c>
+      <c r="I33">
+        <v>0.9929029810526314</v>
+      </c>
+      <c r="J33">
+        <v>1.008908904210527</v>
+      </c>
+      <c r="K33">
+        <v>1.002960087894737</v>
+      </c>
+      <c r="L33">
+        <v>1.003315456315789</v>
+      </c>
+      <c r="M33">
+        <v>0.9952806555263156</v>
+      </c>
+      <c r="N33">
+        <v>0.9952806555263156</v>
+      </c>
+      <c r="O33">
+        <v>0.9944880973684209</v>
+      </c>
+      <c r="P33">
+        <v>0.9978404663157893</v>
+      </c>
+      <c r="Q33">
+        <v>0.9978404663157893</v>
+      </c>
+      <c r="R33">
+        <v>0.9991203717105261</v>
+      </c>
+      <c r="S33">
+        <v>0.9991203717105261</v>
+      </c>
+      <c r="T33">
+        <v>0.9997575213157894</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34">
+        <v>1.063849743157895</v>
+      </c>
+      <c r="D34">
+        <v>0.9842251800000001</v>
+      </c>
+      <c r="E34">
+        <v>0.9839333421052632</v>
+      </c>
+      <c r="F34">
+        <v>1.063849743157895</v>
+      </c>
+      <c r="G34">
+        <v>0.9840184273684212</v>
+      </c>
+      <c r="H34">
+        <v>0.9842251800000001</v>
+      </c>
+      <c r="I34">
+        <v>1.035184897894737</v>
+      </c>
+      <c r="J34">
+        <v>0.9570999831578948</v>
+      </c>
+      <c r="K34">
+        <v>0.9842251800000001</v>
+      </c>
+      <c r="L34">
+        <v>0.9839333421052632</v>
+      </c>
+      <c r="M34">
+        <v>1.023891542631579</v>
+      </c>
+      <c r="N34">
+        <v>1.023891542631579</v>
+      </c>
+      <c r="O34">
+        <v>1.027655994385965</v>
+      </c>
+      <c r="P34">
+        <v>1.010669421754386</v>
+      </c>
+      <c r="Q34">
+        <v>1.010669421754386</v>
+      </c>
+      <c r="R34">
+        <v>1.004058361315789</v>
+      </c>
+      <c r="S34">
+        <v>1.004058361315789</v>
+      </c>
+      <c r="T34">
+        <v>1.001385262280702</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35">
+        <v>0.9730148253937378</v>
+      </c>
+      <c r="D35">
+        <v>1.007184783031468</v>
+      </c>
+      <c r="E35">
+        <v>1.006502694454478</v>
+      </c>
+      <c r="F35">
+        <v>0.9730148253937378</v>
+      </c>
+      <c r="G35">
+        <v>1.00670153736151</v>
+      </c>
+      <c r="H35">
+        <v>1.007184783031468</v>
+      </c>
+      <c r="I35">
+        <v>0.985316014044316</v>
+      </c>
+      <c r="J35">
+        <v>1.017210591230337</v>
+      </c>
+      <c r="K35">
+        <v>1.007184783031468</v>
+      </c>
+      <c r="L35">
+        <v>1.006502694454478</v>
+      </c>
+      <c r="M35">
+        <v>0.9897587599241078</v>
+      </c>
+      <c r="N35">
+        <v>0.9897587599241078</v>
+      </c>
+      <c r="O35">
+        <v>0.9882778446308439</v>
+      </c>
+      <c r="P35">
+        <v>0.9955674342932278</v>
+      </c>
+      <c r="Q35">
+        <v>0.9955674342932278</v>
+      </c>
+      <c r="R35">
+        <v>0.9984717714777878</v>
+      </c>
+      <c r="S35">
+        <v>0.9984717714777878</v>
+      </c>
+      <c r="T35">
+        <v>0.9993217409193078</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36">
+        <v>0.9999974839626672</v>
+      </c>
+      <c r="D36">
+        <v>0.9999997751191719</v>
+      </c>
+      <c r="E36">
+        <v>1.000001104317315</v>
+      </c>
+      <c r="F36">
+        <v>0.9999974839626672</v>
+      </c>
+      <c r="G36">
+        <v>1.000000716230596</v>
+      </c>
+      <c r="H36">
+        <v>0.9999997751191719</v>
+      </c>
+      <c r="I36">
+        <v>0.9999983085053616</v>
+      </c>
+      <c r="J36">
+        <v>1.000003196607137</v>
+      </c>
+      <c r="K36">
+        <v>0.9999997751191719</v>
+      </c>
+      <c r="L36">
+        <v>1.000001104317315</v>
+      </c>
+      <c r="M36">
+        <v>0.9999992941399909</v>
+      </c>
+      <c r="N36">
+        <v>0.9999992941399909</v>
+      </c>
+      <c r="O36">
+        <v>0.9999989655951144</v>
+      </c>
+      <c r="P36">
+        <v>0.9999994544663845</v>
+      </c>
+      <c r="Q36">
+        <v>0.9999994544663847</v>
+      </c>
+      <c r="R36">
+        <v>0.9999995346295815</v>
+      </c>
+      <c r="S36">
+        <v>0.9999995346295815</v>
+      </c>
+      <c r="T36">
+        <v>1.000000097457042</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37">
+        <v>0.9999315057285559</v>
+      </c>
+      <c r="D37">
+        <v>1.000019946708355</v>
+      </c>
+      <c r="E37">
+        <v>1.000015556391327</v>
+      </c>
+      <c r="F37">
+        <v>0.9999315057285559</v>
+      </c>
+      <c r="G37">
+        <v>1.000016835909944</v>
+      </c>
+      <c r="H37">
+        <v>1.000019946708355</v>
+      </c>
+      <c r="I37">
+        <v>0.9999633441660268</v>
+      </c>
+      <c r="J37">
+        <v>1.000040645159586</v>
+      </c>
+      <c r="K37">
+        <v>1.000019946708355</v>
+      </c>
+      <c r="L37">
+        <v>1.000015556391327</v>
+      </c>
+      <c r="M37">
+        <v>0.9999735310599414</v>
+      </c>
+      <c r="N37">
+        <v>0.9999735310599414</v>
+      </c>
+      <c r="O37">
+        <v>0.9999701354286366</v>
+      </c>
+      <c r="P37">
+        <v>0.999989002942746</v>
+      </c>
+      <c r="Q37">
+        <v>0.999989002942746</v>
+      </c>
+      <c r="R37">
+        <v>0.9999967388841483</v>
+      </c>
+      <c r="S37">
+        <v>0.9999967388841483</v>
+      </c>
+      <c r="T37">
+        <v>0.9999979723439658</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38">
+        <v>0.9997712678434886</v>
+      </c>
+      <c r="D38">
+        <v>1.000050046688022</v>
+      </c>
+      <c r="E38">
+        <v>1.000061145681835</v>
+      </c>
+      <c r="F38">
+        <v>0.9997712678434886</v>
+      </c>
+      <c r="G38">
+        <v>1.000057911721522</v>
+      </c>
+      <c r="H38">
+        <v>1.000050046688022</v>
+      </c>
+      <c r="I38">
+        <v>0.9998716302557473</v>
+      </c>
+      <c r="J38">
+        <v>1.000165171736319</v>
+      </c>
+      <c r="K38">
+        <v>1.000050046688022</v>
+      </c>
+      <c r="L38">
+        <v>1.000061145681835</v>
+      </c>
+      <c r="M38">
+        <v>0.9999162067626619</v>
+      </c>
+      <c r="N38">
+        <v>0.9999162067626619</v>
+      </c>
+      <c r="O38">
+        <v>0.9999013479270237</v>
+      </c>
+      <c r="P38">
+        <v>0.9999608200711153</v>
+      </c>
+      <c r="Q38">
+        <v>0.9999608200711153</v>
+      </c>
+      <c r="R38">
+        <v>0.9999831267253421</v>
+      </c>
+      <c r="S38">
+        <v>0.9999831267253421</v>
+      </c>
+      <c r="T38">
+        <v>0.9999961956544889</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39">
         <v>0.9994724573075052</v>
       </c>
-      <c r="D23">
+      <c r="D39">
         <v>1.00010375110801</v>
       </c>
-      <c r="E23">
+      <c r="E39">
         <v>1.000147514984475</v>
       </c>
-      <c r="F23">
+      <c r="F39">
         <v>0.9994724573075052</v>
       </c>
-      <c r="G23">
+      <c r="G39">
         <v>1.000134756637829</v>
       </c>
-      <c r="H23">
+      <c r="H39">
         <v>1.00010375110801</v>
       </c>
-      <c r="I23">
+      <c r="I39">
         <v>0.999699726222578</v>
       </c>
-      <c r="J23">
+      <c r="J39">
         <v>1.000401712092244</v>
       </c>
-      <c r="K23">
+      <c r="K39">
         <v>1.00010375110801</v>
       </c>
-      <c r="L23">
+      <c r="L39">
         <v>1.000147514984475</v>
       </c>
-      <c r="M23">
+      <c r="M39">
         <v>0.9998099861459899</v>
       </c>
-      <c r="N23">
+      <c r="N39">
         <v>0.9998099861459899</v>
       </c>
-      <c r="O23">
+      <c r="O39">
         <v>0.999773232838186</v>
       </c>
-      <c r="P23">
+      <c r="P39">
         <v>0.9999079077999964</v>
       </c>
-      <c r="Q23">
+      <c r="Q39">
         <v>0.9999079077999964</v>
       </c>
-      <c r="R23">
+      <c r="R39">
         <v>0.9999568686269997</v>
       </c>
-      <c r="S23">
+      <c r="S39">
         <v>0.9999568686269997</v>
       </c>
-      <c r="T23">
+      <c r="T39">
         <v>0.9999933197254399</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40">
+        <v>1.024208985700529</v>
+      </c>
+      <c r="D40">
+        <v>0.9938988017437617</v>
+      </c>
+      <c r="E40">
+        <v>0.9939749498659368</v>
+      </c>
+      <c r="F40">
+        <v>1.024208985700529</v>
+      </c>
+      <c r="G40">
+        <v>0.9939527494518351</v>
+      </c>
+      <c r="H40">
+        <v>0.9938988017437617</v>
+      </c>
+      <c r="I40">
+        <v>1.013297318178215</v>
+      </c>
+      <c r="J40">
+        <v>0.9839477027363513</v>
+      </c>
+      <c r="K40">
+        <v>0.9938988017437617</v>
+      </c>
+      <c r="L40">
+        <v>0.9939749498659368</v>
+      </c>
+      <c r="M40">
+        <v>1.009091967783233</v>
+      </c>
+      <c r="N40">
+        <v>1.009091967783233</v>
+      </c>
+      <c r="O40">
+        <v>1.010493751248227</v>
+      </c>
+      <c r="P40">
+        <v>1.004027579103409</v>
+      </c>
+      <c r="Q40">
+        <v>1.004027579103409</v>
+      </c>
+      <c r="R40">
+        <v>1.001495384763497</v>
+      </c>
+      <c r="S40">
+        <v>1.001495384763497</v>
+      </c>
+      <c r="T40">
+        <v>1.000546751279438</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>39</v>
+      </c>
+      <c r="C41">
+        <v>1.012785797895094</v>
+      </c>
+      <c r="D41">
+        <v>0.9968442957868727</v>
+      </c>
+      <c r="E41">
+        <v>0.9967809143441919</v>
+      </c>
+      <c r="F41">
+        <v>1.012785797895094</v>
+      </c>
+      <c r="G41">
+        <v>0.9967993934531126</v>
+      </c>
+      <c r="H41">
+        <v>0.9968442957868727</v>
+      </c>
+      <c r="I41">
+        <v>1.007046856858407</v>
+      </c>
+      <c r="J41">
+        <v>0.9914036992091668</v>
+      </c>
+      <c r="K41">
+        <v>0.9968442957868727</v>
+      </c>
+      <c r="L41">
+        <v>0.9967809143441919</v>
+      </c>
+      <c r="M41">
+        <v>1.004783356119643</v>
+      </c>
+      <c r="N41">
+        <v>1.004783356119643</v>
+      </c>
+      <c r="O41">
+        <v>1.005537856365897</v>
+      </c>
+      <c r="P41">
+        <v>1.002137002675386</v>
+      </c>
+      <c r="Q41">
+        <v>1.002137002675386</v>
+      </c>
+      <c r="R41">
+        <v>1.000813825953258</v>
+      </c>
+      <c r="S41">
+        <v>1.000813825953258</v>
+      </c>
+      <c r="T41">
+        <v>1.000276826257807</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42">
+        <v>1.011194141446947</v>
+      </c>
+      <c r="D42">
+        <v>0.9970944318860271</v>
+      </c>
+      <c r="E42">
+        <v>0.9972609282946613</v>
+      </c>
+      <c r="F42">
+        <v>1.011194141446947</v>
+      </c>
+      <c r="G42">
+        <v>0.9972123871485299</v>
+      </c>
+      <c r="H42">
+        <v>0.9970944318860271</v>
+      </c>
+      <c r="I42">
+        <v>1.006118243880428</v>
+      </c>
+      <c r="J42">
+        <v>0.9927275185163293</v>
+      </c>
+      <c r="K42">
+        <v>0.9970944318860271</v>
+      </c>
+      <c r="L42">
+        <v>0.9972609282946613</v>
+      </c>
+      <c r="M42">
+        <v>1.004227534870804</v>
+      </c>
+      <c r="N42">
+        <v>1.004227534870804</v>
+      </c>
+      <c r="O42">
+        <v>1.004857771207345</v>
+      </c>
+      <c r="P42">
+        <v>1.001849833875878</v>
+      </c>
+      <c r="Q42">
+        <v>1.001849833875879</v>
+      </c>
+      <c r="R42">
+        <v>1.000660983378416</v>
+      </c>
+      <c r="S42">
+        <v>1.000660983378416</v>
+      </c>
+      <c r="T42">
+        <v>1.000267941862154</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/RGossF-HW40.xlsx
+++ b/JupyterNotebooks/AvgHW/RGossF-HW40.xlsx
@@ -14,36 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>HKL</t>
   </si>
   <si>
-    <t>BT8Hex_2.5</t>
-  </si>
-  <si>
-    <t>BT8Hex_5</t>
-  </si>
-  <si>
-    <t>BT8Hex_10</t>
-  </si>
-  <si>
-    <t>BT8Hex_15</t>
-  </si>
-  <si>
-    <t>Spiral2.5</t>
-  </si>
-  <si>
     <t>Spiral5</t>
   </si>
   <si>
-    <t>Spiral7.5</t>
-  </si>
-  <si>
-    <t>Spiral10</t>
-  </si>
-  <si>
-    <t>Spiral15</t>
+    <t>RotRing OmegaMax-90</t>
+  </si>
+  <si>
+    <t>Equal Angle</t>
+  </si>
+  <si>
+    <t>Tilt Rotate</t>
+  </si>
+  <si>
+    <t>CLR</t>
+  </si>
+  <si>
+    <t>Rizzie Hex</t>
+  </si>
+  <si>
+    <t>Thomas Hex</t>
+  </si>
+  <si>
+    <t>Tilt Rotate_Partial</t>
+  </si>
+  <si>
+    <t>RotRing OmegaMax-60</t>
+  </si>
+  <si>
+    <t>Equal Angle_Partial</t>
+  </si>
+  <si>
+    <t>Rizzie Hex_Partial</t>
+  </si>
+  <si>
+    <t>ND Single</t>
+  </si>
+  <si>
+    <t>RD Single</t>
+  </si>
+  <si>
+    <t>TD Single</t>
+  </si>
+  <si>
+    <t>Morris Single</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>OffsetFTD</t>
+  </si>
+  <si>
+    <t>OffsetATD</t>
   </si>
   <si>
     <t>OffsetF45</t>
@@ -52,46 +85,43 @@
     <t>OffsetA45</t>
   </si>
   <si>
-    <t>OffsetFTD</t>
-  </si>
-  <si>
-    <t>OffsetATD</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt2.5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt10degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt15degRes</t>
+    <t>OffsetFRD</t>
+  </si>
+  <si>
+    <t>OffsetARD</t>
+  </si>
+  <si>
+    <t>Gaussian Quadrature</t>
+  </si>
+  <si>
+    <t>Michael-CCHex</t>
+  </si>
+  <si>
+    <t>Michael-SNHex</t>
+  </si>
+  <si>
+    <t>[2, 0, 0]</t>
+  </si>
+  <si>
+    <t>[2, 2, 0]</t>
+  </si>
+  <si>
+    <t>[2, 1, 1]</t>
+  </si>
+  <si>
+    <t>[4, 0, 0]</t>
+  </si>
+  <si>
+    <t>[3, 2, 1]</t>
   </si>
   <si>
     <t>[1, 1, 0]</t>
   </si>
   <si>
-    <t>[2, 0, 0]</t>
-  </si>
-  <si>
-    <t>[2, 1, 1]</t>
-  </si>
-  <si>
-    <t>[2, 2, 0]</t>
+    <t>[3, 1, 0]</t>
   </si>
   <si>
     <t>[2, 2, 2]</t>
-  </si>
-  <si>
-    <t>[3, 1, 0]</t>
-  </si>
-  <si>
-    <t>[3, 2, 1]</t>
-  </si>
-  <si>
-    <t>[4, 0, 0]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -479,13 +509,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AD19"/>
+  <dimension ref="A1:T29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -543,38 +573,8 @@
       <c r="T1" s="1">
         <v>18</v>
       </c>
-      <c r="U1" s="1">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:30">
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -582,91 +582,61 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
-      </c>
-      <c r="U2" t="s">
-        <v>26</v>
-      </c>
-      <c r="V2" t="s">
-        <v>27</v>
-      </c>
-      <c r="W2" t="s">
-        <v>28</v>
-      </c>
-      <c r="X2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:30">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -674,61 +644,61 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.000178458078625</v>
+        <v>0.9998634054498764</v>
       </c>
       <c r="D3">
-        <v>0.9992473173885513</v>
+        <v>1.000036634539437</v>
       </c>
       <c r="E3">
-        <v>1.000193567741096</v>
+        <v>1.000032768734596</v>
       </c>
       <c r="F3">
-        <v>1.000178458078625</v>
+        <v>0.9998634054498764</v>
       </c>
       <c r="G3">
-        <v>1.000519057362752</v>
+        <v>1.000033895110459</v>
       </c>
       <c r="H3">
-        <v>0.9995825277887278</v>
+        <v>1.000036634539437</v>
       </c>
       <c r="I3">
-        <v>1.000189161908955</v>
+        <v>0.9999257675455975</v>
       </c>
       <c r="J3">
-        <v>0.9992473173885513</v>
+        <v>1.000086645172726</v>
       </c>
       <c r="K3">
-        <v>1.000178458078625</v>
+        <v>1.000036634539437</v>
       </c>
       <c r="L3">
-        <v>1.000193567741096</v>
+        <v>1.000032768734596</v>
       </c>
       <c r="M3">
-        <v>0.9997204425648238</v>
+        <v>0.9999480870922364</v>
       </c>
       <c r="N3">
-        <v>0.9997204425648238</v>
+        <v>0.9999480870922364</v>
       </c>
       <c r="O3">
-        <v>0.9996744709727917</v>
+        <v>0.9999406472433567</v>
       </c>
       <c r="P3">
-        <v>0.9998731144027578</v>
+        <v>0.9999776029079698</v>
       </c>
       <c r="Q3">
-        <v>0.9998731144027576</v>
+        <v>0.9999776029079698</v>
       </c>
       <c r="R3">
-        <v>0.9999494503217246</v>
+        <v>0.9999923608158365</v>
       </c>
       <c r="S3">
-        <v>0.9999494503217246</v>
+        <v>0.9999923608158365</v>
       </c>
       <c r="T3">
-        <v>0.9999850150447848</v>
-      </c>
-    </row>
-    <row r="4" spans="1:30">
+        <v>0.9999965194254488</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -736,61 +706,61 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.000344976798933</v>
+        <v>1.024208985700529</v>
       </c>
       <c r="D4">
-        <v>0.9985466681248606</v>
+        <v>0.9938988017437617</v>
       </c>
       <c r="E4">
-        <v>1.000373531000567</v>
+        <v>0.9939749498659368</v>
       </c>
       <c r="F4">
-        <v>1.000344976798933</v>
+        <v>1.024208985700529</v>
       </c>
       <c r="G4">
-        <v>1.001001521959724</v>
+        <v>0.9939527494518351</v>
       </c>
       <c r="H4">
-        <v>0.999194060057356</v>
+        <v>0.9938988017437617</v>
       </c>
       <c r="I4">
-        <v>1.000365205458988</v>
+        <v>1.013297318178215</v>
       </c>
       <c r="J4">
-        <v>0.9985466681248606</v>
+        <v>0.9839477027363513</v>
       </c>
       <c r="K4">
-        <v>1.000344976798933</v>
+        <v>0.9938988017437617</v>
       </c>
       <c r="L4">
-        <v>1.000373531000567</v>
+        <v>0.9939749498659368</v>
       </c>
       <c r="M4">
-        <v>0.9994600995627136</v>
+        <v>1.009091967783233</v>
       </c>
       <c r="N4">
-        <v>0.9994600995627136</v>
+        <v>1.009091967783233</v>
       </c>
       <c r="O4">
-        <v>0.9993714197275945</v>
+        <v>1.010493751248227</v>
       </c>
       <c r="P4">
-        <v>0.9997550586414533</v>
+        <v>1.004027579103409</v>
       </c>
       <c r="Q4">
-        <v>0.9997550586414533</v>
+        <v>1.004027579103409</v>
       </c>
       <c r="R4">
-        <v>0.9999025381808231</v>
+        <v>1.001495384763497</v>
       </c>
       <c r="S4">
-        <v>0.9999025381808231</v>
+        <v>1.001495384763497</v>
       </c>
       <c r="T4">
-        <v>0.9999709939000713</v>
-      </c>
-    </row>
-    <row r="5" spans="1:30">
+        <v>1.000546751279438</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -798,61 +768,61 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.000662160026033</v>
+        <v>0.992969347233429</v>
       </c>
       <c r="D5">
-        <v>0.9972142205433888</v>
+        <v>1.001847905273776</v>
       </c>
       <c r="E5">
-        <v>1.000715492022412</v>
+        <v>1.001707530518732</v>
       </c>
       <c r="F5">
-        <v>1.000662160026033</v>
+        <v>0.992969347233429</v>
       </c>
       <c r="G5">
-        <v>1.001918141740564</v>
+        <v>1.00174845371758</v>
       </c>
       <c r="H5">
-        <v>0.9984554799505534</v>
+        <v>1.001847905273776</v>
       </c>
       <c r="I5">
-        <v>1.000699945323557</v>
+        <v>0.9961656277665722</v>
       </c>
       <c r="J5">
-        <v>0.9972142205433888</v>
+        <v>1.004526674697407</v>
       </c>
       <c r="K5">
-        <v>1.000662160026033</v>
+        <v>1.001847905273776</v>
       </c>
       <c r="L5">
-        <v>1.000715492022412</v>
+        <v>1.001707530518732</v>
       </c>
       <c r="M5">
-        <v>0.9989648562829005</v>
+        <v>0.9973384388760804</v>
       </c>
       <c r="N5">
-        <v>0.9989648562829005</v>
+        <v>0.9973384388760804</v>
       </c>
       <c r="O5">
-        <v>0.9987950641721182</v>
+        <v>0.9969475018395778</v>
       </c>
       <c r="P5">
-        <v>0.9995306241972782</v>
+        <v>0.9988415943419788</v>
       </c>
       <c r="Q5">
-        <v>0.999530624197278</v>
+        <v>0.9988415943419788</v>
       </c>
       <c r="R5">
-        <v>0.9998135081544668</v>
+        <v>0.999593172074928</v>
       </c>
       <c r="S5">
-        <v>0.9998135081544668</v>
+        <v>0.999593172074928</v>
       </c>
       <c r="T5">
-        <v>0.9999442399344182</v>
-      </c>
-    </row>
-    <row r="6" spans="1:30">
+        <v>0.9998275898679158</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -860,61 +830,61 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.000971903025957</v>
+        <v>0.9730148253937378</v>
       </c>
       <c r="D6">
-        <v>0.9959136981544287</v>
+        <v>1.007184783031468</v>
       </c>
       <c r="E6">
-        <v>1.001049176072684</v>
+        <v>1.006502694454478</v>
       </c>
       <c r="F6">
-        <v>1.000971903025957</v>
+        <v>0.9730148253937378</v>
       </c>
       <c r="G6">
-        <v>1.002812504176171</v>
+        <v>1.00670153736151</v>
       </c>
       <c r="H6">
-        <v>0.9977346586452092</v>
+        <v>1.007184783031468</v>
       </c>
       <c r="I6">
-        <v>1.001026640362086</v>
+        <v>0.985316014044316</v>
       </c>
       <c r="J6">
-        <v>0.9959136981544287</v>
+        <v>1.017210591230337</v>
       </c>
       <c r="K6">
-        <v>1.000971903025957</v>
+        <v>1.007184783031468</v>
       </c>
       <c r="L6">
-        <v>1.001049176072684</v>
+        <v>1.006502694454478</v>
       </c>
       <c r="M6">
-        <v>0.9984814371135564</v>
+        <v>0.9897587599241078</v>
       </c>
       <c r="N6">
-        <v>0.9984814371135564</v>
+        <v>0.9897587599241078</v>
       </c>
       <c r="O6">
-        <v>0.9982325109574406</v>
+        <v>0.9882778446308439</v>
       </c>
       <c r="P6">
-        <v>0.9993115924176897</v>
+        <v>0.9955674342932278</v>
       </c>
       <c r="Q6">
-        <v>0.99931159241769</v>
+        <v>0.9955674342932278</v>
       </c>
       <c r="R6">
-        <v>0.9997266700697566</v>
+        <v>0.9984717714777878</v>
       </c>
       <c r="S6">
-        <v>0.9997266700697566</v>
+        <v>0.9984717714777878</v>
       </c>
       <c r="T6">
-        <v>0.9999180967394228</v>
-      </c>
-    </row>
-    <row r="7" spans="1:30">
+        <v>0.9993217409193078</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -922,61 +892,61 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.000015994464543</v>
+        <v>0.9994992730491395</v>
       </c>
       <c r="D7">
-        <v>0.9999397739314125</v>
+        <v>1.00011613681466</v>
       </c>
       <c r="E7">
-        <v>1.000014536145944</v>
+        <v>1.000130207142011</v>
       </c>
       <c r="F7">
-        <v>1.000015994464543</v>
+        <v>0.9994992730491395</v>
       </c>
       <c r="G7">
-        <v>1.000038484610054</v>
+        <v>1.000126105247291</v>
       </c>
       <c r="H7">
-        <v>0.9999672130065077</v>
+        <v>1.00011613681466</v>
       </c>
       <c r="I7">
-        <v>1.000014960823939</v>
+        <v>0.9997213436553589</v>
       </c>
       <c r="J7">
-        <v>0.9999397739314125</v>
+        <v>1.000349900401669</v>
       </c>
       <c r="K7">
-        <v>1.000015994464543</v>
+        <v>1.00011613681466</v>
       </c>
       <c r="L7">
-        <v>1.000014536145944</v>
+        <v>1.000130207142011</v>
       </c>
       <c r="M7">
-        <v>0.9999771550386785</v>
+        <v>0.9998147400955755</v>
       </c>
       <c r="N7">
-        <v>0.9999771550386785</v>
+        <v>0.9998147400955755</v>
       </c>
       <c r="O7">
-        <v>0.9999738410279549</v>
+        <v>0.9997836079488366</v>
       </c>
       <c r="P7">
-        <v>0.9999901015139666</v>
+        <v>0.9999152056686039</v>
       </c>
       <c r="Q7">
-        <v>0.9999901015139668</v>
+        <v>0.9999152056686039</v>
       </c>
       <c r="R7">
-        <v>0.9999965747516109</v>
+        <v>0.999965438455118</v>
       </c>
       <c r="S7">
-        <v>0.9999965747516109</v>
+        <v>0.999965438455118</v>
       </c>
       <c r="T7">
-        <v>0.9999984938304002</v>
-      </c>
-    </row>
-    <row r="8" spans="1:30">
+        <v>0.9999904943850217</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -984,61 +954,61 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.000036634539436</v>
+        <v>0.9999315057285559</v>
       </c>
       <c r="D8">
-        <v>0.9998634054498766</v>
+        <v>1.000019946708355</v>
       </c>
       <c r="E8">
-        <v>1.000032768734596</v>
+        <v>1.000015556391327</v>
       </c>
       <c r="F8">
-        <v>1.000036634539436</v>
+        <v>0.9999315057285559</v>
       </c>
       <c r="G8">
-        <v>1.000086645172726</v>
+        <v>1.000016835909944</v>
       </c>
       <c r="H8">
-        <v>0.9999257675455975</v>
+        <v>1.000019946708355</v>
       </c>
       <c r="I8">
-        <v>1.000033895110459</v>
+        <v>0.9999633441660268</v>
       </c>
       <c r="J8">
-        <v>0.9998634054498766</v>
+        <v>1.000040645159586</v>
       </c>
       <c r="K8">
-        <v>1.000036634539436</v>
+        <v>1.000019946708355</v>
       </c>
       <c r="L8">
-        <v>1.000032768734596</v>
+        <v>1.000015556391327</v>
       </c>
       <c r="M8">
-        <v>0.9999480870922366</v>
+        <v>0.9999735310599414</v>
       </c>
       <c r="N8">
-        <v>0.9999480870922366</v>
+        <v>0.9999735310599414</v>
       </c>
       <c r="O8">
-        <v>0.9999406472433569</v>
+        <v>0.9999701354286366</v>
       </c>
       <c r="P8">
-        <v>0.9999776029079698</v>
+        <v>0.999989002942746</v>
       </c>
       <c r="Q8">
-        <v>0.9999776029079698</v>
+        <v>0.999989002942746</v>
       </c>
       <c r="R8">
-        <v>0.9999923608158365</v>
+        <v>0.9999967388841483</v>
       </c>
       <c r="S8">
-        <v>0.9999923608158365</v>
+        <v>0.9999967388841483</v>
       </c>
       <c r="T8">
-        <v>0.9999965194254488</v>
-      </c>
-    </row>
-    <row r="9" spans="1:30">
+        <v>0.9999979723439658</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1046,61 +1016,61 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.000061941456797</v>
+        <v>0.9985466681248606</v>
       </c>
       <c r="D9">
-        <v>0.9997667743634115</v>
+        <v>1.000344976798933</v>
       </c>
       <c r="E9">
-        <v>1.000056287569256</v>
+        <v>1.000373531000567</v>
       </c>
       <c r="F9">
-        <v>1.000061941456797</v>
+        <v>0.9985466681248606</v>
       </c>
       <c r="G9">
-        <v>1.000149022529317</v>
+        <v>1.000365205458988</v>
       </c>
       <c r="H9">
-        <v>0.999873034153109</v>
+        <v>1.000344976798933</v>
       </c>
       <c r="I9">
-        <v>1.00005793558179</v>
+        <v>0.999194060057356</v>
       </c>
       <c r="J9">
-        <v>0.9997667743634115</v>
+        <v>1.001001521959724</v>
       </c>
       <c r="K9">
-        <v>1.000061941456797</v>
+        <v>1.000344976798933</v>
       </c>
       <c r="L9">
-        <v>1.000056287569256</v>
+        <v>1.000373531000567</v>
       </c>
       <c r="M9">
-        <v>0.9999115309663338</v>
+        <v>0.9994600995627136</v>
       </c>
       <c r="N9">
-        <v>0.9999115309663338</v>
+        <v>0.9994600995627136</v>
       </c>
       <c r="O9">
-        <v>0.9998986986952589</v>
+        <v>0.9993714197275945</v>
       </c>
       <c r="P9">
-        <v>0.9999616677964882</v>
+        <v>0.9997550586414533</v>
       </c>
       <c r="Q9">
-        <v>0.9999616677964882</v>
+        <v>0.9997550586414533</v>
       </c>
       <c r="R9">
-        <v>0.9999867362115655</v>
+        <v>0.9999025381808231</v>
       </c>
       <c r="S9">
-        <v>0.9999867362115655</v>
+        <v>0.9999025381808231</v>
       </c>
       <c r="T9">
-        <v>0.9999941659422801</v>
-      </c>
-    </row>
-    <row r="10" spans="1:30">
+        <v>0.9999709939000714</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1108,61 +1078,61 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.000124576365077</v>
+        <v>0.9726070967102842</v>
       </c>
       <c r="D10">
-        <v>0.9995318328851315</v>
+        <v>1.007300375174958</v>
       </c>
       <c r="E10">
-        <v>1.000112856426304</v>
+        <v>1.006597038371994</v>
       </c>
       <c r="F10">
-        <v>1.000124576365077</v>
+        <v>0.9726070967102842</v>
       </c>
       <c r="G10">
-        <v>1.000298715777081</v>
+        <v>1.006802075350439</v>
       </c>
       <c r="H10">
-        <v>0.999745221328773</v>
+        <v>1.007300375174958</v>
       </c>
       <c r="I10">
-        <v>1.000116273336242</v>
+        <v>0.9850966803889492</v>
       </c>
       <c r="J10">
-        <v>0.9995318328851315</v>
+        <v>1.017458127560284</v>
       </c>
       <c r="K10">
-        <v>1.000124576365077</v>
+        <v>1.007300375174958</v>
       </c>
       <c r="L10">
-        <v>1.000112856426304</v>
+        <v>1.006597038371994</v>
       </c>
       <c r="M10">
-        <v>0.9998223446557176</v>
+        <v>0.9896020675411392</v>
       </c>
       <c r="N10">
-        <v>0.9998223446557176</v>
+        <v>0.9896020675411392</v>
       </c>
       <c r="O10">
-        <v>0.9997966368800695</v>
+        <v>0.9881002718237425</v>
       </c>
       <c r="P10">
-        <v>0.9999230885588375</v>
+        <v>0.9955015034190787</v>
       </c>
       <c r="Q10">
-        <v>0.9999230885588375</v>
+        <v>0.9955015034190787</v>
       </c>
       <c r="R10">
-        <v>0.9999734605103974</v>
+        <v>0.9984512213580484</v>
       </c>
       <c r="S10">
-        <v>0.9999734605103974</v>
+        <v>0.9984512213580484</v>
       </c>
       <c r="T10">
-        <v>0.9999882460197681</v>
-      </c>
-    </row>
-    <row r="11" spans="1:30">
+        <v>0.9993102322594848</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1170,61 +1140,61 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.000224286831216</v>
+        <v>1.034541494822689</v>
       </c>
       <c r="D11">
-        <v>0.9991558653291415</v>
+        <v>0.9913611073668852</v>
       </c>
       <c r="E11">
-        <v>1.000203671547438</v>
+        <v>0.991366581221883</v>
       </c>
       <c r="F11">
-        <v>1.000224286831216</v>
+        <v>1.034541494822689</v>
       </c>
       <c r="G11">
-        <v>1.000539197310612</v>
+        <v>0.9913649859854505</v>
       </c>
       <c r="H11">
-        <v>0.9995404986670556</v>
+        <v>0.9913611073668852</v>
       </c>
       <c r="I11">
-        <v>1.000209681157705</v>
+        <v>1.018996553838803</v>
       </c>
       <c r="J11">
-        <v>0.9991558653291415</v>
+        <v>0.9769785926650824</v>
       </c>
       <c r="K11">
-        <v>1.000224286831216</v>
+        <v>0.9913611073668852</v>
       </c>
       <c r="L11">
-        <v>1.000203671547438</v>
+        <v>0.991366581221883</v>
       </c>
       <c r="M11">
-        <v>0.9996797684382899</v>
+        <v>1.012954038022286</v>
       </c>
       <c r="N11">
-        <v>0.9996797684382899</v>
+        <v>1.012954038022286</v>
       </c>
       <c r="O11">
-        <v>0.9996333451812118</v>
+        <v>1.014968209961125</v>
       </c>
       <c r="P11">
-        <v>0.9998612745692652</v>
+        <v>1.005756394470486</v>
       </c>
       <c r="Q11">
-        <v>0.9998612745692652</v>
+        <v>1.005756394470486</v>
       </c>
       <c r="R11">
-        <v>0.9999520276347529</v>
+        <v>1.002157572694586</v>
       </c>
       <c r="S11">
-        <v>0.9999520276347529</v>
+        <v>1.002157572694586</v>
       </c>
       <c r="T11">
-        <v>0.9999788668071946</v>
-      </c>
-    </row>
-    <row r="12" spans="1:30">
+        <v>1.000768219316799</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1232,61 +1202,61 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.000296024782096</v>
+        <v>0.9931202773157891</v>
       </c>
       <c r="D12">
-        <v>0.9987123041058847</v>
+        <v>1.001857266368422</v>
       </c>
       <c r="E12">
-        <v>1.000336325498456</v>
+        <v>1.001643635600001</v>
       </c>
       <c r="F12">
-        <v>1.000296024782096</v>
+        <v>0.9931202773157891</v>
       </c>
       <c r="G12">
-        <v>1.000904523457336</v>
+        <v>1.00170591576842</v>
       </c>
       <c r="H12">
-        <v>0.9992824357394359</v>
+        <v>1.001857266368422</v>
       </c>
       <c r="I12">
-        <v>1.000324559131632</v>
+        <v>0.9962655923473693</v>
       </c>
       <c r="J12">
-        <v>0.9987123041058847</v>
+        <v>1.004342334526315</v>
       </c>
       <c r="K12">
-        <v>1.000296024782096</v>
+        <v>1.001857266368422</v>
       </c>
       <c r="L12">
-        <v>1.000336325498456</v>
+        <v>1.001643635600001</v>
       </c>
       <c r="M12">
-        <v>0.9995243148021703</v>
+        <v>0.9973819564578952</v>
       </c>
       <c r="N12">
-        <v>0.9995243148021703</v>
+        <v>0.9973819564578952</v>
       </c>
       <c r="O12">
-        <v>0.9994436884479255</v>
+        <v>0.9970098350877198</v>
       </c>
       <c r="P12">
-        <v>0.9997815514621454</v>
+        <v>0.9988737264280708</v>
       </c>
       <c r="Q12">
-        <v>0.9997815514621454</v>
+        <v>0.9988737264280708</v>
       </c>
       <c r="R12">
-        <v>0.9999101697921331</v>
+        <v>0.9996196114131586</v>
       </c>
       <c r="S12">
-        <v>0.9999101697921331</v>
+        <v>0.9996196114131586</v>
       </c>
       <c r="T12">
-        <v>0.9999760287858068</v>
-      </c>
-    </row>
-    <row r="13" spans="1:30">
+        <v>0.9998225036543862</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1294,61 +1264,61 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.000103377191377</v>
+        <v>1.00533638118444</v>
       </c>
       <c r="D13">
-        <v>0.9996364740418497</v>
+        <v>0.9986472728469137</v>
       </c>
       <c r="E13">
-        <v>1.000083939203447</v>
+        <v>0.9986762579753817</v>
       </c>
       <c r="F13">
-        <v>1.000103377191377</v>
+        <v>1.00533638118444</v>
       </c>
       <c r="G13">
-        <v>1.000220137397193</v>
+        <v>0.9986678058666526</v>
       </c>
       <c r="H13">
-        <v>0.9998045610426181</v>
+        <v>0.9986472728469137</v>
       </c>
       <c r="I13">
-        <v>1.000089609287539</v>
+        <v>1.002928300764814</v>
       </c>
       <c r="J13">
-        <v>0.9996364740418497</v>
+        <v>0.9964755400407521</v>
       </c>
       <c r="K13">
-        <v>1.000103377191377</v>
+        <v>0.9986472728469137</v>
       </c>
       <c r="L13">
-        <v>1.000083939203447</v>
+        <v>0.9986762579753817</v>
       </c>
       <c r="M13">
-        <v>0.9998602066226482</v>
+        <v>1.002006319579911</v>
       </c>
       <c r="N13">
-        <v>0.9998602066226482</v>
+        <v>1.002006319579911</v>
       </c>
       <c r="O13">
-        <v>0.9998416580959715</v>
+        <v>1.002313646641545</v>
       </c>
       <c r="P13">
-        <v>0.9999412634788912</v>
+        <v>1.000886637335579</v>
       </c>
       <c r="Q13">
-        <v>0.9999412634788912</v>
+        <v>1.000886637335579</v>
       </c>
       <c r="R13">
-        <v>0.9999817919070126</v>
+        <v>1.000326796213412</v>
       </c>
       <c r="S13">
-        <v>0.9999817919070126</v>
+        <v>1.000326796213412</v>
       </c>
       <c r="T13">
-        <v>0.9999896830273372</v>
-      </c>
-    </row>
-    <row r="14" spans="1:30">
+        <v>1.000121926446492</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1356,61 +1326,61 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>1.023710879888909</v>
+        <v>0.9526597999999998</v>
       </c>
       <c r="D14">
-        <v>0.903179289747316</v>
+        <v>1.012634</v>
       </c>
       <c r="E14">
-        <v>1.024479788244299</v>
+        <v>1.0113912</v>
       </c>
       <c r="F14">
-        <v>1.023710879888909</v>
+        <v>0.9526597999999998</v>
       </c>
       <c r="G14">
-        <v>1.065425904135564</v>
+        <v>1.011753499999999</v>
       </c>
       <c r="H14">
-        <v>0.9465706614042574</v>
+        <v>1.012634</v>
       </c>
       <c r="I14">
-        <v>1.024255608649296</v>
+        <v>0.9742505199999987</v>
       </c>
       <c r="J14">
-        <v>0.903179289747316</v>
+        <v>1.0301398</v>
       </c>
       <c r="K14">
-        <v>1.023710879888909</v>
+        <v>1.012634</v>
       </c>
       <c r="L14">
-        <v>1.024479788244299</v>
+        <v>1.0113912</v>
       </c>
       <c r="M14">
-        <v>0.9638295389958076</v>
+        <v>0.9820254999999998</v>
       </c>
       <c r="N14">
-        <v>0.9638295389958076</v>
+        <v>0.9820254999999998</v>
       </c>
       <c r="O14">
-        <v>0.9580765797986243</v>
+        <v>0.9794338399999994</v>
       </c>
       <c r="P14">
-        <v>0.9837899859601746</v>
+        <v>0.9922283333333329</v>
       </c>
       <c r="Q14">
-        <v>0.9837899859601746</v>
+        <v>0.9922283333333329</v>
       </c>
       <c r="R14">
-        <v>0.9937702094423582</v>
+        <v>0.9973297499999996</v>
       </c>
       <c r="S14">
-        <v>0.9937702094423582</v>
+        <v>0.9973297499999996</v>
       </c>
       <c r="T14">
-        <v>0.9979370220116069</v>
-      </c>
-    </row>
-    <row r="15" spans="1:30">
+        <v>0.9988048033333327</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1418,61 +1388,61 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.006768384060493</v>
+        <v>0.9526597999999999</v>
       </c>
       <c r="D15">
-        <v>0.9737550851655731</v>
+        <v>1.012634</v>
       </c>
       <c r="E15">
-        <v>1.006446150929852</v>
+        <v>1.0113912</v>
       </c>
       <c r="F15">
-        <v>1.006768384060493</v>
+        <v>0.9526597999999999</v>
       </c>
       <c r="G15">
-        <v>1.01712833877372</v>
+        <v>1.0117535</v>
       </c>
       <c r="H15">
-        <v>0.9856398703219604</v>
+        <v>1.012634</v>
       </c>
       <c r="I15">
-        <v>1.00654008781614</v>
+        <v>0.9742505199999999</v>
       </c>
       <c r="J15">
-        <v>0.9737550851655731</v>
+        <v>1.0301398</v>
       </c>
       <c r="K15">
-        <v>1.006768384060493</v>
+        <v>1.012634</v>
       </c>
       <c r="L15">
-        <v>1.006446150929852</v>
+        <v>1.0113912</v>
       </c>
       <c r="M15">
-        <v>0.9901006180477125</v>
+        <v>0.9820255</v>
       </c>
       <c r="N15">
-        <v>0.9901006180477125</v>
+        <v>0.9820255</v>
       </c>
       <c r="O15">
-        <v>0.9886137021391285</v>
+        <v>0.97943384</v>
       </c>
       <c r="P15">
-        <v>0.9956565400519727</v>
+        <v>0.9922283333333333</v>
       </c>
       <c r="Q15">
-        <v>0.9956565400519728</v>
+        <v>0.9922283333333333</v>
       </c>
       <c r="R15">
-        <v>0.9984345010541029</v>
+        <v>0.99732975</v>
       </c>
       <c r="S15">
-        <v>0.9984345010541029</v>
+        <v>0.99732975</v>
       </c>
       <c r="T15">
-        <v>0.9993796528446232</v>
-      </c>
-    </row>
-    <row r="16" spans="1:30">
+        <v>0.9988048033333333</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1480,58 +1450,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.9999997751191716</v>
+        <v>1.1873941</v>
       </c>
       <c r="D16">
-        <v>0.9999974839626672</v>
+        <v>0.9526597999999999</v>
       </c>
       <c r="E16">
-        <v>1.000001104317315</v>
+        <v>0.9534246199999999</v>
       </c>
       <c r="F16">
-        <v>0.9999997751191716</v>
+        <v>1.1873941</v>
       </c>
       <c r="G16">
-        <v>1.000003196607137</v>
+        <v>0.95320164</v>
       </c>
       <c r="H16">
-        <v>0.9999983085053618</v>
+        <v>0.9526597999999999</v>
       </c>
       <c r="I16">
-        <v>1.000000716230596</v>
+        <v>1.1028898</v>
       </c>
       <c r="J16">
-        <v>0.9999974839626672</v>
+        <v>0.8759446600000002</v>
       </c>
       <c r="K16">
-        <v>0.9999997751191716</v>
+        <v>0.9526597999999999</v>
       </c>
       <c r="L16">
-        <v>1.000001104317315</v>
+        <v>0.9534246199999999</v>
       </c>
       <c r="M16">
-        <v>0.9999992941399911</v>
+        <v>1.07040936</v>
       </c>
       <c r="N16">
-        <v>0.9999992941399911</v>
+        <v>1.07040936</v>
       </c>
       <c r="O16">
-        <v>0.9999989655951147</v>
+        <v>1.081236173333333</v>
       </c>
       <c r="P16">
-        <v>0.9999994544663847</v>
+        <v>1.031159506666667</v>
       </c>
       <c r="Q16">
-        <v>0.9999994544663845</v>
+        <v>1.031159506666667</v>
       </c>
       <c r="R16">
-        <v>0.9999995346295814</v>
+        <v>1.01153458</v>
       </c>
       <c r="S16">
-        <v>0.9999995346295814</v>
+        <v>1.01153458</v>
       </c>
       <c r="T16">
-        <v>1.000000097457042</v>
+        <v>1.004252436666667</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1542,58 +1512,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.000019946708355</v>
+        <v>0.9971564699999999</v>
       </c>
       <c r="D17">
-        <v>0.9999315057285559</v>
+        <v>1.0006024</v>
       </c>
       <c r="E17">
-        <v>1.000015556391327</v>
+        <v>1.0007712</v>
       </c>
       <c r="F17">
-        <v>1.000019946708355</v>
+        <v>0.9971564699999999</v>
       </c>
       <c r="G17">
-        <v>1.000040645159586</v>
+        <v>1.000722</v>
       </c>
       <c r="H17">
-        <v>0.9999633441660268</v>
+        <v>1.0006024</v>
       </c>
       <c r="I17">
-        <v>1.000016835909944</v>
+        <v>0.998397</v>
       </c>
       <c r="J17">
-        <v>0.9999315057285559</v>
+        <v>1.0020886</v>
       </c>
       <c r="K17">
-        <v>1.000019946708355</v>
+        <v>1.0006024</v>
       </c>
       <c r="L17">
-        <v>1.000015556391327</v>
+        <v>1.0007712</v>
       </c>
       <c r="M17">
-        <v>0.9999735310599414</v>
+        <v>0.9989638349999999</v>
       </c>
       <c r="N17">
-        <v>0.9999735310599414</v>
+        <v>0.9989638349999999</v>
       </c>
       <c r="O17">
-        <v>0.9999701354286366</v>
+        <v>0.99877489</v>
       </c>
       <c r="P17">
-        <v>0.999989002942746</v>
+        <v>0.9995100233333333</v>
       </c>
       <c r="Q17">
-        <v>0.999989002942746</v>
+        <v>0.9995100233333333</v>
       </c>
       <c r="R17">
-        <v>0.9999967388841483</v>
+        <v>0.9997831174999999</v>
       </c>
       <c r="S17">
-        <v>0.9999967388841483</v>
+        <v>0.9997831174999999</v>
       </c>
       <c r="T17">
-        <v>0.9999979723439658</v>
+        <v>0.9999562783333333</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1604,58 +1574,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.000050046688022</v>
+        <v>0.9822361227397259</v>
       </c>
       <c r="D18">
-        <v>0.9997712678434886</v>
+        <v>1.004205658630136</v>
       </c>
       <c r="E18">
-        <v>1.000061145681835</v>
+        <v>1.004571701917808</v>
       </c>
       <c r="F18">
-        <v>1.000050046688022</v>
+        <v>0.9822361227397259</v>
       </c>
       <c r="G18">
-        <v>1.000165171736319</v>
+        <v>1.004464977260274</v>
       </c>
       <c r="H18">
-        <v>0.9998716302557473</v>
+        <v>1.004205658630136</v>
       </c>
       <c r="I18">
-        <v>1.000057911721521</v>
+        <v>0.9901451567123291</v>
       </c>
       <c r="J18">
-        <v>0.9997712678434886</v>
+        <v>1.012260926027397</v>
       </c>
       <c r="K18">
-        <v>1.000050046688022</v>
+        <v>1.004205658630136</v>
       </c>
       <c r="L18">
-        <v>1.000061145681835</v>
+        <v>1.004571701917808</v>
       </c>
       <c r="M18">
-        <v>0.9999162067626619</v>
+        <v>0.993403912328767</v>
       </c>
       <c r="N18">
-        <v>0.9999162067626619</v>
+        <v>0.993403912328767</v>
       </c>
       <c r="O18">
-        <v>0.9999013479270237</v>
+        <v>0.992317660456621</v>
       </c>
       <c r="P18">
-        <v>0.9999608200711153</v>
+        <v>0.9970044944292235</v>
       </c>
       <c r="Q18">
-        <v>0.9999608200711153</v>
+        <v>0.9970044944292235</v>
       </c>
       <c r="R18">
-        <v>0.9999831267253421</v>
+        <v>0.9988047854794517</v>
       </c>
       <c r="S18">
-        <v>0.9999831267253421</v>
+        <v>0.9988047854794517</v>
       </c>
       <c r="T18">
-        <v>0.9999961956544889</v>
+        <v>0.9996474238812785</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1666,58 +1636,678 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.00010375110801</v>
+        <v>0.987245854736842</v>
       </c>
       <c r="D19">
-        <v>0.9994724573075052</v>
+        <v>1.002960087894737</v>
       </c>
       <c r="E19">
-        <v>1.000147514984475</v>
+        <v>1.003315456315789</v>
       </c>
       <c r="F19">
-        <v>1.00010375110801</v>
+        <v>0.987245854736842</v>
       </c>
       <c r="G19">
-        <v>1.000401712092244</v>
+        <v>1.003211843684211</v>
       </c>
       <c r="H19">
-        <v>0.9996997262225782</v>
+        <v>1.002960087894737</v>
       </c>
       <c r="I19">
-        <v>1.000134756637829</v>
+        <v>0.9929029810526314</v>
       </c>
       <c r="J19">
-        <v>0.9994724573075052</v>
+        <v>1.008908904210527</v>
       </c>
       <c r="K19">
-        <v>1.00010375110801</v>
+        <v>1.002960087894737</v>
       </c>
       <c r="L19">
-        <v>1.000147514984475</v>
+        <v>1.003315456315789</v>
       </c>
       <c r="M19">
-        <v>0.9998099861459899</v>
+        <v>0.9952806555263156</v>
       </c>
       <c r="N19">
-        <v>0.9998099861459899</v>
+        <v>0.9952806555263156</v>
       </c>
       <c r="O19">
-        <v>0.999773232838186</v>
+        <v>0.9944880973684209</v>
       </c>
       <c r="P19">
-        <v>0.9999079077999964</v>
+        <v>0.9978404663157893</v>
       </c>
       <c r="Q19">
-        <v>0.9999079077999964</v>
+        <v>0.9978404663157893</v>
       </c>
       <c r="R19">
-        <v>0.9999568686269997</v>
+        <v>0.9991203717105261</v>
       </c>
       <c r="S19">
-        <v>0.9999568686269997</v>
+        <v>0.9991203717105261</v>
       </c>
       <c r="T19">
-        <v>0.9999933197254401</v>
+        <v>0.9997575213157894</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>1.063849743157895</v>
+      </c>
+      <c r="D20">
+        <v>0.9842251800000001</v>
+      </c>
+      <c r="E20">
+        <v>0.9839333421052632</v>
+      </c>
+      <c r="F20">
+        <v>1.063849743157895</v>
+      </c>
+      <c r="G20">
+        <v>0.9840184273684212</v>
+      </c>
+      <c r="H20">
+        <v>0.9842251800000001</v>
+      </c>
+      <c r="I20">
+        <v>1.035184897894737</v>
+      </c>
+      <c r="J20">
+        <v>0.9570999831578948</v>
+      </c>
+      <c r="K20">
+        <v>0.9842251800000001</v>
+      </c>
+      <c r="L20">
+        <v>0.9839333421052632</v>
+      </c>
+      <c r="M20">
+        <v>1.023891542631579</v>
+      </c>
+      <c r="N20">
+        <v>1.023891542631579</v>
+      </c>
+      <c r="O20">
+        <v>1.027655994385965</v>
+      </c>
+      <c r="P20">
+        <v>1.010669421754386</v>
+      </c>
+      <c r="Q20">
+        <v>1.010669421754386</v>
+      </c>
+      <c r="R20">
+        <v>1.004058361315789</v>
+      </c>
+      <c r="S20">
+        <v>1.004058361315789</v>
+      </c>
+      <c r="T20">
+        <v>1.001385262280702</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>0.903179289747316</v>
+      </c>
+      <c r="D21">
+        <v>1.023710879888909</v>
+      </c>
+      <c r="E21">
+        <v>1.024479788244299</v>
+      </c>
+      <c r="F21">
+        <v>0.903179289747316</v>
+      </c>
+      <c r="G21">
+        <v>1.024255608649295</v>
+      </c>
+      <c r="H21">
+        <v>1.023710879888909</v>
+      </c>
+      <c r="I21">
+        <v>0.9465706614042574</v>
+      </c>
+      <c r="J21">
+        <v>1.065425904135564</v>
+      </c>
+      <c r="K21">
+        <v>1.023710879888909</v>
+      </c>
+      <c r="L21">
+        <v>1.024479788244299</v>
+      </c>
+      <c r="M21">
+        <v>0.9638295389958076</v>
+      </c>
+      <c r="N21">
+        <v>0.9638295389958076</v>
+      </c>
+      <c r="O21">
+        <v>0.9580765797986243</v>
+      </c>
+      <c r="P21">
+        <v>0.9837899859601746</v>
+      </c>
+      <c r="Q21">
+        <v>0.9837899859601746</v>
+      </c>
+      <c r="R21">
+        <v>0.9937702094423582</v>
+      </c>
+      <c r="S21">
+        <v>0.9937702094423582</v>
+      </c>
+      <c r="T21">
+        <v>0.9979370220116069</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>0.9737550851655731</v>
+      </c>
+      <c r="D22">
+        <v>1.006768384060493</v>
+      </c>
+      <c r="E22">
+        <v>1.006446150929852</v>
+      </c>
+      <c r="F22">
+        <v>0.9737550851655731</v>
+      </c>
+      <c r="G22">
+        <v>1.00654008781614</v>
+      </c>
+      <c r="H22">
+        <v>1.006768384060493</v>
+      </c>
+      <c r="I22">
+        <v>0.9856398703219604</v>
+      </c>
+      <c r="J22">
+        <v>1.01712833877372</v>
+      </c>
+      <c r="K22">
+        <v>1.006768384060493</v>
+      </c>
+      <c r="L22">
+        <v>1.006446150929852</v>
+      </c>
+      <c r="M22">
+        <v>0.9901006180477125</v>
+      </c>
+      <c r="N22">
+        <v>0.9901006180477125</v>
+      </c>
+      <c r="O22">
+        <v>0.9886137021391285</v>
+      </c>
+      <c r="P22">
+        <v>0.9956565400519727</v>
+      </c>
+      <c r="Q22">
+        <v>0.9956565400519728</v>
+      </c>
+      <c r="R22">
+        <v>0.9984345010541029</v>
+      </c>
+      <c r="S22">
+        <v>0.9984345010541029</v>
+      </c>
+      <c r="T22">
+        <v>0.9993796528446234</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>0.9987123041058847</v>
+      </c>
+      <c r="D23">
+        <v>1.000296024782096</v>
+      </c>
+      <c r="E23">
+        <v>1.000336325498456</v>
+      </c>
+      <c r="F23">
+        <v>0.9987123041058847</v>
+      </c>
+      <c r="G23">
+        <v>1.000324559131632</v>
+      </c>
+      <c r="H23">
+        <v>1.000296024782096</v>
+      </c>
+      <c r="I23">
+        <v>0.9992824357394359</v>
+      </c>
+      <c r="J23">
+        <v>1.000904523457336</v>
+      </c>
+      <c r="K23">
+        <v>1.000296024782096</v>
+      </c>
+      <c r="L23">
+        <v>1.000336325498456</v>
+      </c>
+      <c r="M23">
+        <v>0.9995243148021703</v>
+      </c>
+      <c r="N23">
+        <v>0.9995243148021703</v>
+      </c>
+      <c r="O23">
+        <v>0.9994436884479255</v>
+      </c>
+      <c r="P23">
+        <v>0.9997815514621454</v>
+      </c>
+      <c r="Q23">
+        <v>0.9997815514621454</v>
+      </c>
+      <c r="R23">
+        <v>0.9999101697921331</v>
+      </c>
+      <c r="S23">
+        <v>0.9999101697921331</v>
+      </c>
+      <c r="T23">
+        <v>0.9999760287858068</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>0.9996364740418497</v>
+      </c>
+      <c r="D24">
+        <v>1.000103377191377</v>
+      </c>
+      <c r="E24">
+        <v>1.000083939203447</v>
+      </c>
+      <c r="F24">
+        <v>0.9996364740418497</v>
+      </c>
+      <c r="G24">
+        <v>1.000089609287539</v>
+      </c>
+      <c r="H24">
+        <v>1.000103377191377</v>
+      </c>
+      <c r="I24">
+        <v>0.9998045610426181</v>
+      </c>
+      <c r="J24">
+        <v>1.000220137397193</v>
+      </c>
+      <c r="K24">
+        <v>1.000103377191377</v>
+      </c>
+      <c r="L24">
+        <v>1.000083939203447</v>
+      </c>
+      <c r="M24">
+        <v>0.9998602066226483</v>
+      </c>
+      <c r="N24">
+        <v>0.9998602066226483</v>
+      </c>
+      <c r="O24">
+        <v>0.9998416580959715</v>
+      </c>
+      <c r="P24">
+        <v>0.9999412634788912</v>
+      </c>
+      <c r="Q24">
+        <v>0.9999412634788912</v>
+      </c>
+      <c r="R24">
+        <v>0.9999817919070126</v>
+      </c>
+      <c r="S24">
+        <v>0.9999817919070126</v>
+      </c>
+      <c r="T24">
+        <v>0.9999896830273372</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>1.124442944769613</v>
+      </c>
+      <c r="D25">
+        <v>0.9686981865604244</v>
+      </c>
+      <c r="E25">
+        <v>0.9689954176457359</v>
+      </c>
+      <c r="F25">
+        <v>1.124442944769613</v>
+      </c>
+      <c r="G25">
+        <v>0.9689087623183813</v>
+      </c>
+      <c r="H25">
+        <v>0.9686981865604244</v>
+      </c>
+      <c r="I25">
+        <v>1.068374821632422</v>
+      </c>
+      <c r="J25">
+        <v>0.9173777296412539</v>
+      </c>
+      <c r="K25">
+        <v>0.9686981865604244</v>
+      </c>
+      <c r="L25">
+        <v>0.9689954176457359</v>
+      </c>
+      <c r="M25">
+        <v>1.046719181207674</v>
+      </c>
+      <c r="N25">
+        <v>1.046719181207674</v>
+      </c>
+      <c r="O25">
+        <v>1.053937728015924</v>
+      </c>
+      <c r="P25">
+        <v>1.020712182991924</v>
+      </c>
+      <c r="Q25">
+        <v>1.020712182991924</v>
+      </c>
+      <c r="R25">
+        <v>1.007708683884049</v>
+      </c>
+      <c r="S25">
+        <v>1.007708683884049</v>
+      </c>
+      <c r="T25">
+        <v>1.002799643761305</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>1.033071397338449</v>
+      </c>
+      <c r="D26">
+        <v>0.9918147868316274</v>
+      </c>
+      <c r="E26">
+        <v>0.9916862453123849</v>
+      </c>
+      <c r="F26">
+        <v>1.033071397338449</v>
+      </c>
+      <c r="G26">
+        <v>0.9917237199623147</v>
+      </c>
+      <c r="H26">
+        <v>0.9918147868316274</v>
+      </c>
+      <c r="I26">
+        <v>1.01821901744236</v>
+      </c>
+      <c r="J26">
+        <v>0.9778055018278902</v>
+      </c>
+      <c r="K26">
+        <v>0.9918147868316274</v>
+      </c>
+      <c r="L26">
+        <v>0.9916862453123849</v>
+      </c>
+      <c r="M26">
+        <v>1.012378821325417</v>
+      </c>
+      <c r="N26">
+        <v>1.012378821325417</v>
+      </c>
+      <c r="O26">
+        <v>1.014325553364398</v>
+      </c>
+      <c r="P26">
+        <v>1.00552414316082</v>
+      </c>
+      <c r="Q26">
+        <v>1.00552414316082</v>
+      </c>
+      <c r="R26">
+        <v>1.002096804078522</v>
+      </c>
+      <c r="S26">
+        <v>1.002096804078522</v>
+      </c>
+      <c r="T26">
+        <v>1.000720111452504</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>0.9972263944468244</v>
+      </c>
+      <c r="D27">
+        <v>1.000675183502722</v>
+      </c>
+      <c r="E27">
+        <v>1.000703540764506</v>
+      </c>
+      <c r="F27">
+        <v>0.9972263944468244</v>
+      </c>
+      <c r="G27">
+        <v>1.000695244007062</v>
+      </c>
+      <c r="H27">
+        <v>1.000675183502722</v>
+      </c>
+      <c r="I27">
+        <v>0.9984679695955438</v>
+      </c>
+      <c r="J27">
+        <v>1.001881449358864</v>
+      </c>
+      <c r="K27">
+        <v>1.000675183502722</v>
+      </c>
+      <c r="L27">
+        <v>1.000703540764506</v>
+      </c>
+      <c r="M27">
+        <v>0.9989649676056653</v>
+      </c>
+      <c r="N27">
+        <v>0.9989649676056653</v>
+      </c>
+      <c r="O27">
+        <v>0.9987993016022916</v>
+      </c>
+      <c r="P27">
+        <v>0.9995350395713509</v>
+      </c>
+      <c r="Q27">
+        <v>0.999535039571351</v>
+      </c>
+      <c r="R27">
+        <v>0.9998200755541938</v>
+      </c>
+      <c r="S27">
+        <v>0.9998200755541938</v>
+      </c>
+      <c r="T27">
+        <v>0.9999416302792539</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>1.009223040097993</v>
+      </c>
+      <c r="D28">
+        <v>0.9975645637998064</v>
+      </c>
+      <c r="E28">
+        <v>0.9977662724989611</v>
+      </c>
+      <c r="F28">
+        <v>1.009223040097993</v>
+      </c>
+      <c r="G28">
+        <v>0.9977074643522817</v>
+      </c>
+      <c r="H28">
+        <v>0.9975645637998064</v>
+      </c>
+      <c r="I28">
+        <v>1.005026004071202</v>
+      </c>
+      <c r="J28">
+        <v>0.9940818253572086</v>
+      </c>
+      <c r="K28">
+        <v>0.9975645637998064</v>
+      </c>
+      <c r="L28">
+        <v>0.9977662724989611</v>
+      </c>
+      <c r="M28">
+        <v>1.003494656298477</v>
+      </c>
+      <c r="N28">
+        <v>1.003494656298477</v>
+      </c>
+      <c r="O28">
+        <v>1.004005105556052</v>
+      </c>
+      <c r="P28">
+        <v>1.00151795879892</v>
+      </c>
+      <c r="Q28">
+        <v>1.00151795879892</v>
+      </c>
+      <c r="R28">
+        <v>1.000529610049142</v>
+      </c>
+      <c r="S28">
+        <v>1.000529610049142</v>
+      </c>
+      <c r="T28">
+        <v>1.000228195029576</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>1.01668392584168</v>
+      </c>
+      <c r="D29">
+        <v>0.9956716285978403</v>
+      </c>
+      <c r="E29">
+        <v>0.9959164536572774</v>
+      </c>
+      <c r="F29">
+        <v>1.01668392584168</v>
+      </c>
+      <c r="G29">
+        <v>0.9958450651231909</v>
+      </c>
+      <c r="H29">
+        <v>0.9956716285978403</v>
+      </c>
+      <c r="I29">
+        <v>1.009119525233704</v>
+      </c>
+      <c r="J29">
+        <v>0.9891571757632716</v>
+      </c>
+      <c r="K29">
+        <v>0.9956716285978403</v>
+      </c>
+      <c r="L29">
+        <v>0.9959164536572774</v>
+      </c>
+      <c r="M29">
+        <v>1.006300189749479</v>
+      </c>
+      <c r="N29">
+        <v>1.006300189749479</v>
+      </c>
+      <c r="O29">
+        <v>1.00723996824422</v>
+      </c>
+      <c r="P29">
+        <v>1.002757336032266</v>
+      </c>
+      <c r="Q29">
+        <v>1.002757336032266</v>
+      </c>
+      <c r="R29">
+        <v>1.000985909173659</v>
+      </c>
+      <c r="S29">
+        <v>1.000985909173659</v>
+      </c>
+      <c r="T29">
+        <v>1.000398962369494</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/RGossF-HW40.xlsx
+++ b/JupyterNotebooks/AvgHW/RGossF-HW40.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>HKL</t>
   </si>
@@ -22,6 +22,12 @@
     <t>Spiral5</t>
   </si>
   <si>
+    <t>Holden</t>
+  </si>
+  <si>
+    <t>Rizzie Spiral</t>
+  </si>
+  <si>
     <t>RotRing OmegaMax-90</t>
   </si>
   <si>
@@ -37,7 +43,7 @@
     <t>Rizzie Hex</t>
   </si>
   <si>
-    <t>Thomas Hex</t>
+    <t>Matthies Hex</t>
   </si>
   <si>
     <t>Tilt Rotate_Partial</t>
@@ -509,7 +515,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T29"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,58 +588,58 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="N2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Q2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="R2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="S2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="T2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -706,58 +712,58 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.024208985700529</v>
+        <v>0.9935086146764005</v>
       </c>
       <c r="D4">
-        <v>0.9938988017437617</v>
+        <v>1.001698563082111</v>
       </c>
       <c r="E4">
-        <v>0.9939749498659368</v>
+        <v>1.001580782760231</v>
       </c>
       <c r="F4">
-        <v>1.024208985700529</v>
+        <v>0.9935086146764005</v>
       </c>
       <c r="G4">
-        <v>0.9939527494518351</v>
+        <v>1.001615119672724</v>
       </c>
       <c r="H4">
-        <v>0.9938988017437617</v>
+        <v>1.001698563082111</v>
       </c>
       <c r="I4">
-        <v>1.013297318178215</v>
+        <v>0.9964569955499462</v>
       </c>
       <c r="J4">
-        <v>0.9839477027363513</v>
+        <v>1.004192984755004</v>
       </c>
       <c r="K4">
-        <v>0.9938988017437617</v>
+        <v>1.001698563082111</v>
       </c>
       <c r="L4">
-        <v>0.9939749498659368</v>
+        <v>1.001580782760231</v>
       </c>
       <c r="M4">
-        <v>1.009091967783233</v>
+        <v>0.997544698718316</v>
       </c>
       <c r="N4">
-        <v>1.009091967783233</v>
+        <v>0.997544698718316</v>
       </c>
       <c r="O4">
-        <v>1.010493751248227</v>
+        <v>0.997182130995526</v>
       </c>
       <c r="P4">
-        <v>1.004027579103409</v>
+        <v>0.9989293201729144</v>
       </c>
       <c r="Q4">
-        <v>1.004027579103409</v>
+        <v>0.9989293201729144</v>
       </c>
       <c r="R4">
-        <v>1.001495384763497</v>
+        <v>0.9996216309002135</v>
       </c>
       <c r="S4">
-        <v>1.001495384763497</v>
+        <v>0.9996216309002135</v>
       </c>
       <c r="T4">
-        <v>1.000546751279438</v>
+        <v>0.9998421767494028</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -768,58 +774,58 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.992969347233429</v>
+        <v>1.075336831766261</v>
       </c>
       <c r="D5">
-        <v>1.001847905273776</v>
+        <v>0.9812902494817299</v>
       </c>
       <c r="E5">
-        <v>1.001707530518732</v>
+        <v>0.981096656893965</v>
       </c>
       <c r="F5">
-        <v>0.992969347233429</v>
+        <v>1.075336831766261</v>
       </c>
       <c r="G5">
-        <v>1.00174845371758</v>
+        <v>0.9811531017487453</v>
       </c>
       <c r="H5">
-        <v>1.001847905273776</v>
+        <v>0.9812902494817299</v>
       </c>
       <c r="I5">
-        <v>0.9961656277665722</v>
+        <v>1.041480059195947</v>
       </c>
       <c r="J5">
-        <v>1.004526674697407</v>
+        <v>0.9495542042648314</v>
       </c>
       <c r="K5">
-        <v>1.001847905273776</v>
+        <v>0.9812902494817299</v>
       </c>
       <c r="L5">
-        <v>1.001707530518732</v>
+        <v>0.981096656893965</v>
       </c>
       <c r="M5">
-        <v>0.9973384388760804</v>
+        <v>1.028216744330113</v>
       </c>
       <c r="N5">
-        <v>0.9973384388760804</v>
+        <v>1.028216744330113</v>
       </c>
       <c r="O5">
-        <v>0.9969475018395778</v>
+        <v>1.032637849285391</v>
       </c>
       <c r="P5">
-        <v>0.9988415943419788</v>
+        <v>1.012574579380652</v>
       </c>
       <c r="Q5">
-        <v>0.9988415943419788</v>
+        <v>1.012574579380652</v>
       </c>
       <c r="R5">
-        <v>0.999593172074928</v>
+        <v>1.004753496905922</v>
       </c>
       <c r="S5">
-        <v>0.999593172074928</v>
+        <v>1.004753496905922</v>
       </c>
       <c r="T5">
-        <v>0.9998275898679158</v>
+        <v>1.00165185055858</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -830,58 +836,58 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.9730148253937378</v>
+        <v>1.024208985700529</v>
       </c>
       <c r="D6">
-        <v>1.007184783031468</v>
+        <v>0.9938988017437617</v>
       </c>
       <c r="E6">
-        <v>1.006502694454478</v>
+        <v>0.9939749498659368</v>
       </c>
       <c r="F6">
-        <v>0.9730148253937378</v>
+        <v>1.024208985700529</v>
       </c>
       <c r="G6">
-        <v>1.00670153736151</v>
+        <v>0.9939527494518351</v>
       </c>
       <c r="H6">
-        <v>1.007184783031468</v>
+        <v>0.9938988017437617</v>
       </c>
       <c r="I6">
-        <v>0.985316014044316</v>
+        <v>1.013297318178215</v>
       </c>
       <c r="J6">
-        <v>1.017210591230337</v>
+        <v>0.9839477027363513</v>
       </c>
       <c r="K6">
-        <v>1.007184783031468</v>
+        <v>0.9938988017437617</v>
       </c>
       <c r="L6">
-        <v>1.006502694454478</v>
+        <v>0.9939749498659368</v>
       </c>
       <c r="M6">
-        <v>0.9897587599241078</v>
+        <v>1.009091967783233</v>
       </c>
       <c r="N6">
-        <v>0.9897587599241078</v>
+        <v>1.009091967783233</v>
       </c>
       <c r="O6">
-        <v>0.9882778446308439</v>
+        <v>1.010493751248227</v>
       </c>
       <c r="P6">
-        <v>0.9955674342932278</v>
+        <v>1.004027579103409</v>
       </c>
       <c r="Q6">
-        <v>0.9955674342932278</v>
+        <v>1.004027579103409</v>
       </c>
       <c r="R6">
-        <v>0.9984717714777878</v>
+        <v>1.001495384763497</v>
       </c>
       <c r="S6">
-        <v>0.9984717714777878</v>
+        <v>1.001495384763497</v>
       </c>
       <c r="T6">
-        <v>0.9993217409193078</v>
+        <v>1.000546751279438</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -892,58 +898,58 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9994992730491395</v>
+        <v>0.992969347233429</v>
       </c>
       <c r="D7">
-        <v>1.00011613681466</v>
+        <v>1.001847905273776</v>
       </c>
       <c r="E7">
-        <v>1.000130207142011</v>
+        <v>1.001707530518732</v>
       </c>
       <c r="F7">
-        <v>0.9994992730491395</v>
+        <v>0.992969347233429</v>
       </c>
       <c r="G7">
-        <v>1.000126105247291</v>
+        <v>1.00174845371758</v>
       </c>
       <c r="H7">
-        <v>1.00011613681466</v>
+        <v>1.001847905273776</v>
       </c>
       <c r="I7">
-        <v>0.9997213436553589</v>
+        <v>0.9961656277665722</v>
       </c>
       <c r="J7">
-        <v>1.000349900401669</v>
+        <v>1.004526674697407</v>
       </c>
       <c r="K7">
-        <v>1.00011613681466</v>
+        <v>1.001847905273776</v>
       </c>
       <c r="L7">
-        <v>1.000130207142011</v>
+        <v>1.001707530518732</v>
       </c>
       <c r="M7">
-        <v>0.9998147400955755</v>
+        <v>0.9973384388760804</v>
       </c>
       <c r="N7">
-        <v>0.9998147400955755</v>
+        <v>0.9973384388760804</v>
       </c>
       <c r="O7">
-        <v>0.9997836079488366</v>
+        <v>0.9969475018395778</v>
       </c>
       <c r="P7">
-        <v>0.9999152056686039</v>
+        <v>0.9988415943419788</v>
       </c>
       <c r="Q7">
-        <v>0.9999152056686039</v>
+        <v>0.9988415943419788</v>
       </c>
       <c r="R7">
-        <v>0.999965438455118</v>
+        <v>0.999593172074928</v>
       </c>
       <c r="S7">
-        <v>0.999965438455118</v>
+        <v>0.999593172074928</v>
       </c>
       <c r="T7">
-        <v>0.9999904943850217</v>
+        <v>0.9998275898679158</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -954,58 +960,58 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.9999315057285559</v>
+        <v>0.9730148253937378</v>
       </c>
       <c r="D8">
-        <v>1.000019946708355</v>
+        <v>1.007184783031468</v>
       </c>
       <c r="E8">
-        <v>1.000015556391327</v>
+        <v>1.006502694454478</v>
       </c>
       <c r="F8">
-        <v>0.9999315057285559</v>
+        <v>0.9730148253937378</v>
       </c>
       <c r="G8">
-        <v>1.000016835909944</v>
+        <v>1.00670153736151</v>
       </c>
       <c r="H8">
-        <v>1.000019946708355</v>
+        <v>1.007184783031468</v>
       </c>
       <c r="I8">
-        <v>0.9999633441660268</v>
+        <v>0.985316014044316</v>
       </c>
       <c r="J8">
-        <v>1.000040645159586</v>
+        <v>1.017210591230337</v>
       </c>
       <c r="K8">
-        <v>1.000019946708355</v>
+        <v>1.007184783031468</v>
       </c>
       <c r="L8">
-        <v>1.000015556391327</v>
+        <v>1.006502694454478</v>
       </c>
       <c r="M8">
-        <v>0.9999735310599414</v>
+        <v>0.9897587599241078</v>
       </c>
       <c r="N8">
-        <v>0.9999735310599414</v>
+        <v>0.9897587599241078</v>
       </c>
       <c r="O8">
-        <v>0.9999701354286366</v>
+        <v>0.9882778446308439</v>
       </c>
       <c r="P8">
-        <v>0.999989002942746</v>
+        <v>0.9955674342932278</v>
       </c>
       <c r="Q8">
-        <v>0.999989002942746</v>
+        <v>0.9955674342932278</v>
       </c>
       <c r="R8">
-        <v>0.9999967388841483</v>
+        <v>0.9984717714777878</v>
       </c>
       <c r="S8">
-        <v>0.9999967388841483</v>
+        <v>0.9984717714777878</v>
       </c>
       <c r="T8">
-        <v>0.9999979723439658</v>
+        <v>0.9993217409193078</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -1016,58 +1022,58 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.9985466681248606</v>
+        <v>0.9994992730491395</v>
       </c>
       <c r="D9">
-        <v>1.000344976798933</v>
+        <v>1.00011613681466</v>
       </c>
       <c r="E9">
-        <v>1.000373531000567</v>
+        <v>1.000130207142011</v>
       </c>
       <c r="F9">
-        <v>0.9985466681248606</v>
+        <v>0.9994992730491395</v>
       </c>
       <c r="G9">
-        <v>1.000365205458988</v>
+        <v>1.000126105247291</v>
       </c>
       <c r="H9">
-        <v>1.000344976798933</v>
+        <v>1.00011613681466</v>
       </c>
       <c r="I9">
-        <v>0.999194060057356</v>
+        <v>0.9997213436553589</v>
       </c>
       <c r="J9">
-        <v>1.001001521959724</v>
+        <v>1.000349900401669</v>
       </c>
       <c r="K9">
-        <v>1.000344976798933</v>
+        <v>1.00011613681466</v>
       </c>
       <c r="L9">
-        <v>1.000373531000567</v>
+        <v>1.000130207142011</v>
       </c>
       <c r="M9">
-        <v>0.9994600995627136</v>
+        <v>0.9998147400955755</v>
       </c>
       <c r="N9">
-        <v>0.9994600995627136</v>
+        <v>0.9998147400955755</v>
       </c>
       <c r="O9">
-        <v>0.9993714197275945</v>
+        <v>0.9997836079488366</v>
       </c>
       <c r="P9">
-        <v>0.9997550586414533</v>
+        <v>0.9999152056686039</v>
       </c>
       <c r="Q9">
-        <v>0.9997550586414533</v>
+        <v>0.9999152056686039</v>
       </c>
       <c r="R9">
-        <v>0.9999025381808231</v>
+        <v>0.999965438455118</v>
       </c>
       <c r="S9">
-        <v>0.9999025381808231</v>
+        <v>0.999965438455118</v>
       </c>
       <c r="T9">
-        <v>0.9999709939000714</v>
+        <v>0.9999904943850217</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1078,58 +1084,58 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.9726070967102842</v>
+        <v>0.9999315057285559</v>
       </c>
       <c r="D10">
-        <v>1.007300375174958</v>
+        <v>1.000019946708355</v>
       </c>
       <c r="E10">
-        <v>1.006597038371994</v>
+        <v>1.000015556391327</v>
       </c>
       <c r="F10">
-        <v>0.9726070967102842</v>
+        <v>0.9999315057285559</v>
       </c>
       <c r="G10">
-        <v>1.006802075350439</v>
+        <v>1.000016835909944</v>
       </c>
       <c r="H10">
-        <v>1.007300375174958</v>
+        <v>1.000019946708355</v>
       </c>
       <c r="I10">
-        <v>0.9850966803889492</v>
+        <v>0.9999633441660268</v>
       </c>
       <c r="J10">
-        <v>1.017458127560284</v>
+        <v>1.000040645159586</v>
       </c>
       <c r="K10">
-        <v>1.007300375174958</v>
+        <v>1.000019946708355</v>
       </c>
       <c r="L10">
-        <v>1.006597038371994</v>
+        <v>1.000015556391327</v>
       </c>
       <c r="M10">
-        <v>0.9896020675411392</v>
+        <v>0.9999735310599414</v>
       </c>
       <c r="N10">
-        <v>0.9896020675411392</v>
+        <v>0.9999735310599414</v>
       </c>
       <c r="O10">
-        <v>0.9881002718237425</v>
+        <v>0.9999701354286366</v>
       </c>
       <c r="P10">
-        <v>0.9955015034190787</v>
+        <v>0.999989002942746</v>
       </c>
       <c r="Q10">
-        <v>0.9955015034190787</v>
+        <v>0.999989002942746</v>
       </c>
       <c r="R10">
-        <v>0.9984512213580484</v>
+        <v>0.9999967388841483</v>
       </c>
       <c r="S10">
-        <v>0.9984512213580484</v>
+        <v>0.9999967388841483</v>
       </c>
       <c r="T10">
-        <v>0.9993102322594848</v>
+        <v>0.9999979723439658</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1140,58 +1146,58 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.034541494822689</v>
+        <v>0.9985466681248606</v>
       </c>
       <c r="D11">
-        <v>0.9913611073668852</v>
+        <v>1.000344976798933</v>
       </c>
       <c r="E11">
-        <v>0.991366581221883</v>
+        <v>1.000373531000567</v>
       </c>
       <c r="F11">
-        <v>1.034541494822689</v>
+        <v>0.9985466681248606</v>
       </c>
       <c r="G11">
-        <v>0.9913649859854505</v>
+        <v>1.000365205458988</v>
       </c>
       <c r="H11">
-        <v>0.9913611073668852</v>
+        <v>1.000344976798933</v>
       </c>
       <c r="I11">
-        <v>1.018996553838803</v>
+        <v>0.999194060057356</v>
       </c>
       <c r="J11">
-        <v>0.9769785926650824</v>
+        <v>1.001001521959724</v>
       </c>
       <c r="K11">
-        <v>0.9913611073668852</v>
+        <v>1.000344976798933</v>
       </c>
       <c r="L11">
-        <v>0.991366581221883</v>
+        <v>1.000373531000567</v>
       </c>
       <c r="M11">
-        <v>1.012954038022286</v>
+        <v>0.9994600995627136</v>
       </c>
       <c r="N11">
-        <v>1.012954038022286</v>
+        <v>0.9994600995627136</v>
       </c>
       <c r="O11">
-        <v>1.014968209961125</v>
+        <v>0.9993714197275945</v>
       </c>
       <c r="P11">
-        <v>1.005756394470486</v>
+        <v>0.9997550586414533</v>
       </c>
       <c r="Q11">
-        <v>1.005756394470486</v>
+        <v>0.9997550586414533</v>
       </c>
       <c r="R11">
-        <v>1.002157572694586</v>
+        <v>0.9999025381808231</v>
       </c>
       <c r="S11">
-        <v>1.002157572694586</v>
+        <v>0.9999025381808231</v>
       </c>
       <c r="T11">
-        <v>1.000768219316799</v>
+        <v>0.9999709939000714</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1202,58 +1208,58 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.9931202773157891</v>
+        <v>0.9726070967102842</v>
       </c>
       <c r="D12">
-        <v>1.001857266368422</v>
+        <v>1.007300375174958</v>
       </c>
       <c r="E12">
-        <v>1.001643635600001</v>
+        <v>1.006597038371994</v>
       </c>
       <c r="F12">
-        <v>0.9931202773157891</v>
+        <v>0.9726070967102842</v>
       </c>
       <c r="G12">
-        <v>1.00170591576842</v>
+        <v>1.006802075350439</v>
       </c>
       <c r="H12">
-        <v>1.001857266368422</v>
+        <v>1.007300375174958</v>
       </c>
       <c r="I12">
-        <v>0.9962655923473693</v>
+        <v>0.9850966803889492</v>
       </c>
       <c r="J12">
-        <v>1.004342334526315</v>
+        <v>1.017458127560284</v>
       </c>
       <c r="K12">
-        <v>1.001857266368422</v>
+        <v>1.007300375174958</v>
       </c>
       <c r="L12">
-        <v>1.001643635600001</v>
+        <v>1.006597038371994</v>
       </c>
       <c r="M12">
-        <v>0.9973819564578952</v>
+        <v>0.9896020675411392</v>
       </c>
       <c r="N12">
-        <v>0.9973819564578952</v>
+        <v>0.9896020675411392</v>
       </c>
       <c r="O12">
-        <v>0.9970098350877198</v>
+        <v>0.9881002718237425</v>
       </c>
       <c r="P12">
-        <v>0.9988737264280708</v>
+        <v>0.9955015034190787</v>
       </c>
       <c r="Q12">
-        <v>0.9988737264280708</v>
+        <v>0.9955015034190787</v>
       </c>
       <c r="R12">
-        <v>0.9996196114131586</v>
+        <v>0.9984512213580484</v>
       </c>
       <c r="S12">
-        <v>0.9996196114131586</v>
+        <v>0.9984512213580484</v>
       </c>
       <c r="T12">
-        <v>0.9998225036543862</v>
+        <v>0.9993102322594848</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1264,58 +1270,58 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.00533638118444</v>
+        <v>1.034541494822689</v>
       </c>
       <c r="D13">
-        <v>0.9986472728469137</v>
+        <v>0.9913611073668852</v>
       </c>
       <c r="E13">
-        <v>0.9986762579753817</v>
+        <v>0.991366581221883</v>
       </c>
       <c r="F13">
-        <v>1.00533638118444</v>
+        <v>1.034541494822689</v>
       </c>
       <c r="G13">
-        <v>0.9986678058666526</v>
+        <v>0.9913649859854505</v>
       </c>
       <c r="H13">
-        <v>0.9986472728469137</v>
+        <v>0.9913611073668852</v>
       </c>
       <c r="I13">
-        <v>1.002928300764814</v>
+        <v>1.018996553838803</v>
       </c>
       <c r="J13">
-        <v>0.9964755400407521</v>
+        <v>0.9769785926650824</v>
       </c>
       <c r="K13">
-        <v>0.9986472728469137</v>
+        <v>0.9913611073668852</v>
       </c>
       <c r="L13">
-        <v>0.9986762579753817</v>
+        <v>0.991366581221883</v>
       </c>
       <c r="M13">
-        <v>1.002006319579911</v>
+        <v>1.012954038022286</v>
       </c>
       <c r="N13">
-        <v>1.002006319579911</v>
+        <v>1.012954038022286</v>
       </c>
       <c r="O13">
-        <v>1.002313646641545</v>
+        <v>1.014968209961125</v>
       </c>
       <c r="P13">
-        <v>1.000886637335579</v>
+        <v>1.005756394470486</v>
       </c>
       <c r="Q13">
-        <v>1.000886637335579</v>
+        <v>1.005756394470486</v>
       </c>
       <c r="R13">
-        <v>1.000326796213412</v>
+        <v>1.002157572694586</v>
       </c>
       <c r="S13">
-        <v>1.000326796213412</v>
+        <v>1.002157572694586</v>
       </c>
       <c r="T13">
-        <v>1.000121926446492</v>
+        <v>1.000768219316799</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1326,58 +1332,58 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.9526597999999998</v>
+        <v>0.9931202773157891</v>
       </c>
       <c r="D14">
-        <v>1.012634</v>
+        <v>1.001857266368422</v>
       </c>
       <c r="E14">
-        <v>1.0113912</v>
+        <v>1.001643635600001</v>
       </c>
       <c r="F14">
-        <v>0.9526597999999998</v>
+        <v>0.9931202773157891</v>
       </c>
       <c r="G14">
-        <v>1.011753499999999</v>
+        <v>1.00170591576842</v>
       </c>
       <c r="H14">
-        <v>1.012634</v>
+        <v>1.001857266368422</v>
       </c>
       <c r="I14">
-        <v>0.9742505199999987</v>
+        <v>0.9962655923473693</v>
       </c>
       <c r="J14">
-        <v>1.0301398</v>
+        <v>1.004342334526315</v>
       </c>
       <c r="K14">
-        <v>1.012634</v>
+        <v>1.001857266368422</v>
       </c>
       <c r="L14">
-        <v>1.0113912</v>
+        <v>1.001643635600001</v>
       </c>
       <c r="M14">
-        <v>0.9820254999999998</v>
+        <v>0.9973819564578952</v>
       </c>
       <c r="N14">
-        <v>0.9820254999999998</v>
+        <v>0.9973819564578952</v>
       </c>
       <c r="O14">
-        <v>0.9794338399999994</v>
+        <v>0.9970098350877198</v>
       </c>
       <c r="P14">
-        <v>0.9922283333333329</v>
+        <v>0.9988737264280708</v>
       </c>
       <c r="Q14">
-        <v>0.9922283333333329</v>
+        <v>0.9988737264280708</v>
       </c>
       <c r="R14">
-        <v>0.9973297499999996</v>
+        <v>0.9996196114131586</v>
       </c>
       <c r="S14">
-        <v>0.9973297499999996</v>
+        <v>0.9996196114131586</v>
       </c>
       <c r="T14">
-        <v>0.9988048033333327</v>
+        <v>0.9998225036543862</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1388,58 +1394,58 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.9526597999999999</v>
+        <v>1.00533638118444</v>
       </c>
       <c r="D15">
-        <v>1.012634</v>
+        <v>0.9986472728469137</v>
       </c>
       <c r="E15">
-        <v>1.0113912</v>
+        <v>0.9986762579753817</v>
       </c>
       <c r="F15">
-        <v>0.9526597999999999</v>
+        <v>1.00533638118444</v>
       </c>
       <c r="G15">
-        <v>1.0117535</v>
+        <v>0.9986678058666526</v>
       </c>
       <c r="H15">
-        <v>1.012634</v>
+        <v>0.9986472728469137</v>
       </c>
       <c r="I15">
-        <v>0.9742505199999999</v>
+        <v>1.002928300764814</v>
       </c>
       <c r="J15">
-        <v>1.0301398</v>
+        <v>0.9964755400407521</v>
       </c>
       <c r="K15">
-        <v>1.012634</v>
+        <v>0.9986472728469137</v>
       </c>
       <c r="L15">
-        <v>1.0113912</v>
+        <v>0.9986762579753817</v>
       </c>
       <c r="M15">
-        <v>0.9820255</v>
+        <v>1.002006319579911</v>
       </c>
       <c r="N15">
-        <v>0.9820255</v>
+        <v>1.002006319579911</v>
       </c>
       <c r="O15">
-        <v>0.97943384</v>
+        <v>1.002313646641545</v>
       </c>
       <c r="P15">
-        <v>0.9922283333333333</v>
+        <v>1.000886637335579</v>
       </c>
       <c r="Q15">
-        <v>0.9922283333333333</v>
+        <v>1.000886637335579</v>
       </c>
       <c r="R15">
-        <v>0.99732975</v>
+        <v>1.000326796213412</v>
       </c>
       <c r="S15">
-        <v>0.99732975</v>
+        <v>1.000326796213412</v>
       </c>
       <c r="T15">
-        <v>0.9988048033333333</v>
+        <v>1.000121926446492</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1450,58 +1456,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.1873941</v>
+        <v>0.9526597999999998</v>
       </c>
       <c r="D16">
-        <v>0.9526597999999999</v>
+        <v>1.012634</v>
       </c>
       <c r="E16">
-        <v>0.9534246199999999</v>
+        <v>1.0113912</v>
       </c>
       <c r="F16">
-        <v>1.1873941</v>
+        <v>0.9526597999999998</v>
       </c>
       <c r="G16">
-        <v>0.95320164</v>
+        <v>1.011753499999999</v>
       </c>
       <c r="H16">
-        <v>0.9526597999999999</v>
+        <v>1.012634</v>
       </c>
       <c r="I16">
-        <v>1.1028898</v>
+        <v>0.9742505199999987</v>
       </c>
       <c r="J16">
-        <v>0.8759446600000002</v>
+        <v>1.0301398</v>
       </c>
       <c r="K16">
-        <v>0.9526597999999999</v>
+        <v>1.012634</v>
       </c>
       <c r="L16">
-        <v>0.9534246199999999</v>
+        <v>1.0113912</v>
       </c>
       <c r="M16">
-        <v>1.07040936</v>
+        <v>0.9820254999999998</v>
       </c>
       <c r="N16">
-        <v>1.07040936</v>
+        <v>0.9820254999999998</v>
       </c>
       <c r="O16">
-        <v>1.081236173333333</v>
+        <v>0.9794338399999994</v>
       </c>
       <c r="P16">
-        <v>1.031159506666667</v>
+        <v>0.9922283333333329</v>
       </c>
       <c r="Q16">
-        <v>1.031159506666667</v>
+        <v>0.9922283333333329</v>
       </c>
       <c r="R16">
-        <v>1.01153458</v>
+        <v>0.9973297499999996</v>
       </c>
       <c r="S16">
-        <v>1.01153458</v>
+        <v>0.9973297499999996</v>
       </c>
       <c r="T16">
-        <v>1.004252436666667</v>
+        <v>0.9988048033333327</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1512,58 +1518,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.9971564699999999</v>
+        <v>0.9526597999999999</v>
       </c>
       <c r="D17">
-        <v>1.0006024</v>
+        <v>1.012634</v>
       </c>
       <c r="E17">
-        <v>1.0007712</v>
+        <v>1.0113912</v>
       </c>
       <c r="F17">
-        <v>0.9971564699999999</v>
+        <v>0.9526597999999999</v>
       </c>
       <c r="G17">
-        <v>1.000722</v>
+        <v>1.0117535</v>
       </c>
       <c r="H17">
-        <v>1.0006024</v>
+        <v>1.012634</v>
       </c>
       <c r="I17">
-        <v>0.998397</v>
+        <v>0.9742505199999999</v>
       </c>
       <c r="J17">
-        <v>1.0020886</v>
+        <v>1.0301398</v>
       </c>
       <c r="K17">
-        <v>1.0006024</v>
+        <v>1.012634</v>
       </c>
       <c r="L17">
-        <v>1.0007712</v>
+        <v>1.0113912</v>
       </c>
       <c r="M17">
-        <v>0.9989638349999999</v>
+        <v>0.9820255</v>
       </c>
       <c r="N17">
-        <v>0.9989638349999999</v>
+        <v>0.9820255</v>
       </c>
       <c r="O17">
-        <v>0.99877489</v>
+        <v>0.97943384</v>
       </c>
       <c r="P17">
-        <v>0.9995100233333333</v>
+        <v>0.9922283333333333</v>
       </c>
       <c r="Q17">
-        <v>0.9995100233333333</v>
+        <v>0.9922283333333333</v>
       </c>
       <c r="R17">
-        <v>0.9997831174999999</v>
+        <v>0.99732975</v>
       </c>
       <c r="S17">
-        <v>0.9997831174999999</v>
+        <v>0.99732975</v>
       </c>
       <c r="T17">
-        <v>0.9999562783333333</v>
+        <v>0.9988048033333333</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1574,58 +1580,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.9822361227397259</v>
+        <v>1.1873941</v>
       </c>
       <c r="D18">
-        <v>1.004205658630136</v>
+        <v>0.9526597999999999</v>
       </c>
       <c r="E18">
-        <v>1.004571701917808</v>
+        <v>0.9534246199999999</v>
       </c>
       <c r="F18">
-        <v>0.9822361227397259</v>
+        <v>1.1873941</v>
       </c>
       <c r="G18">
-        <v>1.004464977260274</v>
+        <v>0.95320164</v>
       </c>
       <c r="H18">
-        <v>1.004205658630136</v>
+        <v>0.9526597999999999</v>
       </c>
       <c r="I18">
-        <v>0.9901451567123291</v>
+        <v>1.1028898</v>
       </c>
       <c r="J18">
-        <v>1.012260926027397</v>
+        <v>0.8759446600000002</v>
       </c>
       <c r="K18">
-        <v>1.004205658630136</v>
+        <v>0.9526597999999999</v>
       </c>
       <c r="L18">
-        <v>1.004571701917808</v>
+        <v>0.9534246199999999</v>
       </c>
       <c r="M18">
-        <v>0.993403912328767</v>
+        <v>1.07040936</v>
       </c>
       <c r="N18">
-        <v>0.993403912328767</v>
+        <v>1.07040936</v>
       </c>
       <c r="O18">
-        <v>0.992317660456621</v>
+        <v>1.081236173333333</v>
       </c>
       <c r="P18">
-        <v>0.9970044944292235</v>
+        <v>1.031159506666667</v>
       </c>
       <c r="Q18">
-        <v>0.9970044944292235</v>
+        <v>1.031159506666667</v>
       </c>
       <c r="R18">
-        <v>0.9988047854794517</v>
+        <v>1.01153458</v>
       </c>
       <c r="S18">
-        <v>0.9988047854794517</v>
+        <v>1.01153458</v>
       </c>
       <c r="T18">
-        <v>0.9996474238812785</v>
+        <v>1.004252436666667</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1636,58 +1642,58 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.987245854736842</v>
+        <v>0.9971564699999999</v>
       </c>
       <c r="D19">
-        <v>1.002960087894737</v>
+        <v>1.0006024</v>
       </c>
       <c r="E19">
-        <v>1.003315456315789</v>
+        <v>1.0007712</v>
       </c>
       <c r="F19">
-        <v>0.987245854736842</v>
+        <v>0.9971564699999999</v>
       </c>
       <c r="G19">
-        <v>1.003211843684211</v>
+        <v>1.000722</v>
       </c>
       <c r="H19">
-        <v>1.002960087894737</v>
+        <v>1.0006024</v>
       </c>
       <c r="I19">
-        <v>0.9929029810526314</v>
+        <v>0.998397</v>
       </c>
       <c r="J19">
-        <v>1.008908904210527</v>
+        <v>1.0020886</v>
       </c>
       <c r="K19">
-        <v>1.002960087894737</v>
+        <v>1.0006024</v>
       </c>
       <c r="L19">
-        <v>1.003315456315789</v>
+        <v>1.0007712</v>
       </c>
       <c r="M19">
-        <v>0.9952806555263156</v>
+        <v>0.9989638349999999</v>
       </c>
       <c r="N19">
-        <v>0.9952806555263156</v>
+        <v>0.9989638349999999</v>
       </c>
       <c r="O19">
-        <v>0.9944880973684209</v>
+        <v>0.99877489</v>
       </c>
       <c r="P19">
-        <v>0.9978404663157893</v>
+        <v>0.9995100233333333</v>
       </c>
       <c r="Q19">
-        <v>0.9978404663157893</v>
+        <v>0.9995100233333333</v>
       </c>
       <c r="R19">
-        <v>0.9991203717105261</v>
+        <v>0.9997831174999999</v>
       </c>
       <c r="S19">
-        <v>0.9991203717105261</v>
+        <v>0.9997831174999999</v>
       </c>
       <c r="T19">
-        <v>0.9997575213157894</v>
+        <v>0.9999562783333333</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1698,58 +1704,58 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>1.063849743157895</v>
+        <v>0.9822361227397259</v>
       </c>
       <c r="D20">
-        <v>0.9842251800000001</v>
+        <v>1.004205658630136</v>
       </c>
       <c r="E20">
-        <v>0.9839333421052632</v>
+        <v>1.004571701917808</v>
       </c>
       <c r="F20">
-        <v>1.063849743157895</v>
+        <v>0.9822361227397259</v>
       </c>
       <c r="G20">
-        <v>0.9840184273684212</v>
+        <v>1.004464977260274</v>
       </c>
       <c r="H20">
-        <v>0.9842251800000001</v>
+        <v>1.004205658630136</v>
       </c>
       <c r="I20">
-        <v>1.035184897894737</v>
+        <v>0.9901451567123291</v>
       </c>
       <c r="J20">
-        <v>0.9570999831578948</v>
+        <v>1.012260926027397</v>
       </c>
       <c r="K20">
-        <v>0.9842251800000001</v>
+        <v>1.004205658630136</v>
       </c>
       <c r="L20">
-        <v>0.9839333421052632</v>
+        <v>1.004571701917808</v>
       </c>
       <c r="M20">
-        <v>1.023891542631579</v>
+        <v>0.993403912328767</v>
       </c>
       <c r="N20">
-        <v>1.023891542631579</v>
+        <v>0.993403912328767</v>
       </c>
       <c r="O20">
-        <v>1.027655994385965</v>
+        <v>0.992317660456621</v>
       </c>
       <c r="P20">
-        <v>1.010669421754386</v>
+        <v>0.9970044944292235</v>
       </c>
       <c r="Q20">
-        <v>1.010669421754386</v>
+        <v>0.9970044944292235</v>
       </c>
       <c r="R20">
-        <v>1.004058361315789</v>
+        <v>0.9988047854794517</v>
       </c>
       <c r="S20">
-        <v>1.004058361315789</v>
+        <v>0.9988047854794517</v>
       </c>
       <c r="T20">
-        <v>1.001385262280702</v>
+        <v>0.9996474238812785</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1760,58 +1766,58 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.903179289747316</v>
+        <v>0.987245854736842</v>
       </c>
       <c r="D21">
-        <v>1.023710879888909</v>
+        <v>1.002960087894737</v>
       </c>
       <c r="E21">
-        <v>1.024479788244299</v>
+        <v>1.003315456315789</v>
       </c>
       <c r="F21">
-        <v>0.903179289747316</v>
+        <v>0.987245854736842</v>
       </c>
       <c r="G21">
-        <v>1.024255608649295</v>
+        <v>1.003211843684211</v>
       </c>
       <c r="H21">
-        <v>1.023710879888909</v>
+        <v>1.002960087894737</v>
       </c>
       <c r="I21">
-        <v>0.9465706614042574</v>
+        <v>0.9929029810526314</v>
       </c>
       <c r="J21">
-        <v>1.065425904135564</v>
+        <v>1.008908904210527</v>
       </c>
       <c r="K21">
-        <v>1.023710879888909</v>
+        <v>1.002960087894737</v>
       </c>
       <c r="L21">
-        <v>1.024479788244299</v>
+        <v>1.003315456315789</v>
       </c>
       <c r="M21">
-        <v>0.9638295389958076</v>
+        <v>0.9952806555263156</v>
       </c>
       <c r="N21">
-        <v>0.9638295389958076</v>
+        <v>0.9952806555263156</v>
       </c>
       <c r="O21">
-        <v>0.9580765797986243</v>
+        <v>0.9944880973684209</v>
       </c>
       <c r="P21">
-        <v>0.9837899859601746</v>
+        <v>0.9978404663157893</v>
       </c>
       <c r="Q21">
-        <v>0.9837899859601746</v>
+        <v>0.9978404663157893</v>
       </c>
       <c r="R21">
-        <v>0.9937702094423582</v>
+        <v>0.9991203717105261</v>
       </c>
       <c r="S21">
-        <v>0.9937702094423582</v>
+        <v>0.9991203717105261</v>
       </c>
       <c r="T21">
-        <v>0.9979370220116069</v>
+        <v>0.9997575213157894</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1822,58 +1828,58 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>0.9737550851655731</v>
+        <v>1.063849743157895</v>
       </c>
       <c r="D22">
-        <v>1.006768384060493</v>
+        <v>0.9842251800000001</v>
       </c>
       <c r="E22">
-        <v>1.006446150929852</v>
+        <v>0.9839333421052632</v>
       </c>
       <c r="F22">
-        <v>0.9737550851655731</v>
+        <v>1.063849743157895</v>
       </c>
       <c r="G22">
-        <v>1.00654008781614</v>
+        <v>0.9840184273684212</v>
       </c>
       <c r="H22">
-        <v>1.006768384060493</v>
+        <v>0.9842251800000001</v>
       </c>
       <c r="I22">
-        <v>0.9856398703219604</v>
+        <v>1.035184897894737</v>
       </c>
       <c r="J22">
-        <v>1.01712833877372</v>
+        <v>0.9570999831578948</v>
       </c>
       <c r="K22">
-        <v>1.006768384060493</v>
+        <v>0.9842251800000001</v>
       </c>
       <c r="L22">
-        <v>1.006446150929852</v>
+        <v>0.9839333421052632</v>
       </c>
       <c r="M22">
-        <v>0.9901006180477125</v>
+        <v>1.023891542631579</v>
       </c>
       <c r="N22">
-        <v>0.9901006180477125</v>
+        <v>1.023891542631579</v>
       </c>
       <c r="O22">
-        <v>0.9886137021391285</v>
+        <v>1.027655994385965</v>
       </c>
       <c r="P22">
-        <v>0.9956565400519727</v>
+        <v>1.010669421754386</v>
       </c>
       <c r="Q22">
-        <v>0.9956565400519728</v>
+        <v>1.010669421754386</v>
       </c>
       <c r="R22">
-        <v>0.9984345010541029</v>
+        <v>1.004058361315789</v>
       </c>
       <c r="S22">
-        <v>0.9984345010541029</v>
+        <v>1.004058361315789</v>
       </c>
       <c r="T22">
-        <v>0.9993796528446234</v>
+        <v>1.001385262280702</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1884,58 +1890,58 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>0.9987123041058847</v>
+        <v>0.903179289747316</v>
       </c>
       <c r="D23">
-        <v>1.000296024782096</v>
+        <v>1.023710879888909</v>
       </c>
       <c r="E23">
-        <v>1.000336325498456</v>
+        <v>1.024479788244299</v>
       </c>
       <c r="F23">
-        <v>0.9987123041058847</v>
+        <v>0.903179289747316</v>
       </c>
       <c r="G23">
-        <v>1.000324559131632</v>
+        <v>1.024255608649295</v>
       </c>
       <c r="H23">
-        <v>1.000296024782096</v>
+        <v>1.023710879888909</v>
       </c>
       <c r="I23">
-        <v>0.9992824357394359</v>
+        <v>0.9465706614042574</v>
       </c>
       <c r="J23">
-        <v>1.000904523457336</v>
+        <v>1.065425904135564</v>
       </c>
       <c r="K23">
-        <v>1.000296024782096</v>
+        <v>1.023710879888909</v>
       </c>
       <c r="L23">
-        <v>1.000336325498456</v>
+        <v>1.024479788244299</v>
       </c>
       <c r="M23">
-        <v>0.9995243148021703</v>
+        <v>0.9638295389958076</v>
       </c>
       <c r="N23">
-        <v>0.9995243148021703</v>
+        <v>0.9638295389958076</v>
       </c>
       <c r="O23">
-        <v>0.9994436884479255</v>
+        <v>0.9580765797986243</v>
       </c>
       <c r="P23">
-        <v>0.9997815514621454</v>
+        <v>0.9837899859601746</v>
       </c>
       <c r="Q23">
-        <v>0.9997815514621454</v>
+        <v>0.9837899859601746</v>
       </c>
       <c r="R23">
-        <v>0.9999101697921331</v>
+        <v>0.9937702094423582</v>
       </c>
       <c r="S23">
-        <v>0.9999101697921331</v>
+        <v>0.9937702094423582</v>
       </c>
       <c r="T23">
-        <v>0.9999760287858068</v>
+        <v>0.9979370220116069</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1946,58 +1952,58 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>0.9996364740418497</v>
+        <v>0.9737550851655731</v>
       </c>
       <c r="D24">
-        <v>1.000103377191377</v>
+        <v>1.006768384060493</v>
       </c>
       <c r="E24">
-        <v>1.000083939203447</v>
+        <v>1.006446150929852</v>
       </c>
       <c r="F24">
-        <v>0.9996364740418497</v>
+        <v>0.9737550851655731</v>
       </c>
       <c r="G24">
-        <v>1.000089609287539</v>
+        <v>1.00654008781614</v>
       </c>
       <c r="H24">
-        <v>1.000103377191377</v>
+        <v>1.006768384060493</v>
       </c>
       <c r="I24">
-        <v>0.9998045610426181</v>
+        <v>0.9856398703219604</v>
       </c>
       <c r="J24">
-        <v>1.000220137397193</v>
+        <v>1.01712833877372</v>
       </c>
       <c r="K24">
-        <v>1.000103377191377</v>
+        <v>1.006768384060493</v>
       </c>
       <c r="L24">
-        <v>1.000083939203447</v>
+        <v>1.006446150929852</v>
       </c>
       <c r="M24">
-        <v>0.9998602066226483</v>
+        <v>0.9901006180477125</v>
       </c>
       <c r="N24">
-        <v>0.9998602066226483</v>
+        <v>0.9901006180477125</v>
       </c>
       <c r="O24">
-        <v>0.9998416580959715</v>
+        <v>0.9886137021391285</v>
       </c>
       <c r="P24">
-        <v>0.9999412634788912</v>
+        <v>0.9956565400519727</v>
       </c>
       <c r="Q24">
-        <v>0.9999412634788912</v>
+        <v>0.9956565400519728</v>
       </c>
       <c r="R24">
-        <v>0.9999817919070126</v>
+        <v>0.9984345010541029</v>
       </c>
       <c r="S24">
-        <v>0.9999817919070126</v>
+        <v>0.9984345010541029</v>
       </c>
       <c r="T24">
-        <v>0.9999896830273372</v>
+        <v>0.9993796528446234</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -2008,58 +2014,58 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>1.124442944769613</v>
+        <v>0.9987123041058847</v>
       </c>
       <c r="D25">
-        <v>0.9686981865604244</v>
+        <v>1.000296024782096</v>
       </c>
       <c r="E25">
-        <v>0.9689954176457359</v>
+        <v>1.000336325498456</v>
       </c>
       <c r="F25">
-        <v>1.124442944769613</v>
+        <v>0.9987123041058847</v>
       </c>
       <c r="G25">
-        <v>0.9689087623183813</v>
+        <v>1.000324559131632</v>
       </c>
       <c r="H25">
-        <v>0.9686981865604244</v>
+        <v>1.000296024782096</v>
       </c>
       <c r="I25">
-        <v>1.068374821632422</v>
+        <v>0.9992824357394359</v>
       </c>
       <c r="J25">
-        <v>0.9173777296412539</v>
+        <v>1.000904523457336</v>
       </c>
       <c r="K25">
-        <v>0.9686981865604244</v>
+        <v>1.000296024782096</v>
       </c>
       <c r="L25">
-        <v>0.9689954176457359</v>
+        <v>1.000336325498456</v>
       </c>
       <c r="M25">
-        <v>1.046719181207674</v>
+        <v>0.9995243148021703</v>
       </c>
       <c r="N25">
-        <v>1.046719181207674</v>
+        <v>0.9995243148021703</v>
       </c>
       <c r="O25">
-        <v>1.053937728015924</v>
+        <v>0.9994436884479255</v>
       </c>
       <c r="P25">
-        <v>1.020712182991924</v>
+        <v>0.9997815514621454</v>
       </c>
       <c r="Q25">
-        <v>1.020712182991924</v>
+        <v>0.9997815514621454</v>
       </c>
       <c r="R25">
-        <v>1.007708683884049</v>
+        <v>0.9999101697921331</v>
       </c>
       <c r="S25">
-        <v>1.007708683884049</v>
+        <v>0.9999101697921331</v>
       </c>
       <c r="T25">
-        <v>1.002799643761305</v>
+        <v>0.9999760287858068</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2070,58 +2076,58 @@
         <v>24</v>
       </c>
       <c r="C26">
-        <v>1.033071397338449</v>
+        <v>0.9996364740418497</v>
       </c>
       <c r="D26">
-        <v>0.9918147868316274</v>
+        <v>1.000103377191377</v>
       </c>
       <c r="E26">
-        <v>0.9916862453123849</v>
+        <v>1.000083939203447</v>
       </c>
       <c r="F26">
-        <v>1.033071397338449</v>
+        <v>0.9996364740418497</v>
       </c>
       <c r="G26">
-        <v>0.9917237199623147</v>
+        <v>1.000089609287539</v>
       </c>
       <c r="H26">
-        <v>0.9918147868316274</v>
+        <v>1.000103377191377</v>
       </c>
       <c r="I26">
-        <v>1.01821901744236</v>
+        <v>0.9998045610426181</v>
       </c>
       <c r="J26">
-        <v>0.9778055018278902</v>
+        <v>1.000220137397193</v>
       </c>
       <c r="K26">
-        <v>0.9918147868316274</v>
+        <v>1.000103377191377</v>
       </c>
       <c r="L26">
-        <v>0.9916862453123849</v>
+        <v>1.000083939203447</v>
       </c>
       <c r="M26">
-        <v>1.012378821325417</v>
+        <v>0.9998602066226483</v>
       </c>
       <c r="N26">
-        <v>1.012378821325417</v>
+        <v>0.9998602066226483</v>
       </c>
       <c r="O26">
-        <v>1.014325553364398</v>
+        <v>0.9998416580959715</v>
       </c>
       <c r="P26">
-        <v>1.00552414316082</v>
+        <v>0.9999412634788912</v>
       </c>
       <c r="Q26">
-        <v>1.00552414316082</v>
+        <v>0.9999412634788912</v>
       </c>
       <c r="R26">
-        <v>1.002096804078522</v>
+        <v>0.9999817919070126</v>
       </c>
       <c r="S26">
-        <v>1.002096804078522</v>
+        <v>0.9999817919070126</v>
       </c>
       <c r="T26">
-        <v>1.000720111452504</v>
+        <v>0.9999896830273372</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2132,58 +2138,58 @@
         <v>25</v>
       </c>
       <c r="C27">
-        <v>0.9972263944468244</v>
+        <v>1.124442944769613</v>
       </c>
       <c r="D27">
-        <v>1.000675183502722</v>
+        <v>0.9686981865604244</v>
       </c>
       <c r="E27">
-        <v>1.000703540764506</v>
+        <v>0.9689954176457359</v>
       </c>
       <c r="F27">
-        <v>0.9972263944468244</v>
+        <v>1.124442944769613</v>
       </c>
       <c r="G27">
-        <v>1.000695244007062</v>
+        <v>0.9689087623183813</v>
       </c>
       <c r="H27">
-        <v>1.000675183502722</v>
+        <v>0.9686981865604244</v>
       </c>
       <c r="I27">
-        <v>0.9984679695955438</v>
+        <v>1.068374821632422</v>
       </c>
       <c r="J27">
-        <v>1.001881449358864</v>
+        <v>0.9173777296412539</v>
       </c>
       <c r="K27">
-        <v>1.000675183502722</v>
+        <v>0.9686981865604244</v>
       </c>
       <c r="L27">
-        <v>1.000703540764506</v>
+        <v>0.9689954176457359</v>
       </c>
       <c r="M27">
-        <v>0.9989649676056653</v>
+        <v>1.046719181207674</v>
       </c>
       <c r="N27">
-        <v>0.9989649676056653</v>
+        <v>1.046719181207674</v>
       </c>
       <c r="O27">
-        <v>0.9987993016022916</v>
+        <v>1.053937728015924</v>
       </c>
       <c r="P27">
-        <v>0.9995350395713509</v>
+        <v>1.020712182991924</v>
       </c>
       <c r="Q27">
-        <v>0.999535039571351</v>
+        <v>1.020712182991924</v>
       </c>
       <c r="R27">
-        <v>0.9998200755541938</v>
+        <v>1.007708683884049</v>
       </c>
       <c r="S27">
-        <v>0.9998200755541938</v>
+        <v>1.007708683884049</v>
       </c>
       <c r="T27">
-        <v>0.9999416302792539</v>
+        <v>1.002799643761305</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2194,58 +2200,58 @@
         <v>26</v>
       </c>
       <c r="C28">
-        <v>1.009223040097993</v>
+        <v>1.033071397338449</v>
       </c>
       <c r="D28">
-        <v>0.9975645637998064</v>
+        <v>0.9918147868316274</v>
       </c>
       <c r="E28">
-        <v>0.9977662724989611</v>
+        <v>0.9916862453123849</v>
       </c>
       <c r="F28">
-        <v>1.009223040097993</v>
+        <v>1.033071397338449</v>
       </c>
       <c r="G28">
-        <v>0.9977074643522817</v>
+        <v>0.9917237199623147</v>
       </c>
       <c r="H28">
-        <v>0.9975645637998064</v>
+        <v>0.9918147868316274</v>
       </c>
       <c r="I28">
-        <v>1.005026004071202</v>
+        <v>1.01821901744236</v>
       </c>
       <c r="J28">
-        <v>0.9940818253572086</v>
+        <v>0.9778055018278902</v>
       </c>
       <c r="K28">
-        <v>0.9975645637998064</v>
+        <v>0.9918147868316274</v>
       </c>
       <c r="L28">
-        <v>0.9977662724989611</v>
+        <v>0.9916862453123849</v>
       </c>
       <c r="M28">
-        <v>1.003494656298477</v>
+        <v>1.012378821325417</v>
       </c>
       <c r="N28">
-        <v>1.003494656298477</v>
+        <v>1.012378821325417</v>
       </c>
       <c r="O28">
-        <v>1.004005105556052</v>
+        <v>1.014325553364398</v>
       </c>
       <c r="P28">
-        <v>1.00151795879892</v>
+        <v>1.00552414316082</v>
       </c>
       <c r="Q28">
-        <v>1.00151795879892</v>
+        <v>1.00552414316082</v>
       </c>
       <c r="R28">
-        <v>1.000529610049142</v>
+        <v>1.002096804078522</v>
       </c>
       <c r="S28">
-        <v>1.000529610049142</v>
+        <v>1.002096804078522</v>
       </c>
       <c r="T28">
-        <v>1.000228195029576</v>
+        <v>1.000720111452504</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2256,57 +2262,181 @@
         <v>27</v>
       </c>
       <c r="C29">
+        <v>0.9972263944468244</v>
+      </c>
+      <c r="D29">
+        <v>1.000675183502722</v>
+      </c>
+      <c r="E29">
+        <v>1.000703540764506</v>
+      </c>
+      <c r="F29">
+        <v>0.9972263944468244</v>
+      </c>
+      <c r="G29">
+        <v>1.000695244007062</v>
+      </c>
+      <c r="H29">
+        <v>1.000675183502722</v>
+      </c>
+      <c r="I29">
+        <v>0.9984679695955438</v>
+      </c>
+      <c r="J29">
+        <v>1.001881449358864</v>
+      </c>
+      <c r="K29">
+        <v>1.000675183502722</v>
+      </c>
+      <c r="L29">
+        <v>1.000703540764506</v>
+      </c>
+      <c r="M29">
+        <v>0.9989649676056653</v>
+      </c>
+      <c r="N29">
+        <v>0.9989649676056653</v>
+      </c>
+      <c r="O29">
+        <v>0.9987993016022916</v>
+      </c>
+      <c r="P29">
+        <v>0.9995350395713509</v>
+      </c>
+      <c r="Q29">
+        <v>0.999535039571351</v>
+      </c>
+      <c r="R29">
+        <v>0.9998200755541938</v>
+      </c>
+      <c r="S29">
+        <v>0.9998200755541938</v>
+      </c>
+      <c r="T29">
+        <v>0.9999416302792539</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>1.009223040097993</v>
+      </c>
+      <c r="D30">
+        <v>0.9975645637998064</v>
+      </c>
+      <c r="E30">
+        <v>0.9977662724989611</v>
+      </c>
+      <c r="F30">
+        <v>1.009223040097993</v>
+      </c>
+      <c r="G30">
+        <v>0.9977074643522817</v>
+      </c>
+      <c r="H30">
+        <v>0.9975645637998064</v>
+      </c>
+      <c r="I30">
+        <v>1.005026004071202</v>
+      </c>
+      <c r="J30">
+        <v>0.9940818253572086</v>
+      </c>
+      <c r="K30">
+        <v>0.9975645637998064</v>
+      </c>
+      <c r="L30">
+        <v>0.9977662724989611</v>
+      </c>
+      <c r="M30">
+        <v>1.003494656298477</v>
+      </c>
+      <c r="N30">
+        <v>1.003494656298477</v>
+      </c>
+      <c r="O30">
+        <v>1.004005105556052</v>
+      </c>
+      <c r="P30">
+        <v>1.00151795879892</v>
+      </c>
+      <c r="Q30">
+        <v>1.00151795879892</v>
+      </c>
+      <c r="R30">
+        <v>1.000529610049142</v>
+      </c>
+      <c r="S30">
+        <v>1.000529610049142</v>
+      </c>
+      <c r="T30">
+        <v>1.000228195029576</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
         <v>1.01668392584168</v>
       </c>
-      <c r="D29">
+      <c r="D31">
         <v>0.9956716285978403</v>
       </c>
-      <c r="E29">
+      <c r="E31">
         <v>0.9959164536572774</v>
       </c>
-      <c r="F29">
+      <c r="F31">
         <v>1.01668392584168</v>
       </c>
-      <c r="G29">
+      <c r="G31">
         <v>0.9958450651231909</v>
       </c>
-      <c r="H29">
+      <c r="H31">
         <v>0.9956716285978403</v>
       </c>
-      <c r="I29">
+      <c r="I31">
         <v>1.009119525233704</v>
       </c>
-      <c r="J29">
+      <c r="J31">
         <v>0.9891571757632716</v>
       </c>
-      <c r="K29">
+      <c r="K31">
         <v>0.9956716285978403</v>
       </c>
-      <c r="L29">
+      <c r="L31">
         <v>0.9959164536572774</v>
       </c>
-      <c r="M29">
+      <c r="M31">
         <v>1.006300189749479</v>
       </c>
-      <c r="N29">
+      <c r="N31">
         <v>1.006300189749479</v>
       </c>
-      <c r="O29">
+      <c r="O31">
         <v>1.00723996824422</v>
       </c>
-      <c r="P29">
+      <c r="P31">
         <v>1.002757336032266</v>
       </c>
-      <c r="Q29">
+      <c r="Q31">
         <v>1.002757336032266</v>
       </c>
-      <c r="R29">
+      <c r="R31">
         <v>1.000985909173659</v>
       </c>
-      <c r="S29">
+      <c r="S31">
         <v>1.000985909173659</v>
       </c>
-      <c r="T29">
+      <c r="T31">
         <v>1.000398962369494</v>
       </c>
     </row>
